--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8282E8F9-A3E8-4405-9D12-DD3BDAB76726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C46C45-143B-4335-915C-A7A43A883058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,9 +275,6 @@
     <t>16.0 GB</t>
   </si>
   <si>
-    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
-  </si>
-  <si>
     <t>1.9.4</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>nyc-n100-1</t>
+  </si>
+  <si>
+    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
   <si>
     <t>poa-n100-2</t>
@@ -637,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -691,7 +691,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,7 +1033,7 @@
   <dimension ref="A1:N279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1126,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1134,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1154,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1241,7 +1240,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="27"/>
+      <c r="K21" s="26"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1258,7 +1257,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="28"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1361,7 +1360,7 @@
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1531,7 +1530,7 @@
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1546,7 +1545,7 @@
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1576,7 +1575,7 @@
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1591,7 +1590,7 @@
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1606,7 +1605,7 @@
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1686,7 +1685,7 @@
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1702,7 +1701,7 @@
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1718,7 +1717,7 @@
     </row>
     <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1734,7 +1733,7 @@
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1750,7 +1749,7 @@
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1809,7 +1808,7 @@
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2418,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2435,77 +2434,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="33"/>
-      <c r="N1" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="32"/>
+      <c r="N1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="32"/>
     </row>
     <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="N2" s="34" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="N2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="31"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="18">
         <v>1010</v>
       </c>
       <c r="D3" s="18">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E3" s="18">
         <v>1509</v>
@@ -2531,12 +2530,12 @@
       <c r="L3" s="18">
         <v>2807</v>
       </c>
-      <c r="N3" s="35"/>
+      <c r="N3" s="34"/>
       <c r="O3" s="18">
         <v>1010</v>
       </c>
       <c r="P3" s="18">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="Q3" s="18">
         <v>1509</v>
@@ -2565,585 +2564,585 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="22">
         <v>732</v>
       </c>
       <c r="C4" s="19">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="D4" s="19">
-        <v>782</v>
+        <v>755</v>
       </c>
       <c r="E4" s="19">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="F4" s="19">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="G4" s="19">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="H4" s="19">
+        <v>753</v>
+      </c>
+      <c r="I4" s="19">
         <v>760</v>
       </c>
-      <c r="I4" s="19">
-        <v>801</v>
-      </c>
       <c r="J4" s="19">
-        <v>772</v>
+        <v>743</v>
       </c>
       <c r="K4" s="19">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="L4" s="19">
-        <v>787</v>
-      </c>
-      <c r="M4" s="26"/>
+        <v>755</v>
+      </c>
+      <c r="M4" s="25"/>
       <c r="N4" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O4" s="19">
-        <v>45.921999999999997</v>
+        <v>103.265</v>
       </c>
       <c r="P4" s="19">
-        <v>43.218000000000004</v>
+        <v>103.953</v>
       </c>
       <c r="Q4" s="19">
-        <v>44.765999999999998</v>
+        <v>91.156000000000006</v>
       </c>
       <c r="R4" s="19">
-        <v>43.640999999999998</v>
+        <v>94</v>
       </c>
       <c r="S4" s="19">
-        <v>46.780999999999999</v>
+        <v>88.516000000000005</v>
       </c>
       <c r="T4" s="19">
-        <v>45.64</v>
+        <v>90.531000000000006</v>
       </c>
       <c r="U4" s="19">
-        <v>46.75</v>
+        <v>83.061999999999998</v>
       </c>
       <c r="V4" s="19">
-        <v>43.811999999999998</v>
+        <v>99.734999999999999</v>
       </c>
       <c r="W4" s="19">
-        <v>46.655999999999999</v>
+        <v>92.983999999999995</v>
       </c>
       <c r="X4" s="19">
-        <v>45.75</v>
+        <v>87.718999999999994</v>
       </c>
       <c r="AH4" s="21"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="22">
         <v>1484</v>
       </c>
       <c r="C5" s="19">
-        <v>1588</v>
+        <v>1571</v>
       </c>
       <c r="D5" s="19">
-        <v>1592</v>
+        <v>1507</v>
       </c>
       <c r="E5" s="19">
-        <v>1559</v>
+        <v>1534</v>
       </c>
       <c r="F5" s="19">
-        <v>1597</v>
+        <v>1567</v>
       </c>
       <c r="G5" s="19">
-        <v>1635</v>
+        <v>1530</v>
       </c>
       <c r="H5" s="19">
-        <v>1590</v>
+        <v>1577</v>
       </c>
       <c r="I5" s="19">
-        <v>1631</v>
+        <v>1555</v>
       </c>
       <c r="J5" s="19">
-        <v>1587</v>
+        <v>1544</v>
       </c>
       <c r="K5" s="19">
-        <v>1635</v>
+        <v>1513</v>
       </c>
       <c r="L5" s="19">
-        <v>1606</v>
-      </c>
-      <c r="M5" s="26"/>
+        <v>1504</v>
+      </c>
+      <c r="M5" s="25"/>
       <c r="N5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O5" s="19">
-        <v>40.015999999999998</v>
+        <v>90.031000000000006</v>
       </c>
       <c r="P5" s="19">
-        <v>42.530999999999999</v>
+        <v>93.718999999999994</v>
       </c>
       <c r="Q5" s="19">
-        <v>43.546999999999997</v>
+        <v>91.436999999999998</v>
       </c>
       <c r="R5" s="19">
-        <v>42.874000000000002</v>
+        <v>87.093999999999994</v>
       </c>
       <c r="S5" s="19">
-        <v>41.75</v>
+        <v>91.358999999999995</v>
       </c>
       <c r="T5" s="19">
-        <v>44.11</v>
+        <v>90.546999999999997</v>
       </c>
       <c r="U5" s="19">
-        <v>40.344000000000001</v>
+        <v>87.138999999999996</v>
       </c>
       <c r="V5" s="19">
-        <v>44.311999999999998</v>
+        <v>83.076999999999998</v>
       </c>
       <c r="W5" s="19">
-        <v>41.780999999999999</v>
+        <v>87.671999999999997</v>
       </c>
       <c r="X5" s="19">
-        <v>43.796999999999997</v>
+        <v>92.218999999999994</v>
       </c>
       <c r="AH5" s="21"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="22">
         <v>492</v>
       </c>
       <c r="C6" s="19">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D6" s="19">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E6" s="19">
+        <v>472</v>
+      </c>
+      <c r="F6" s="19">
+        <v>478</v>
+      </c>
+      <c r="G6" s="19">
+        <v>486</v>
+      </c>
+      <c r="H6" s="19">
         <v>499</v>
-      </c>
-      <c r="F6" s="19">
-        <v>487</v>
-      </c>
-      <c r="G6" s="19">
-        <v>473</v>
-      </c>
-      <c r="H6" s="19">
-        <v>487</v>
       </c>
       <c r="I6" s="19">
         <v>496</v>
       </c>
       <c r="J6" s="19">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K6" s="19">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L6" s="19">
-        <v>502</v>
-      </c>
-      <c r="M6" s="26"/>
+        <v>488</v>
+      </c>
+      <c r="M6" s="25"/>
       <c r="N6" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O6" s="19">
-        <v>76.031000000000006</v>
+        <v>138.078</v>
       </c>
       <c r="P6" s="19">
-        <v>65.406000000000006</v>
+        <v>125.67100000000001</v>
       </c>
       <c r="Q6" s="19">
-        <v>76.641000000000005</v>
+        <v>133.59399999999999</v>
       </c>
       <c r="R6" s="19">
-        <v>76.141000000000005</v>
+        <v>113.501</v>
       </c>
       <c r="S6" s="19">
-        <v>64.751000000000005</v>
+        <v>128.703</v>
       </c>
       <c r="T6" s="19">
-        <v>73.155000000000001</v>
+        <v>98.108999999999995</v>
       </c>
       <c r="U6" s="19">
-        <v>71.718000000000004</v>
+        <v>119.60899999999999</v>
       </c>
       <c r="V6" s="19">
-        <v>65.265000000000001</v>
+        <v>152.65600000000001</v>
       </c>
       <c r="W6" s="19">
-        <v>66.375</v>
+        <v>111.48399999999999</v>
       </c>
       <c r="X6" s="19">
-        <v>64.61</v>
+        <v>106.703</v>
       </c>
       <c r="AH6" s="21"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="22">
         <v>1653</v>
       </c>
       <c r="C7" s="19">
-        <v>1611</v>
+        <v>1553</v>
       </c>
       <c r="D7" s="19">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="E7" s="19">
-        <v>1584</v>
+        <v>1567</v>
       </c>
       <c r="F7" s="19">
-        <v>1555</v>
+        <v>1578</v>
       </c>
       <c r="G7" s="19">
-        <v>1623</v>
+        <v>1576</v>
       </c>
       <c r="H7" s="19">
-        <v>1616</v>
+        <v>1591</v>
       </c>
       <c r="I7" s="19">
-        <v>1576</v>
+        <v>1562</v>
       </c>
       <c r="J7" s="19">
-        <v>1600</v>
+        <v>1562</v>
       </c>
       <c r="K7" s="19">
-        <v>1586</v>
+        <v>1546</v>
       </c>
       <c r="L7" s="19">
-        <v>1571</v>
-      </c>
-      <c r="M7" s="26"/>
+        <v>1568</v>
+      </c>
+      <c r="M7" s="25"/>
       <c r="N7" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O7" s="19">
-        <v>36.359000000000002</v>
+        <v>68.141000000000005</v>
       </c>
       <c r="P7" s="19">
-        <v>36.953000000000003</v>
+        <v>70.248999999999995</v>
       </c>
       <c r="Q7" s="19">
-        <v>37.11</v>
+        <v>72.686999999999998</v>
       </c>
       <c r="R7" s="19">
-        <v>37.264000000000003</v>
+        <v>64.328999999999994</v>
       </c>
       <c r="S7" s="19">
-        <v>34.844000000000001</v>
+        <v>68.968999999999994</v>
       </c>
       <c r="T7" s="19">
-        <v>35.484999999999999</v>
+        <v>63.734000000000002</v>
       </c>
       <c r="U7" s="19">
-        <v>38.218000000000004</v>
+        <v>62.344000000000001</v>
       </c>
       <c r="V7" s="19">
-        <v>38.280999999999999</v>
+        <v>66.501000000000005</v>
       </c>
       <c r="W7" s="19">
-        <v>36.515999999999998</v>
+        <v>66.108999999999995</v>
       </c>
       <c r="X7" s="19">
-        <v>38.000999999999998</v>
+        <v>70.968000000000004</v>
       </c>
       <c r="AH7" s="21"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="22">
         <v>838</v>
       </c>
       <c r="C8" s="19">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="D8" s="19">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="E8" s="19">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="F8" s="19">
-        <v>881</v>
+        <v>851</v>
       </c>
       <c r="G8" s="19">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H8" s="19">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="I8" s="19">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="J8" s="19">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="K8" s="19">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="L8" s="19">
-        <v>870</v>
-      </c>
-      <c r="M8" s="26"/>
+        <v>855</v>
+      </c>
+      <c r="M8" s="25"/>
       <c r="N8" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O8" s="19">
-        <v>44.655999999999999</v>
+        <v>88.796999999999997</v>
       </c>
       <c r="P8" s="19">
-        <v>44.061999999999998</v>
+        <v>84.781000000000006</v>
       </c>
       <c r="Q8" s="19">
-        <v>42.311999999999998</v>
+        <v>96.031000000000006</v>
       </c>
       <c r="R8" s="19">
-        <v>41.938000000000002</v>
+        <v>97.826999999999998</v>
       </c>
       <c r="S8" s="19">
-        <v>43.36</v>
+        <v>75.031999999999996</v>
       </c>
       <c r="T8" s="19">
-        <v>45.453000000000003</v>
+        <v>89.75</v>
       </c>
       <c r="U8" s="19">
-        <v>45.936999999999998</v>
+        <v>95.515000000000001</v>
       </c>
       <c r="V8" s="19">
-        <v>43.5</v>
+        <v>91.953000000000003</v>
       </c>
       <c r="W8" s="19">
-        <v>45.375</v>
+        <v>91.5</v>
       </c>
       <c r="X8" s="19">
-        <v>44.031999999999996</v>
+        <v>87.498999999999995</v>
       </c>
       <c r="AH8" s="21"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="22">
         <v>2116</v>
       </c>
       <c r="C9" s="19">
-        <v>2116</v>
+        <v>2046</v>
       </c>
       <c r="D9" s="19">
-        <v>2129</v>
+        <v>2049</v>
       </c>
       <c r="E9" s="19">
-        <v>2197</v>
+        <v>2103</v>
       </c>
       <c r="F9" s="19">
-        <v>2216</v>
+        <v>2077</v>
       </c>
       <c r="G9" s="19">
-        <v>2124</v>
+        <v>2103</v>
       </c>
       <c r="H9" s="19">
-        <v>2206</v>
+        <v>2066</v>
       </c>
       <c r="I9" s="19">
-        <v>2109</v>
+        <v>2060</v>
       </c>
       <c r="J9" s="19">
-        <v>2125</v>
+        <v>2072</v>
       </c>
       <c r="K9" s="19">
-        <v>2158</v>
+        <v>2066</v>
       </c>
       <c r="L9" s="19">
-        <v>2195</v>
-      </c>
-      <c r="M9" s="26"/>
+        <v>2082</v>
+      </c>
+      <c r="M9" s="25"/>
       <c r="N9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O9" s="19">
-        <v>31.905999999999999</v>
+        <v>41.265000000000001</v>
       </c>
       <c r="P9" s="19">
-        <v>31.094000000000001</v>
+        <v>38.796999999999997</v>
       </c>
       <c r="Q9" s="19">
-        <v>31.36</v>
+        <v>39.624000000000002</v>
       </c>
       <c r="R9" s="19">
-        <v>31.405999999999999</v>
+        <v>41.640999999999998</v>
       </c>
       <c r="S9" s="19">
-        <v>30.391999999999999</v>
+        <v>40.921999999999997</v>
       </c>
       <c r="T9" s="19">
-        <v>29.094000000000001</v>
+        <v>39.64</v>
       </c>
       <c r="U9" s="19">
-        <v>32</v>
+        <v>40.298000000000002</v>
       </c>
       <c r="V9" s="19">
-        <v>32.953000000000003</v>
+        <v>41.969000000000001</v>
       </c>
       <c r="W9" s="19">
-        <v>31.61</v>
+        <v>38.686999999999998</v>
       </c>
       <c r="X9" s="19">
-        <v>29.687000000000001</v>
+        <v>38.703000000000003</v>
       </c>
       <c r="AH9" s="21"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="22">
         <v>772</v>
       </c>
       <c r="C10" s="19">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D10" s="19">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E10" s="19">
         <v>721</v>
       </c>
       <c r="F10" s="19">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="G10" s="19">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="H10" s="19">
         <v>726</v>
       </c>
       <c r="I10" s="19">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="J10" s="19">
         <v>721</v>
       </c>
       <c r="K10" s="19">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="L10" s="19">
-        <v>722</v>
-      </c>
-      <c r="M10" s="26"/>
+        <v>717</v>
+      </c>
+      <c r="M10" s="25"/>
       <c r="N10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="19">
+        <v>92.311999999999998</v>
+      </c>
+      <c r="P10" s="19">
+        <v>91.5</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>91.296999999999997</v>
+      </c>
+      <c r="R10" s="19">
+        <v>85.171999999999997</v>
+      </c>
+      <c r="S10" s="19">
+        <v>94.781999999999996</v>
+      </c>
+      <c r="T10" s="19">
         <v>99</v>
       </c>
-      <c r="O10" s="19">
-        <v>44.094000000000001</v>
-      </c>
-      <c r="P10" s="19">
-        <v>42.688000000000002</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>46.795999999999999</v>
-      </c>
-      <c r="R10" s="19">
-        <v>47.438000000000002</v>
-      </c>
-      <c r="S10" s="19">
-        <v>44.545999999999999</v>
-      </c>
-      <c r="T10" s="19">
-        <v>43.186999999999998</v>
-      </c>
       <c r="U10" s="19">
-        <v>46.578000000000003</v>
+        <v>95.313000000000002</v>
       </c>
       <c r="V10" s="19">
-        <v>43.780999999999999</v>
+        <v>93.938999999999993</v>
       </c>
       <c r="W10" s="19">
-        <v>42.938000000000002</v>
+        <v>99.171000000000006</v>
       </c>
       <c r="X10" s="19">
-        <v>43.359000000000002</v>
+        <v>104.31100000000001</v>
       </c>
       <c r="AH10" s="21"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="22">
         <v>634</v>
       </c>
       <c r="C11" s="19">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D11" s="19">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="E11" s="19">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F11" s="19">
+        <v>641</v>
+      </c>
+      <c r="G11" s="19">
+        <v>638</v>
+      </c>
+      <c r="H11" s="19">
+        <v>638</v>
+      </c>
+      <c r="I11" s="19">
+        <v>646</v>
+      </c>
+      <c r="J11" s="19">
         <v>648</v>
       </c>
-      <c r="G11" s="19">
-        <v>662</v>
-      </c>
-      <c r="H11" s="19">
-        <v>651</v>
-      </c>
-      <c r="I11" s="19">
-        <v>658</v>
-      </c>
-      <c r="J11" s="19">
-        <v>655</v>
-      </c>
       <c r="K11" s="19">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="L11" s="19">
-        <v>643</v>
-      </c>
-      <c r="M11" s="26"/>
+        <v>640</v>
+      </c>
+      <c r="M11" s="25"/>
       <c r="N11" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O11" s="19">
-        <v>50</v>
+        <v>102.672</v>
       </c>
       <c r="P11" s="19">
-        <v>49.828000000000003</v>
+        <v>108.875</v>
       </c>
       <c r="Q11" s="19">
-        <v>49.14</v>
+        <v>104.48399999999999</v>
       </c>
       <c r="R11" s="19">
-        <v>47.561999999999998</v>
+        <v>103.202</v>
       </c>
       <c r="S11" s="19">
-        <v>46.25</v>
+        <v>88.828000000000003</v>
       </c>
       <c r="T11" s="19">
-        <v>46.984999999999999</v>
+        <v>100.937</v>
       </c>
       <c r="U11" s="19">
-        <v>49.578000000000003</v>
+        <v>109.96899999999999</v>
       </c>
       <c r="V11" s="19">
-        <v>46.344000000000001</v>
+        <v>89.468999999999994</v>
       </c>
       <c r="W11" s="19">
-        <v>48.265999999999998</v>
+        <v>102.922</v>
       </c>
       <c r="X11" s="19">
-        <v>49.640999999999998</v>
+        <v>103.85899999999999</v>
       </c>
       <c r="AH11" s="21"/>
     </row>
@@ -3155,84 +3154,79 @@
         <v>1539</v>
       </c>
       <c r="C12" s="19">
-        <v>1711</v>
+        <v>1584</v>
       </c>
       <c r="D12" s="19">
-        <v>1683</v>
+        <v>1608</v>
       </c>
       <c r="E12" s="19">
-        <v>1722</v>
+        <v>1579</v>
       </c>
       <c r="F12" s="19">
-        <v>1710</v>
+        <v>1611</v>
       </c>
       <c r="G12" s="19">
-        <v>1676</v>
+        <v>1600</v>
       </c>
       <c r="H12" s="19">
-        <v>1722</v>
+        <v>1607</v>
       </c>
       <c r="I12" s="19">
-        <v>1685</v>
+        <v>1583</v>
       </c>
       <c r="J12" s="19">
-        <v>1678</v>
+        <v>1607</v>
       </c>
       <c r="K12" s="19">
-        <v>1647</v>
+        <v>1591</v>
       </c>
       <c r="L12" s="19">
-        <v>1702</v>
-      </c>
-      <c r="M12" s="26"/>
+        <v>1571</v>
+      </c>
+      <c r="M12" s="25"/>
       <c r="N12" s="17" t="s">
         <v>103</v>
       </c>
       <c r="O12" s="19">
-        <v>29.077999999999999</v>
+        <v>39.015999999999998</v>
       </c>
       <c r="P12" s="19">
-        <v>29.202999999999999</v>
+        <v>38.344000000000001</v>
       </c>
       <c r="Q12" s="19">
-        <v>29.39</v>
+        <v>36.484000000000002</v>
       </c>
       <c r="R12" s="19">
-        <v>30.172999999999998</v>
+        <v>38.125</v>
       </c>
       <c r="S12" s="19">
-        <v>29.468</v>
+        <v>36.64</v>
       </c>
       <c r="T12" s="19">
-        <v>29.922000000000001</v>
+        <v>36.969000000000001</v>
       </c>
       <c r="U12" s="19">
-        <v>29.452000000000002</v>
+        <v>37.64</v>
       </c>
       <c r="V12" s="19">
-        <v>30.187999999999999</v>
+        <v>37.234000000000002</v>
       </c>
       <c r="W12" s="19">
-        <v>29.437000000000001</v>
+        <v>36.625999999999998</v>
       </c>
       <c r="X12" s="19">
-        <v>29.047000000000001</v>
+        <v>41.311999999999998</v>
       </c>
       <c r="AH12" s="21"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="26"/>
+      <c r="G13" s="25"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -3243,45 +3237,34 @@
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
-      <c r="AH13" s="21"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="26"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
+      <c r="G14" s="25"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="26"/>
+      <c r="G15" s="25"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
@@ -3294,18 +3277,13 @@
       <c r="X15" s="20"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -3317,19 +3295,14 @@
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -3341,19 +3314,14 @@
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
     </row>
-    <row r="18" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
@@ -3365,19 +3333,14 @@
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="26"/>
+      <c r="G19" s="25"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
@@ -3388,127 +3351,6 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="26"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="26"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="26"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B23" s="20"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="26"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B24" s="20"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="26"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="AH24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3526,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3542,39 +3384,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="A1" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="41" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="40" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
@@ -3584,11 +3426,11 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4">
         <v>101</v>
@@ -3599,24 +3441,24 @@
       </c>
       <c r="D4" s="6">
         <f>MIN(data!C4:L4) / data!B4 -1</f>
-        <v>3.8251366120218622E-2</v>
+        <v>1.2295081967213184E-2</v>
       </c>
       <c r="E4" s="6">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>6.3114754098360759E-2</v>
+        <v>2.5409836065573899E-2</v>
       </c>
       <c r="F4" s="6">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
-        <v>9.4262295081967151E-2</v>
+        <v>3.8251366120218622E-2</v>
       </c>
       <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>45.293600000000005</v>
+        <v>93.492100000000008</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4">
         <v>101</v>
@@ -3627,24 +3469,24 @@
       </c>
       <c r="D5" s="6">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
-        <v>5.0539083557951558E-2</v>
+        <v>1.3477088948786964E-2</v>
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>7.9514824797843664E-2</v>
+        <v>3.7870619946091644E-2</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>0.10175202156334229</v>
+        <v>6.2668463611859737E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>42.5062</v>
+        <v>89.429400000000015</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
@@ -3655,24 +3497,24 @@
       </c>
       <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>-4.6747967479674801E-2</v>
+        <v>-4.471544715447151E-2</v>
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>-1.0569105691056846E-2</v>
+        <v>-2.0934959349593552E-2</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>2.0325203252032464E-2</v>
+        <v>1.4227642276422703E-2</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>70.00930000000001</v>
+        <v>122.8108</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4">
         <v>101</v>
@@ -3683,24 +3525,24 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-5.9286146400484019E-2</v>
+        <v>-6.4730792498487566E-2</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-3.9140955837870584E-2</v>
+        <v>-5.2268602540834874E-2</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>-1.814882032667875E-2</v>
+        <v>-3.7507562008469497E-2</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>36.903100000000002</v>
+        <v>67.403099999999995</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="4">
         <v>101</v>
@@ -3711,24 +3553,24 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>3.1026252983293645E-2</v>
+        <v>4.7732696897375693E-3</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>4.0453460620525128E-2</v>
+        <v>2.31503579952268E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>6.5632458233890301E-2</v>
+        <v>3.4606205250596656E-2</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>44.062499999999993</v>
+        <v>89.868500000000012</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="4">
         <v>101</v>
@@ -3739,24 +3581,24 @@
       </c>
       <c r="D9" s="6">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>-3.3081285444234165E-3</v>
+        <v>-3.3081285444234387E-2</v>
       </c>
       <c r="E9" s="6">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>1.9612476370510334E-2</v>
+        <v>-2.0604914933837426E-2</v>
       </c>
       <c r="F9" s="6">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>4.7258979206049156E-2</v>
+        <v>-6.1436672967863926E-3</v>
       </c>
       <c r="G9" s="7">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>31.150200000000002</v>
+        <v>40.154600000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="4">
         <v>101</v>
@@ -3771,43 +3613,43 @@
       </c>
       <c r="E10" s="6">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>-6.2823834196891193E-2</v>
+        <v>-6.6839378238341962E-2</v>
       </c>
       <c r="F10" s="6">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>-4.7927461139896321E-2</v>
+        <v>-5.9585492227979264E-2</v>
       </c>
       <c r="G10" s="7">
         <f>AVERAGE(data!O10:X10)</f>
-        <v>44.540499999999994</v>
+        <v>94.679700000000011</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="4">
         <v>101</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:C12" si="1">MAX(100, B11) * 50</f>
+        <f t="shared" ref="C11" si="1">MAX(100, B11) * 50</f>
         <v>5050</v>
       </c>
       <c r="D11" s="6">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>1.4195583596214423E-2</v>
+        <v>6.3091482649841879E-3</v>
       </c>
       <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>3.1230283911671819E-2</v>
+        <v>1.3091482649842279E-2</v>
       </c>
       <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>4.8895899053627678E-2</v>
+        <v>2.208201892744488E-2</v>
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>48.359400000000008</v>
+        <v>101.52170000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -3818,29 +3660,29 @@
         <v>101</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C12" si="2">MAX(100, B12) * 50</f>
         <v>5050</v>
       </c>
       <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>7.0175438596491224E-2</v>
+        <v>2.0792722547108511E-2</v>
       </c>
       <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>0.10045484080571798</v>
+        <v>3.5802469135802317E-2</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>0.11890838206627685</v>
+        <v>4.6783625730994149E-2</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>29.535800000000002</v>
+        <v>37.838999999999992</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -3849,26 +3691,26 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="17"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -3941,22 +3783,13 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C46C45-143B-4335-915C-A7A43A883058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862870E-F9F6-459D-BB5D-9D00E67B7B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -293,12 +293,6 @@
     <t>            c̲   =   2                       ,</t>
   </si>
   <si>
-    <t>            μ̅   =   0.1                     ,</t>
-  </si>
-  <si>
-    <t>            c̅   =   15                      ,</t>
-  </si>
-  <si>
     <t>                        :worstroute!</t>
   </si>
   <si>
@@ -347,10 +341,16 @@
     <t>nyc-n100-1</t>
   </si>
   <si>
-    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
-  </si>
-  <si>
     <t>poa-n100-2</t>
+  </si>
+  <si>
+    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+  </si>
+  <si>
+    <t>            μ̅   =   0.2                     ,</t>
+  </si>
+  <si>
+    <t>            c̅   =   30                      ,</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -684,9 +684,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -694,9 +691,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1033,7 +1027,7 @@
   <dimension ref="A1:N279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1153,7 +1147,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1240,7 +1234,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="26"/>
+      <c r="K21" s="24"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1257,7 +1251,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="27"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1360,7 +1354,7 @@
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1530,7 +1524,7 @@
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1545,7 +1539,7 @@
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1575,7 +1569,7 @@
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1590,7 +1584,7 @@
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1605,7 +1599,7 @@
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1717,7 +1711,7 @@
     </row>
     <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1733,7 +1727,7 @@
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1749,7 +1743,7 @@
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1808,7 +1802,7 @@
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2417,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2434,77 +2428,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="32"/>
-      <c r="N1" s="35" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="32"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="30"/>
     </row>
     <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-      <c r="N2" s="33" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="30"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="28"/>
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="18">
         <v>1010</v>
       </c>
       <c r="D3" s="18">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E3" s="18">
         <v>1509</v>
@@ -2530,12 +2526,13 @@
       <c r="L3" s="18">
         <v>2807</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="32"/>
       <c r="O3" s="18">
         <v>1010</v>
       </c>
       <c r="P3" s="18">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="Q3" s="18">
         <v>1509</v>
@@ -2564,793 +2561,660 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="22">
+        <v>90</v>
+      </c>
+      <c r="B4" s="21">
         <v>732</v>
       </c>
-      <c r="C4" s="19">
-        <v>749</v>
-      </c>
-      <c r="D4" s="19">
-        <v>755</v>
-      </c>
-      <c r="E4" s="19">
-        <v>751</v>
-      </c>
-      <c r="F4" s="19">
-        <v>741</v>
-      </c>
-      <c r="G4" s="19">
-        <v>749</v>
-      </c>
-      <c r="H4" s="19">
-        <v>753</v>
-      </c>
-      <c r="I4" s="19">
+      <c r="C4" s="17">
+        <v>752</v>
+      </c>
+      <c r="D4" s="17">
+        <v>746</v>
+      </c>
+      <c r="E4" s="17">
+        <v>748</v>
+      </c>
+      <c r="F4" s="17">
+        <v>745</v>
+      </c>
+      <c r="G4" s="17">
+        <v>747</v>
+      </c>
+      <c r="H4" s="17">
         <v>760</v>
       </c>
-      <c r="J4" s="19">
-        <v>743</v>
-      </c>
-      <c r="K4" s="19">
-        <v>750</v>
-      </c>
-      <c r="L4" s="19">
-        <v>755</v>
-      </c>
-      <c r="M4" s="25"/>
+      <c r="I4" s="17">
+        <v>754</v>
+      </c>
+      <c r="J4" s="17">
+        <v>756</v>
+      </c>
+      <c r="K4" s="17">
+        <v>761</v>
+      </c>
+      <c r="L4" s="17">
+        <v>758</v>
+      </c>
+      <c r="M4" s="19"/>
       <c r="N4" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O4" s="19">
-        <v>103.265</v>
+        <v>122.15600000000001</v>
       </c>
       <c r="P4" s="19">
-        <v>103.953</v>
+        <v>115.90600000000001</v>
       </c>
       <c r="Q4" s="19">
-        <v>91.156000000000006</v>
+        <v>106.125</v>
       </c>
       <c r="R4" s="19">
-        <v>94</v>
+        <v>105.688</v>
       </c>
       <c r="S4" s="19">
-        <v>88.516000000000005</v>
+        <v>100.015</v>
       </c>
       <c r="T4" s="19">
-        <v>90.531000000000006</v>
+        <v>96.64</v>
       </c>
       <c r="U4" s="19">
-        <v>83.061999999999998</v>
+        <v>123.172</v>
       </c>
       <c r="V4" s="19">
-        <v>99.734999999999999</v>
+        <v>111.625</v>
       </c>
       <c r="W4" s="19">
-        <v>92.983999999999995</v>
+        <v>111.01600000000001</v>
       </c>
       <c r="X4" s="19">
-        <v>87.718999999999994</v>
-      </c>
-      <c r="AH4" s="21"/>
+        <v>102.688</v>
+      </c>
+      <c r="AH4" s="20"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="22">
+        <v>91</v>
+      </c>
+      <c r="B5" s="21">
         <v>1484</v>
       </c>
-      <c r="C5" s="19">
-        <v>1571</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1507</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="C5" s="17">
+        <v>1546</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1554</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1537</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1552</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1550</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1533</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1551</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1557</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1563</v>
+      </c>
+      <c r="L5" s="17">
         <v>1534</v>
       </c>
-      <c r="F5" s="19">
-        <v>1567</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1530</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1577</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1555</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1544</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1513</v>
-      </c>
-      <c r="L5" s="19">
-        <v>1504</v>
-      </c>
-      <c r="M5" s="25"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O5" s="19">
-        <v>90.031000000000006</v>
+        <v>96.14</v>
       </c>
       <c r="P5" s="19">
-        <v>93.718999999999994</v>
+        <v>114.688</v>
       </c>
       <c r="Q5" s="19">
-        <v>91.436999999999998</v>
+        <v>109.422</v>
       </c>
       <c r="R5" s="19">
-        <v>87.093999999999994</v>
+        <v>102.375</v>
       </c>
       <c r="S5" s="19">
-        <v>91.358999999999995</v>
+        <v>99.516000000000005</v>
       </c>
       <c r="T5" s="19">
-        <v>90.546999999999997</v>
+        <v>96.655000000000001</v>
       </c>
       <c r="U5" s="19">
-        <v>87.138999999999996</v>
+        <v>109.875</v>
       </c>
       <c r="V5" s="19">
-        <v>83.076999999999998</v>
+        <v>111.657</v>
       </c>
       <c r="W5" s="19">
-        <v>87.671999999999997</v>
+        <v>104.03100000000001</v>
       </c>
       <c r="X5" s="19">
-        <v>92.218999999999994</v>
-      </c>
-      <c r="AH5" s="21"/>
+        <v>99.061999999999998</v>
+      </c>
+      <c r="AH5" s="20"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="22">
+        <v>92</v>
+      </c>
+      <c r="B6" s="21">
         <v>492</v>
       </c>
-      <c r="C6" s="19">
-        <v>470</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C6" s="17">
+        <v>483</v>
+      </c>
+      <c r="D6" s="17">
+        <v>479</v>
+      </c>
+      <c r="E6" s="17">
+        <v>467</v>
+      </c>
+      <c r="F6" s="17">
+        <v>474</v>
+      </c>
+      <c r="G6" s="17">
+        <v>471</v>
+      </c>
+      <c r="H6" s="17">
+        <v>463</v>
+      </c>
+      <c r="I6" s="17">
+        <v>466</v>
+      </c>
+      <c r="J6" s="17">
         <v>478</v>
       </c>
-      <c r="E6" s="19">
-        <v>472</v>
-      </c>
-      <c r="F6" s="19">
-        <v>478</v>
-      </c>
-      <c r="G6" s="19">
-        <v>486</v>
-      </c>
-      <c r="H6" s="19">
-        <v>499</v>
-      </c>
-      <c r="I6" s="19">
-        <v>496</v>
-      </c>
-      <c r="J6" s="19">
-        <v>472</v>
-      </c>
-      <c r="K6" s="19">
-        <v>478</v>
-      </c>
-      <c r="L6" s="19">
-        <v>488</v>
-      </c>
-      <c r="M6" s="25"/>
+      <c r="K6" s="17">
+        <v>479</v>
+      </c>
+      <c r="L6" s="17">
+        <v>491</v>
+      </c>
+      <c r="M6" s="19"/>
       <c r="N6" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O6" s="19">
-        <v>138.078</v>
+        <v>170.56200000000001</v>
       </c>
       <c r="P6" s="19">
-        <v>125.67100000000001</v>
+        <v>159.96899999999999</v>
       </c>
       <c r="Q6" s="19">
-        <v>133.59399999999999</v>
+        <v>132.64099999999999</v>
       </c>
       <c r="R6" s="19">
-        <v>113.501</v>
+        <v>148.155</v>
       </c>
       <c r="S6" s="19">
-        <v>128.703</v>
+        <v>157.68799999999999</v>
       </c>
       <c r="T6" s="19">
-        <v>98.108999999999995</v>
+        <v>149.26599999999999</v>
       </c>
       <c r="U6" s="19">
-        <v>119.60899999999999</v>
+        <v>151.328</v>
       </c>
       <c r="V6" s="19">
-        <v>152.65600000000001</v>
+        <v>191.077</v>
       </c>
       <c r="W6" s="19">
-        <v>111.48399999999999</v>
+        <v>191.26499999999999</v>
       </c>
       <c r="X6" s="19">
-        <v>106.703</v>
-      </c>
-      <c r="AH6" s="21"/>
+        <v>127.172</v>
+      </c>
+      <c r="AH6" s="20"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="22">
+        <v>93</v>
+      </c>
+      <c r="B7" s="21">
         <v>1653</v>
       </c>
-      <c r="C7" s="19">
-        <v>1553</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1563</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1567</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1578</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1576</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1591</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1562</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1562</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1546</v>
-      </c>
-      <c r="L7" s="19">
-        <v>1568</v>
-      </c>
-      <c r="M7" s="25"/>
+      <c r="C7" s="17">
+        <v>1580</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1575</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1583</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1550</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1540</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1551</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1566</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1544</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1579</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1547</v>
+      </c>
+      <c r="M7" s="19"/>
       <c r="N7" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O7" s="19">
-        <v>68.141000000000005</v>
+        <v>78.156000000000006</v>
       </c>
       <c r="P7" s="19">
-        <v>70.248999999999995</v>
+        <v>75.593999999999994</v>
       </c>
       <c r="Q7" s="19">
-        <v>72.686999999999998</v>
+        <v>76.811999999999998</v>
       </c>
       <c r="R7" s="19">
-        <v>64.328999999999994</v>
+        <v>79.843999999999994</v>
       </c>
       <c r="S7" s="19">
-        <v>68.968999999999994</v>
+        <v>75.218999999999994</v>
       </c>
       <c r="T7" s="19">
-        <v>63.734000000000002</v>
+        <v>79.906000000000006</v>
       </c>
       <c r="U7" s="19">
-        <v>62.344000000000001</v>
+        <v>78.501000000000005</v>
       </c>
       <c r="V7" s="19">
-        <v>66.501000000000005</v>
+        <v>79.093999999999994</v>
       </c>
       <c r="W7" s="19">
-        <v>66.108999999999995</v>
+        <v>78.141000000000005</v>
       </c>
       <c r="X7" s="19">
-        <v>70.968000000000004</v>
-      </c>
-      <c r="AH7" s="21"/>
+        <v>74.5</v>
+      </c>
+      <c r="AH7" s="20"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="22">
+        <v>94</v>
+      </c>
+      <c r="B8" s="21">
         <v>838</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
+        <v>865</v>
+      </c>
+      <c r="D8" s="17">
+        <v>847</v>
+      </c>
+      <c r="E8" s="17">
+        <v>869</v>
+      </c>
+      <c r="F8" s="17">
+        <v>857</v>
+      </c>
+      <c r="G8" s="17">
+        <v>867</v>
+      </c>
+      <c r="H8" s="17">
+        <v>861</v>
+      </c>
+      <c r="I8" s="17">
+        <v>849</v>
+      </c>
+      <c r="J8" s="17">
+        <v>850</v>
+      </c>
+      <c r="K8" s="17">
         <v>858</v>
       </c>
-      <c r="D8" s="19">
-        <v>867</v>
-      </c>
-      <c r="E8" s="19">
-        <v>842</v>
-      </c>
-      <c r="F8" s="19">
-        <v>851</v>
-      </c>
-      <c r="G8" s="19">
-        <v>861</v>
-      </c>
-      <c r="H8" s="19">
-        <v>852</v>
-      </c>
-      <c r="I8" s="19">
-        <v>860</v>
-      </c>
-      <c r="J8" s="19">
-        <v>861</v>
-      </c>
-      <c r="K8" s="19">
-        <v>867</v>
-      </c>
-      <c r="L8" s="19">
-        <v>855</v>
-      </c>
-      <c r="M8" s="25"/>
+      <c r="L8" s="17">
+        <v>857</v>
+      </c>
+      <c r="M8" s="19"/>
       <c r="N8" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O8" s="19">
-        <v>88.796999999999997</v>
+        <v>104.875</v>
       </c>
       <c r="P8" s="19">
-        <v>84.781000000000006</v>
+        <v>97.078000000000003</v>
       </c>
       <c r="Q8" s="19">
-        <v>96.031000000000006</v>
+        <v>108.452</v>
       </c>
       <c r="R8" s="19">
-        <v>97.826999999999998</v>
+        <v>100.422</v>
       </c>
       <c r="S8" s="19">
-        <v>75.031999999999996</v>
+        <v>105.047</v>
       </c>
       <c r="T8" s="19">
-        <v>89.75</v>
+        <v>111.078</v>
       </c>
       <c r="U8" s="19">
-        <v>95.515000000000001</v>
+        <v>110.36</v>
       </c>
       <c r="V8" s="19">
-        <v>91.953000000000003</v>
+        <v>100.39</v>
       </c>
       <c r="W8" s="19">
-        <v>91.5</v>
+        <v>99.436999999999998</v>
       </c>
       <c r="X8" s="19">
-        <v>87.498999999999995</v>
-      </c>
-      <c r="AH8" s="21"/>
+        <v>108.21899999999999</v>
+      </c>
+      <c r="AH8" s="20"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="22">
+        <v>95</v>
+      </c>
+      <c r="B9" s="21">
         <v>2116</v>
       </c>
-      <c r="C9" s="19">
-        <v>2046</v>
-      </c>
-      <c r="D9" s="19">
-        <v>2049</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="C9" s="17">
+        <v>2042</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2064</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2094</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2078</v>
+      </c>
+      <c r="G9" s="17">
+        <v>2076</v>
+      </c>
+      <c r="H9" s="17">
+        <v>2089</v>
+      </c>
+      <c r="I9" s="17">
+        <v>2070</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2089</v>
+      </c>
+      <c r="K9" s="17">
+        <v>2095</v>
+      </c>
+      <c r="L9" s="17">
         <v>2103</v>
       </c>
-      <c r="F9" s="19">
-        <v>2077</v>
-      </c>
-      <c r="G9" s="19">
-        <v>2103</v>
-      </c>
-      <c r="H9" s="19">
-        <v>2066</v>
-      </c>
-      <c r="I9" s="19">
-        <v>2060</v>
-      </c>
-      <c r="J9" s="19">
-        <v>2072</v>
-      </c>
-      <c r="K9" s="19">
-        <v>2066</v>
-      </c>
-      <c r="L9" s="19">
-        <v>2082</v>
-      </c>
-      <c r="M9" s="25"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O9" s="19">
-        <v>41.265000000000001</v>
+        <v>44.561999999999998</v>
       </c>
       <c r="P9" s="19">
-        <v>38.796999999999997</v>
+        <v>44.031999999999996</v>
       </c>
       <c r="Q9" s="19">
-        <v>39.624000000000002</v>
+        <v>46.813000000000002</v>
       </c>
       <c r="R9" s="19">
-        <v>41.640999999999998</v>
+        <v>46.046999999999997</v>
       </c>
       <c r="S9" s="19">
-        <v>40.921999999999997</v>
+        <v>43.155999999999999</v>
       </c>
       <c r="T9" s="19">
-        <v>39.64</v>
+        <v>45.296999999999997</v>
       </c>
       <c r="U9" s="19">
-        <v>40.298000000000002</v>
+        <v>44.811999999999998</v>
       </c>
       <c r="V9" s="19">
-        <v>41.969000000000001</v>
+        <v>45.500999999999998</v>
       </c>
       <c r="W9" s="19">
-        <v>38.686999999999998</v>
+        <v>46.936999999999998</v>
       </c>
       <c r="X9" s="19">
-        <v>38.703000000000003</v>
-      </c>
-      <c r="AH9" s="21"/>
+        <v>46.094000000000001</v>
+      </c>
+      <c r="AH9" s="20"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="22">
+        <v>96</v>
+      </c>
+      <c r="B10" s="21">
         <v>772</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
+        <v>726</v>
+      </c>
+      <c r="D10" s="17">
+        <v>729</v>
+      </c>
+      <c r="E10" s="17">
+        <v>725</v>
+      </c>
+      <c r="F10" s="17">
+        <v>721</v>
+      </c>
+      <c r="G10" s="17">
+        <v>729</v>
+      </c>
+      <c r="H10" s="17">
+        <v>732</v>
+      </c>
+      <c r="I10" s="17">
+        <v>723</v>
+      </c>
+      <c r="J10" s="17">
+        <v>720</v>
+      </c>
+      <c r="K10" s="17">
         <v>718</v>
       </c>
-      <c r="D10" s="19">
+      <c r="L10" s="17">
         <v>718</v>
       </c>
-      <c r="E10" s="19">
-        <v>721</v>
-      </c>
-      <c r="F10" s="19">
-        <v>726</v>
-      </c>
-      <c r="G10" s="19">
-        <v>721</v>
-      </c>
-      <c r="H10" s="19">
-        <v>726</v>
-      </c>
-      <c r="I10" s="19">
-        <v>718</v>
-      </c>
-      <c r="J10" s="19">
-        <v>721</v>
-      </c>
-      <c r="K10" s="19">
-        <v>718</v>
-      </c>
-      <c r="L10" s="19">
-        <v>717</v>
-      </c>
-      <c r="M10" s="25"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O10" s="19">
-        <v>92.311999999999998</v>
+        <v>108.328</v>
       </c>
       <c r="P10" s="19">
-        <v>91.5</v>
+        <v>106.70399999999999</v>
       </c>
       <c r="Q10" s="19">
-        <v>91.296999999999997</v>
+        <v>104.46899999999999</v>
       </c>
       <c r="R10" s="19">
-        <v>85.171999999999997</v>
+        <v>109.96899999999999</v>
       </c>
       <c r="S10" s="19">
-        <v>94.781999999999996</v>
+        <v>109.937</v>
       </c>
       <c r="T10" s="19">
-        <v>99</v>
+        <v>97.593000000000004</v>
       </c>
       <c r="U10" s="19">
-        <v>95.313000000000002</v>
+        <v>103.65600000000001</v>
       </c>
       <c r="V10" s="19">
-        <v>93.938999999999993</v>
+        <v>92.484999999999999</v>
       </c>
       <c r="W10" s="19">
-        <v>99.171000000000006</v>
+        <v>100.172</v>
       </c>
       <c r="X10" s="19">
-        <v>104.31100000000001</v>
-      </c>
-      <c r="AH10" s="21"/>
+        <v>106.405</v>
+      </c>
+      <c r="AH10" s="20"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="22">
+        <v>99</v>
+      </c>
+      <c r="B11" s="21">
         <v>634</v>
       </c>
-      <c r="C11" s="19">
-        <v>646</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="17">
+        <v>645</v>
+      </c>
+      <c r="D11" s="17">
         <v>644</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
+        <v>642</v>
+      </c>
+      <c r="F11" s="17">
+        <v>641</v>
+      </c>
+      <c r="G11" s="17">
         <v>640</v>
       </c>
-      <c r="F11" s="19">
-        <v>641</v>
-      </c>
-      <c r="G11" s="19">
-        <v>638</v>
-      </c>
-      <c r="H11" s="19">
-        <v>638</v>
-      </c>
-      <c r="I11" s="19">
-        <v>646</v>
-      </c>
-      <c r="J11" s="19">
+      <c r="H11" s="17">
+        <v>645</v>
+      </c>
+      <c r="I11" s="17">
+        <v>647</v>
+      </c>
+      <c r="J11" s="17">
         <v>648</v>
       </c>
-      <c r="K11" s="19">
-        <v>642</v>
-      </c>
-      <c r="L11" s="19">
-        <v>640</v>
-      </c>
-      <c r="M11" s="25"/>
+      <c r="K11" s="17">
+        <v>639</v>
+      </c>
+      <c r="L11" s="17">
+        <v>649</v>
+      </c>
+      <c r="M11" s="19"/>
       <c r="N11" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O11" s="19">
-        <v>102.672</v>
+        <v>110.313</v>
       </c>
       <c r="P11" s="19">
-        <v>108.875</v>
+        <v>119.73399999999999</v>
       </c>
       <c r="Q11" s="19">
-        <v>104.48399999999999</v>
+        <v>132.5</v>
       </c>
       <c r="R11" s="19">
-        <v>103.202</v>
+        <v>122.282</v>
       </c>
       <c r="S11" s="19">
-        <v>88.828000000000003</v>
+        <v>111.72</v>
       </c>
       <c r="T11" s="19">
-        <v>100.937</v>
+        <v>128.51499999999999</v>
       </c>
       <c r="U11" s="19">
-        <v>109.96899999999999</v>
+        <v>140.01599999999999</v>
       </c>
       <c r="V11" s="19">
-        <v>89.468999999999994</v>
+        <v>127.672</v>
       </c>
       <c r="W11" s="19">
-        <v>102.922</v>
+        <v>125.98399999999999</v>
       </c>
       <c r="X11" s="19">
-        <v>103.85899999999999</v>
-      </c>
-      <c r="AH11" s="21"/>
+        <v>118.625</v>
+      </c>
+      <c r="AH11" s="20"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="22">
+        <v>100</v>
+      </c>
+      <c r="B12" s="21">
         <v>1539</v>
       </c>
-      <c r="C12" s="19">
-        <v>1584</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="17">
+        <v>1618</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1605</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1585</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1598</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1596</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1603</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1599</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1580</v>
+      </c>
+      <c r="K12" s="17">
         <v>1608</v>
       </c>
-      <c r="E12" s="19">
-        <v>1579</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1611</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1600</v>
-      </c>
-      <c r="H12" s="19">
-        <v>1607</v>
-      </c>
-      <c r="I12" s="19">
-        <v>1583</v>
-      </c>
-      <c r="J12" s="19">
-        <v>1607</v>
-      </c>
-      <c r="K12" s="19">
-        <v>1591</v>
-      </c>
-      <c r="L12" s="19">
-        <v>1571</v>
-      </c>
-      <c r="M12" s="25"/>
+      <c r="L12" s="17">
+        <v>1589</v>
+      </c>
+      <c r="M12" s="19"/>
       <c r="N12" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O12" s="19">
-        <v>39.015999999999998</v>
+        <v>45.39</v>
       </c>
       <c r="P12" s="19">
-        <v>38.344000000000001</v>
+        <v>41.969000000000001</v>
       </c>
       <c r="Q12" s="19">
-        <v>36.484000000000002</v>
+        <v>44.392000000000003</v>
       </c>
       <c r="R12" s="19">
-        <v>38.125</v>
+        <v>46.076999999999998</v>
       </c>
       <c r="S12" s="19">
-        <v>36.64</v>
+        <v>43.015999999999998</v>
       </c>
       <c r="T12" s="19">
-        <v>36.969000000000001</v>
+        <v>45.438000000000002</v>
       </c>
       <c r="U12" s="19">
-        <v>37.64</v>
+        <v>44.155999999999999</v>
       </c>
       <c r="V12" s="19">
-        <v>37.234000000000002</v>
+        <v>44.421999999999997</v>
       </c>
       <c r="W12" s="19">
-        <v>36.625999999999998</v>
+        <v>45.531999999999996</v>
       </c>
       <c r="X12" s="19">
-        <v>41.311999999999998</v>
-      </c>
-      <c r="AH12" s="21"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="25"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="25"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="25"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="25"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-    </row>
-    <row r="17" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="25"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="25"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="25"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
+        <v>42.170999999999999</v>
+      </c>
+      <c r="AH12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3370,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3384,39 +3248,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="40" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="38" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
@@ -3426,11 +3290,11 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4">
         <v>101</v>
@@ -3441,24 +3305,24 @@
       </c>
       <c r="D4" s="6">
         <f>MIN(data!C4:L4) / data!B4 -1</f>
-        <v>1.2295081967213184E-2</v>
+        <v>1.775956284153013E-2</v>
       </c>
       <c r="E4" s="6">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>2.5409836065573899E-2</v>
+        <v>2.8278688524590256E-2</v>
       </c>
       <c r="F4" s="6">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
-        <v>3.8251366120218622E-2</v>
+        <v>3.9617486338797914E-2</v>
       </c>
       <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>93.492100000000008</v>
+        <v>109.50309999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4">
         <v>101</v>
@@ -3469,24 +3333,24 @@
       </c>
       <c r="D5" s="6">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
-        <v>1.3477088948786964E-2</v>
+        <v>3.3018867924528239E-2</v>
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>3.7870619946091644E-2</v>
+        <v>4.2924528301886866E-2</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>6.2668463611859737E-2</v>
+        <v>5.3234501347708907E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>89.429400000000015</v>
+        <v>104.34209999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
@@ -3497,24 +3361,24 @@
       </c>
       <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>-4.471544715447151E-2</v>
+        <v>-5.8943089430894324E-2</v>
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>-2.0934959349593552E-2</v>
+        <v>-3.4349593495934916E-2</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>1.4227642276422703E-2</v>
+        <v>-2.0325203252032908E-3</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>122.8108</v>
+        <v>157.91230000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="4">
         <v>101</v>
@@ -3525,24 +3389,24 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-6.4730792498487566E-2</v>
+        <v>-6.8360556563823338E-2</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-5.2268602540834874E-2</v>
+        <v>-5.5353901996370247E-2</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>-3.7507562008469497E-2</v>
+        <v>-4.2347247428917156E-2</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>67.403099999999995</v>
+        <v>77.576699999999988</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4">
         <v>101</v>
@@ -3553,24 +3417,24 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>4.7732696897375693E-3</v>
+        <v>1.0739856801909253E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>2.31503579952268E-2</v>
+        <v>2.3866348448687402E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>3.4606205250596656E-2</v>
+        <v>3.6992840095465329E-2</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>89.868500000000012</v>
+        <v>104.53579999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="4">
         <v>101</v>
@@ -3581,11 +3445,11 @@
       </c>
       <c r="D9" s="6">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>-3.3081285444234387E-2</v>
+        <v>-3.4971644612476371E-2</v>
       </c>
       <c r="E9" s="6">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>-2.0604914933837426E-2</v>
+        <v>-1.7013232514177745E-2</v>
       </c>
       <c r="F9" s="6">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
@@ -3593,12 +3457,12 @@
       </c>
       <c r="G9" s="7">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>40.154600000000002</v>
+        <v>45.325099999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="4">
         <v>101</v>
@@ -3609,24 +3473,24 @@
       </c>
       <c r="D10" s="6">
         <f>MIN(data!C10:L10) / data!B10 -1</f>
-        <v>-7.1243523316062207E-2</v>
+        <v>-6.9948186528497436E-2</v>
       </c>
       <c r="E10" s="6">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>-6.6839378238341962E-2</v>
+        <v>-6.2046632124352352E-2</v>
       </c>
       <c r="F10" s="6">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>-5.9585492227979264E-2</v>
+        <v>-5.1813471502590636E-2</v>
       </c>
       <c r="G10" s="7">
         <f>AVERAGE(data!O10:X10)</f>
-        <v>94.679700000000011</v>
+        <v>103.9718</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="4">
         <v>101</v>
@@ -3637,24 +3501,24 @@
       </c>
       <c r="D11" s="6">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>6.3091482649841879E-3</v>
+        <v>7.8864353312302349E-3</v>
       </c>
       <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>1.3091482649842279E-2</v>
+        <v>1.577287066246047E-2</v>
       </c>
       <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>2.208201892744488E-2</v>
+        <v>2.3659305993690927E-2</v>
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>101.52170000000002</v>
+        <v>123.73609999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4">
         <v>101</v>
@@ -3665,24 +3529,24 @@
       </c>
       <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>2.0792722547108511E-2</v>
+        <v>2.6640675763482724E-2</v>
       </c>
       <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>3.5802469135802317E-2</v>
+        <v>3.8401559454190881E-2</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>4.6783625730994149E-2</v>
+        <v>5.1332033788174192E-2</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>37.838999999999992</v>
+        <v>44.256299999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -3691,7 +3555,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3699,7 +3563,7 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862870E-F9F6-459D-BB5D-9D00E67B7B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6AAA90-68BA-485C-8E50-54A02B5894A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2414,7 +2414,7 @@
   <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2567,34 +2567,34 @@
         <v>732</v>
       </c>
       <c r="C4" s="17">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D4" s="17">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="E4" s="17">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F4" s="17">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="G4" s="17">
         <v>747</v>
       </c>
       <c r="H4" s="17">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I4" s="17">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J4" s="17">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="K4" s="17">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="L4" s="17">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="17" t="s">
@@ -2640,34 +2640,34 @@
         <v>1484</v>
       </c>
       <c r="C5" s="17">
-        <v>1546</v>
+        <v>1562</v>
       </c>
       <c r="D5" s="17">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="E5" s="17">
+        <v>1547</v>
+      </c>
+      <c r="F5" s="17">
         <v>1537</v>
       </c>
-      <c r="F5" s="17">
-        <v>1552</v>
-      </c>
       <c r="G5" s="17">
-        <v>1550</v>
+        <v>1562</v>
       </c>
       <c r="H5" s="17">
-        <v>1533</v>
+        <v>1513</v>
       </c>
       <c r="I5" s="17">
-        <v>1551</v>
+        <v>1567</v>
       </c>
       <c r="J5" s="17">
-        <v>1557</v>
+        <v>1517</v>
       </c>
       <c r="K5" s="17">
-        <v>1563</v>
+        <v>1528</v>
       </c>
       <c r="L5" s="17">
-        <v>1534</v>
+        <v>1553</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="17" t="s">
@@ -2713,10 +2713,10 @@
         <v>492</v>
       </c>
       <c r="C6" s="17">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D6" s="17">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E6" s="17">
         <v>467</v>
@@ -2728,19 +2728,19 @@
         <v>471</v>
       </c>
       <c r="H6" s="17">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="I6" s="17">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="J6" s="17">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K6" s="17">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L6" s="17">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="17" t="s">
@@ -2786,34 +2786,34 @@
         <v>1653</v>
       </c>
       <c r="C7" s="17">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="D7" s="17">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E7" s="17">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="F7" s="17">
+        <v>1556</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1576</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1576</v>
+      </c>
+      <c r="I7" s="17">
         <v>1550</v>
       </c>
-      <c r="G7" s="17">
-        <v>1540</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1551</v>
-      </c>
-      <c r="I7" s="17">
-        <v>1566</v>
-      </c>
       <c r="J7" s="17">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="K7" s="17">
-        <v>1579</v>
+        <v>1537</v>
       </c>
       <c r="L7" s="17">
-        <v>1547</v>
+        <v>1560</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="17" t="s">
@@ -2859,34 +2859,34 @@
         <v>838</v>
       </c>
       <c r="C8" s="17">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D8" s="17">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="E8" s="17">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F8" s="17">
+        <v>854</v>
+      </c>
+      <c r="G8" s="17">
         <v>857</v>
       </c>
-      <c r="G8" s="17">
-        <v>867</v>
-      </c>
       <c r="H8" s="17">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="I8" s="17">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="J8" s="17">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="K8" s="17">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="L8" s="17">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="17" t="s">
@@ -2932,34 +2932,34 @@
         <v>2116</v>
       </c>
       <c r="C9" s="17">
-        <v>2042</v>
+        <v>2103</v>
       </c>
       <c r="D9" s="17">
-        <v>2064</v>
+        <v>2080</v>
       </c>
       <c r="E9" s="17">
-        <v>2094</v>
+        <v>2076</v>
       </c>
       <c r="F9" s="17">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="G9" s="17">
-        <v>2076</v>
+        <v>2089</v>
       </c>
       <c r="H9" s="17">
         <v>2089</v>
       </c>
       <c r="I9" s="17">
-        <v>2070</v>
+        <v>2094</v>
       </c>
       <c r="J9" s="17">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="K9" s="17">
-        <v>2095</v>
+        <v>2079</v>
       </c>
       <c r="L9" s="17">
-        <v>2103</v>
+        <v>2081</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="17" t="s">
@@ -3005,34 +3005,34 @@
         <v>772</v>
       </c>
       <c r="C10" s="17">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D10" s="17">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="E10" s="17">
+        <v>724</v>
+      </c>
+      <c r="F10" s="17">
+        <v>719</v>
+      </c>
+      <c r="G10" s="17">
         <v>725</v>
       </c>
-      <c r="F10" s="17">
-        <v>721</v>
-      </c>
-      <c r="G10" s="17">
-        <v>729</v>
-      </c>
       <c r="H10" s="17">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="I10" s="17">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J10" s="17">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K10" s="17">
         <v>718</v>
       </c>
       <c r="L10" s="17">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="17" t="s">
@@ -3078,34 +3078,34 @@
         <v>634</v>
       </c>
       <c r="C11" s="17">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D11" s="17">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E11" s="17">
         <v>642</v>
       </c>
       <c r="F11" s="17">
+        <v>639</v>
+      </c>
+      <c r="G11" s="17">
+        <v>645</v>
+      </c>
+      <c r="H11" s="17">
+        <v>644</v>
+      </c>
+      <c r="I11" s="17">
         <v>641</v>
       </c>
-      <c r="G11" s="17">
+      <c r="J11" s="17">
+        <v>641</v>
+      </c>
+      <c r="K11" s="17">
         <v>640</v>
       </c>
-      <c r="H11" s="17">
-        <v>645</v>
-      </c>
-      <c r="I11" s="17">
+      <c r="L11" s="17">
         <v>647</v>
-      </c>
-      <c r="J11" s="17">
-        <v>648</v>
-      </c>
-      <c r="K11" s="17">
-        <v>639</v>
-      </c>
-      <c r="L11" s="17">
-        <v>649</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="17" t="s">
@@ -3151,34 +3151,34 @@
         <v>1539</v>
       </c>
       <c r="C12" s="17">
+        <v>1571</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1569</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1608</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1629</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1629</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1600</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1619</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1577</v>
+      </c>
+      <c r="K12" s="17">
         <v>1618</v>
       </c>
-      <c r="D12" s="17">
-        <v>1605</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1585</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1598</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1596</v>
-      </c>
-      <c r="H12" s="17">
-        <v>1603</v>
-      </c>
-      <c r="I12" s="17">
-        <v>1599</v>
-      </c>
-      <c r="J12" s="17">
-        <v>1580</v>
-      </c>
-      <c r="K12" s="17">
-        <v>1608</v>
-      </c>
       <c r="L12" s="17">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="17" t="s">
@@ -3235,7 +3235,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3305,15 +3305,15 @@
       </c>
       <c r="D4" s="6">
         <f>MIN(data!C4:L4) / data!B4 -1</f>
-        <v>1.775956284153013E-2</v>
+        <v>1.6393442622950838E-2</v>
       </c>
       <c r="E4" s="6">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>2.8278688524590256E-2</v>
+        <v>2.9098360655737565E-2</v>
       </c>
       <c r="F4" s="6">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
-        <v>3.9617486338797914E-2</v>
+        <v>4.2349726775956276E-2</v>
       </c>
       <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
@@ -3333,15 +3333,15 @@
       </c>
       <c r="D5" s="6">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
-        <v>3.3018867924528239E-2</v>
+        <v>1.9541778975741275E-2</v>
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>4.2924528301886866E-2</v>
+        <v>3.982479784366566E-2</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>5.3234501347708907E-2</v>
+        <v>5.5929919137466255E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
@@ -3361,15 +3361,15 @@
       </c>
       <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>-5.8943089430894324E-2</v>
+        <v>-5.0813008130081272E-2</v>
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>-3.4349593495934916E-2</v>
+        <v>-3.3333333333333326E-2</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>-2.0325203252032908E-3</v>
+        <v>-8.1300813008130524E-3</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
@@ -3389,15 +3389,15 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-6.8360556563823338E-2</v>
+        <v>-7.0175438596491224E-2</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-5.5353901996370247E-2</v>
+        <v>-5.456745311554756E-2</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>-4.2347247428917156E-2</v>
+        <v>-4.5977011494252928E-2</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
@@ -3417,15 +3417,15 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>1.0739856801909253E-2</v>
+        <v>5.9665871121719061E-3</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>2.3866348448687402E-2</v>
+        <v>1.9570405727923568E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>3.6992840095465329E-2</v>
+        <v>2.8639618138424749E-2</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
@@ -3445,11 +3445,11 @@
       </c>
       <c r="D9" s="6">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>-3.4971644612476371E-2</v>
+        <v>-1.937618147448017E-2</v>
       </c>
       <c r="E9" s="6">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>-1.7013232514177745E-2</v>
+        <v>-1.4366729678638945E-2</v>
       </c>
       <c r="F9" s="6">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
@@ -3477,11 +3477,11 @@
       </c>
       <c r="E10" s="6">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>-6.2046632124352352E-2</v>
+        <v>-6.3989637305699398E-2</v>
       </c>
       <c r="F10" s="6">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>-5.1813471502590636E-2</v>
+        <v>-4.9222797927461093E-2</v>
       </c>
       <c r="G10" s="7">
         <f>AVERAGE(data!O10:X10)</f>
@@ -3501,15 +3501,15 @@
       </c>
       <c r="D11" s="6">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>7.8864353312302349E-3</v>
+        <v>4.7318611987381409E-3</v>
       </c>
       <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>1.577287066246047E-2</v>
+        <v>1.2933753943217718E-2</v>
       </c>
       <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>2.3659305993690927E-2</v>
+        <v>2.0504731861198833E-2</v>
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
@@ -3529,15 +3529,15 @@
       </c>
       <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>2.6640675763482724E-2</v>
+        <v>1.949317738791434E-2</v>
       </c>
       <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>3.8401559454190881E-2</v>
+        <v>4.0610786224821283E-2</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>5.1332033788174192E-2</v>
+        <v>5.8479532163742798E-2</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6AAA90-68BA-485C-8E50-54A02B5894A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF6AC42-9479-4F8A-8489-B5F07BB3A44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -2413,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2601,34 +2601,34 @@
         <v>90</v>
       </c>
       <c r="O4" s="19">
-        <v>122.15600000000001</v>
+        <v>124.01600000000001</v>
       </c>
       <c r="P4" s="19">
-        <v>115.90600000000001</v>
+        <v>115.59399999999999</v>
       </c>
       <c r="Q4" s="19">
-        <v>106.125</v>
+        <v>111.235</v>
       </c>
       <c r="R4" s="19">
-        <v>105.688</v>
+        <v>113.54600000000001</v>
       </c>
       <c r="S4" s="19">
-        <v>100.015</v>
+        <v>120.532</v>
       </c>
       <c r="T4" s="19">
-        <v>96.64</v>
+        <v>109.51600000000001</v>
       </c>
       <c r="U4" s="19">
-        <v>123.172</v>
+        <v>113.40600000000001</v>
       </c>
       <c r="V4" s="19">
-        <v>111.625</v>
+        <v>120.34399999999999</v>
       </c>
       <c r="W4" s="19">
-        <v>111.01600000000001</v>
+        <v>107.313</v>
       </c>
       <c r="X4" s="19">
-        <v>102.688</v>
+        <v>114.5</v>
       </c>
       <c r="AH4" s="20"/>
     </row>
@@ -2674,34 +2674,34 @@
         <v>91</v>
       </c>
       <c r="O5" s="19">
-        <v>96.14</v>
+        <v>104.95399999999999</v>
       </c>
       <c r="P5" s="19">
-        <v>114.688</v>
+        <v>114.25</v>
       </c>
       <c r="Q5" s="19">
-        <v>109.422</v>
+        <v>93.076999999999998</v>
       </c>
       <c r="R5" s="19">
-        <v>102.375</v>
+        <v>96.11</v>
       </c>
       <c r="S5" s="19">
-        <v>99.516000000000005</v>
+        <v>102.032</v>
       </c>
       <c r="T5" s="19">
-        <v>96.655000000000001</v>
+        <v>101.78100000000001</v>
       </c>
       <c r="U5" s="19">
-        <v>109.875</v>
+        <v>106.828</v>
       </c>
       <c r="V5" s="19">
-        <v>111.657</v>
+        <v>96.858999999999995</v>
       </c>
       <c r="W5" s="19">
-        <v>104.03100000000001</v>
+        <v>106.126</v>
       </c>
       <c r="X5" s="19">
-        <v>99.061999999999998</v>
+        <v>104.28100000000001</v>
       </c>
       <c r="AH5" s="20"/>
     </row>
@@ -2747,34 +2747,34 @@
         <v>92</v>
       </c>
       <c r="O6" s="19">
-        <v>170.56200000000001</v>
+        <v>163.142</v>
       </c>
       <c r="P6" s="19">
-        <v>159.96899999999999</v>
+        <v>180.53100000000001</v>
       </c>
       <c r="Q6" s="19">
-        <v>132.64099999999999</v>
+        <v>179.22</v>
       </c>
       <c r="R6" s="19">
-        <v>148.155</v>
+        <v>174.06399999999999</v>
       </c>
       <c r="S6" s="19">
-        <v>157.68799999999999</v>
+        <v>184.01599999999999</v>
       </c>
       <c r="T6" s="19">
-        <v>149.26599999999999</v>
+        <v>177.15600000000001</v>
       </c>
       <c r="U6" s="19">
-        <v>151.328</v>
+        <v>138.09399999999999</v>
       </c>
       <c r="V6" s="19">
-        <v>191.077</v>
+        <v>191.75</v>
       </c>
       <c r="W6" s="19">
-        <v>191.26499999999999</v>
+        <v>141.76499999999999</v>
       </c>
       <c r="X6" s="19">
-        <v>127.172</v>
+        <v>230.76599999999999</v>
       </c>
       <c r="AH6" s="20"/>
     </row>
@@ -2820,34 +2820,34 @@
         <v>93</v>
       </c>
       <c r="O7" s="19">
-        <v>78.156000000000006</v>
+        <v>75.484999999999999</v>
       </c>
       <c r="P7" s="19">
-        <v>75.593999999999994</v>
+        <v>80.171999999999997</v>
       </c>
       <c r="Q7" s="19">
-        <v>76.811999999999998</v>
+        <v>76.358999999999995</v>
       </c>
       <c r="R7" s="19">
-        <v>79.843999999999994</v>
+        <v>78.688000000000002</v>
       </c>
       <c r="S7" s="19">
-        <v>75.218999999999994</v>
+        <v>76.688000000000002</v>
       </c>
       <c r="T7" s="19">
-        <v>79.906000000000006</v>
+        <v>72.328000000000003</v>
       </c>
       <c r="U7" s="19">
-        <v>78.501000000000005</v>
+        <v>74.703000000000003</v>
       </c>
       <c r="V7" s="19">
-        <v>79.093999999999994</v>
+        <v>81.375</v>
       </c>
       <c r="W7" s="19">
-        <v>78.141000000000005</v>
+        <v>80.641000000000005</v>
       </c>
       <c r="X7" s="19">
-        <v>74.5</v>
+        <v>78.906999999999996</v>
       </c>
       <c r="AH7" s="20"/>
     </row>
@@ -2893,34 +2893,34 @@
         <v>94</v>
       </c>
       <c r="O8" s="19">
-        <v>104.875</v>
+        <v>99.733999999999995</v>
       </c>
       <c r="P8" s="19">
-        <v>97.078000000000003</v>
+        <v>97.453000000000003</v>
       </c>
       <c r="Q8" s="19">
-        <v>108.452</v>
+        <v>100.01600000000001</v>
       </c>
       <c r="R8" s="19">
-        <v>100.422</v>
+        <v>102.813</v>
       </c>
       <c r="S8" s="19">
-        <v>105.047</v>
+        <v>103.76600000000001</v>
       </c>
       <c r="T8" s="19">
-        <v>111.078</v>
+        <v>103</v>
       </c>
       <c r="U8" s="19">
-        <v>110.36</v>
+        <v>108.59399999999999</v>
       </c>
       <c r="V8" s="19">
-        <v>100.39</v>
+        <v>109.59399999999999</v>
       </c>
       <c r="W8" s="19">
-        <v>99.436999999999998</v>
+        <v>109.328</v>
       </c>
       <c r="X8" s="19">
-        <v>108.21899999999999</v>
+        <v>103.782</v>
       </c>
       <c r="AH8" s="20"/>
     </row>
@@ -2966,34 +2966,34 @@
         <v>95</v>
       </c>
       <c r="O9" s="19">
-        <v>44.561999999999998</v>
+        <v>45.015999999999998</v>
       </c>
       <c r="P9" s="19">
-        <v>44.031999999999996</v>
+        <v>43.875</v>
       </c>
       <c r="Q9" s="19">
-        <v>46.813000000000002</v>
+        <v>46.234000000000002</v>
       </c>
       <c r="R9" s="19">
-        <v>46.046999999999997</v>
+        <v>49.14</v>
       </c>
       <c r="S9" s="19">
-        <v>43.155999999999999</v>
+        <v>46.375</v>
       </c>
       <c r="T9" s="19">
-        <v>45.296999999999997</v>
+        <v>46.201999999999998</v>
       </c>
       <c r="U9" s="19">
-        <v>44.811999999999998</v>
+        <v>46.438000000000002</v>
       </c>
       <c r="V9" s="19">
-        <v>45.500999999999998</v>
+        <v>44.076999999999998</v>
       </c>
       <c r="W9" s="19">
-        <v>46.936999999999998</v>
+        <v>45.688000000000002</v>
       </c>
       <c r="X9" s="19">
-        <v>46.094000000000001</v>
+        <v>47.375999999999998</v>
       </c>
       <c r="AH9" s="20"/>
     </row>
@@ -3039,34 +3039,34 @@
         <v>96</v>
       </c>
       <c r="O10" s="19">
-        <v>108.328</v>
+        <v>99.421999999999997</v>
       </c>
       <c r="P10" s="19">
-        <v>106.70399999999999</v>
+        <v>101.25</v>
       </c>
       <c r="Q10" s="19">
-        <v>104.46899999999999</v>
+        <v>101.82899999999999</v>
       </c>
       <c r="R10" s="19">
-        <v>109.96899999999999</v>
+        <v>107.515</v>
       </c>
       <c r="S10" s="19">
-        <v>109.937</v>
+        <v>103.28</v>
       </c>
       <c r="T10" s="19">
-        <v>97.593000000000004</v>
+        <v>94.313000000000002</v>
       </c>
       <c r="U10" s="19">
-        <v>103.65600000000001</v>
+        <v>112.34399999999999</v>
       </c>
       <c r="V10" s="19">
-        <v>92.484999999999999</v>
+        <v>104.188</v>
       </c>
       <c r="W10" s="19">
-        <v>100.172</v>
+        <v>102.626</v>
       </c>
       <c r="X10" s="19">
-        <v>106.405</v>
+        <v>103.265</v>
       </c>
       <c r="AH10" s="20"/>
     </row>
@@ -3112,34 +3112,34 @@
         <v>99</v>
       </c>
       <c r="O11" s="19">
-        <v>110.313</v>
+        <v>122.14100000000001</v>
       </c>
       <c r="P11" s="19">
-        <v>119.73399999999999</v>
+        <v>119.5</v>
       </c>
       <c r="Q11" s="19">
-        <v>132.5</v>
+        <v>123.28100000000001</v>
       </c>
       <c r="R11" s="19">
-        <v>122.282</v>
+        <v>131.28100000000001</v>
       </c>
       <c r="S11" s="19">
-        <v>111.72</v>
+        <v>136.65600000000001</v>
       </c>
       <c r="T11" s="19">
-        <v>128.51499999999999</v>
+        <v>138.578</v>
       </c>
       <c r="U11" s="19">
-        <v>140.01599999999999</v>
+        <v>123.625</v>
       </c>
       <c r="V11" s="19">
-        <v>127.672</v>
+        <v>125.28100000000001</v>
       </c>
       <c r="W11" s="19">
-        <v>125.98399999999999</v>
+        <v>122.078</v>
       </c>
       <c r="X11" s="19">
-        <v>118.625</v>
+        <v>111.34399999999999</v>
       </c>
       <c r="AH11" s="20"/>
     </row>
@@ -3185,34 +3185,34 @@
         <v>100</v>
       </c>
       <c r="O12" s="19">
-        <v>45.39</v>
+        <v>46.515000000000001</v>
       </c>
       <c r="P12" s="19">
-        <v>41.969000000000001</v>
+        <v>44.953000000000003</v>
       </c>
       <c r="Q12" s="19">
-        <v>44.392000000000003</v>
+        <v>45.359000000000002</v>
       </c>
       <c r="R12" s="19">
-        <v>46.076999999999998</v>
+        <v>43.530999999999999</v>
       </c>
       <c r="S12" s="19">
-        <v>43.015999999999998</v>
+        <v>45.438000000000002</v>
       </c>
       <c r="T12" s="19">
-        <v>45.438000000000002</v>
+        <v>44.921999999999997</v>
       </c>
       <c r="U12" s="19">
-        <v>44.155999999999999</v>
+        <v>43.561999999999998</v>
       </c>
       <c r="V12" s="19">
-        <v>44.421999999999997</v>
+        <v>43.484999999999999</v>
       </c>
       <c r="W12" s="19">
-        <v>45.531999999999996</v>
+        <v>44.795999999999999</v>
       </c>
       <c r="X12" s="19">
-        <v>42.170999999999999</v>
+        <v>45.61</v>
       </c>
       <c r="AH12" s="20"/>
     </row>
@@ -3232,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3247,7 +3247,7 @@
     <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
         <v>81</v>
       </c>
@@ -3258,7 +3258,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="30"/>
       <c r="B3" s="32"/>
       <c r="C3" s="39"/>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>90</v>
       </c>
@@ -3317,10 +3317,11 @@
       </c>
       <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>109.50309999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>115.00020000000002</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>91</v>
       </c>
@@ -3345,10 +3346,11 @@
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>104.34209999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>102.6298</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>92</v>
       </c>
@@ -3373,10 +3375,11 @@
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>157.91230000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>176.0504</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
         <v>93</v>
       </c>
@@ -3401,10 +3404,11 @@
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>77.576699999999988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>77.534599999999983</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>94</v>
       </c>
@@ -3429,10 +3433,11 @@
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>104.53579999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>103.80799999999999</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
         <v>95</v>
       </c>
@@ -3457,10 +3462,11 @@
       </c>
       <c r="G9" s="7">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>45.325099999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>46.042099999999991</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>96</v>
       </c>
@@ -3485,10 +3491,11 @@
       </c>
       <c r="G10" s="7">
         <f>AVERAGE(data!O10:X10)</f>
-        <v>103.9718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>103.00319999999999</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>99</v>
       </c>
@@ -3513,10 +3520,11 @@
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>123.73609999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>125.37650000000001</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
         <v>100</v>
       </c>
@@ -3541,10 +3549,11 @@
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>44.256299999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>44.817099999999996</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
       <c r="B13" s="22"/>
       <c r="C13" s="2"/>
@@ -3553,7 +3562,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="22"/>
       <c r="C14" s="2"/>
@@ -3562,10 +3571,10 @@
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF6AC42-9479-4F8A-8489-B5F07BB3A44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD7032C-D234-43D1-B5FA-3001F9C53FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -2413,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2567,34 +2567,34 @@
         <v>732</v>
       </c>
       <c r="C4" s="17">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="D4" s="17">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="E4" s="17">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="F4" s="17">
+        <v>740</v>
+      </c>
+      <c r="G4" s="17">
         <v>755</v>
       </c>
-      <c r="G4" s="17">
-        <v>747</v>
-      </c>
       <c r="H4" s="17">
+        <v>759</v>
+      </c>
+      <c r="I4" s="17">
+        <v>745</v>
+      </c>
+      <c r="J4" s="17">
         <v>762</v>
       </c>
-      <c r="I4" s="17">
-        <v>751</v>
-      </c>
-      <c r="J4" s="17">
-        <v>761</v>
-      </c>
       <c r="K4" s="17">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="L4" s="17">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="17" t="s">
@@ -2640,34 +2640,34 @@
         <v>1484</v>
       </c>
       <c r="C5" s="17">
-        <v>1562</v>
+        <v>1545</v>
       </c>
       <c r="D5" s="17">
-        <v>1545</v>
+        <v>1582</v>
       </c>
       <c r="E5" s="17">
+        <v>1535</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1566</v>
+      </c>
+      <c r="G5" s="17">
         <v>1547</v>
       </c>
-      <c r="F5" s="17">
-        <v>1537</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1562</v>
-      </c>
       <c r="H5" s="17">
-        <v>1513</v>
+        <v>1534</v>
       </c>
       <c r="I5" s="17">
-        <v>1567</v>
+        <v>1528</v>
       </c>
       <c r="J5" s="17">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K5" s="17">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="L5" s="17">
-        <v>1553</v>
+        <v>1503</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="17" t="s">
@@ -2713,34 +2713,34 @@
         <v>492</v>
       </c>
       <c r="C6" s="17">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D6" s="17">
+        <v>466</v>
+      </c>
+      <c r="E6" s="17">
+        <v>463</v>
+      </c>
+      <c r="F6" s="17">
+        <v>468</v>
+      </c>
+      <c r="G6" s="17">
         <v>480</v>
       </c>
-      <c r="E6" s="17">
-        <v>467</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="H6" s="17">
+        <v>469</v>
+      </c>
+      <c r="I6" s="17">
         <v>474</v>
       </c>
-      <c r="G6" s="17">
-        <v>471</v>
-      </c>
-      <c r="H6" s="17">
-        <v>467</v>
-      </c>
-      <c r="I6" s="17">
-        <v>488</v>
-      </c>
       <c r="J6" s="17">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="K6" s="17">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="L6" s="17">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="17" t="s">
@@ -2786,34 +2786,34 @@
         <v>1653</v>
       </c>
       <c r="C7" s="17">
-        <v>1570</v>
+        <v>1544</v>
       </c>
       <c r="D7" s="17">
-        <v>1574</v>
+        <v>1547</v>
       </c>
       <c r="E7" s="17">
-        <v>1577</v>
+        <v>1549</v>
       </c>
       <c r="F7" s="17">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="G7" s="17">
-        <v>1576</v>
+        <v>1539</v>
       </c>
       <c r="H7" s="17">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="I7" s="17">
-        <v>1550</v>
+        <v>1569</v>
       </c>
       <c r="J7" s="17">
-        <v>1552</v>
+        <v>1544</v>
       </c>
       <c r="K7" s="17">
-        <v>1537</v>
+        <v>1564</v>
       </c>
       <c r="L7" s="17">
-        <v>1560</v>
+        <v>1543</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="17" t="s">
@@ -2859,34 +2859,34 @@
         <v>838</v>
       </c>
       <c r="C8" s="17">
+        <v>854</v>
+      </c>
+      <c r="D8" s="17">
+        <v>855</v>
+      </c>
+      <c r="E8" s="17">
+        <v>848</v>
+      </c>
+      <c r="F8" s="17">
+        <v>848</v>
+      </c>
+      <c r="G8" s="17">
+        <v>856</v>
+      </c>
+      <c r="H8" s="17">
+        <v>868</v>
+      </c>
+      <c r="I8" s="17">
         <v>849</v>
       </c>
-      <c r="D8" s="17">
-        <v>853</v>
-      </c>
-      <c r="E8" s="17">
-        <v>858</v>
-      </c>
-      <c r="F8" s="17">
-        <v>854</v>
-      </c>
-      <c r="G8" s="17">
-        <v>857</v>
-      </c>
-      <c r="H8" s="17">
-        <v>843</v>
-      </c>
-      <c r="I8" s="17">
-        <v>853</v>
-      </c>
       <c r="J8" s="17">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="K8" s="17">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="L8" s="17">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="17" t="s">
@@ -2932,34 +2932,34 @@
         <v>2116</v>
       </c>
       <c r="C9" s="17">
+        <v>2054</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2106</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2074</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2086</v>
+      </c>
+      <c r="G9" s="17">
         <v>2103</v>
       </c>
-      <c r="D9" s="17">
-        <v>2080</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2076</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2075</v>
-      </c>
-      <c r="G9" s="17">
-        <v>2089</v>
-      </c>
       <c r="H9" s="17">
-        <v>2089</v>
+        <v>2049</v>
       </c>
       <c r="I9" s="17">
-        <v>2094</v>
+        <v>2099</v>
       </c>
       <c r="J9" s="17">
-        <v>2090</v>
+        <v>2109</v>
       </c>
       <c r="K9" s="17">
-        <v>2079</v>
+        <v>2099</v>
       </c>
       <c r="L9" s="17">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="17" t="s">
@@ -3005,34 +3005,34 @@
         <v>772</v>
       </c>
       <c r="C10" s="17">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D10" s="17">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="E10" s="17">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F10" s="17">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G10" s="17">
         <v>725</v>
       </c>
       <c r="H10" s="17">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="I10" s="17">
+        <v>721</v>
+      </c>
+      <c r="J10" s="17">
+        <v>725</v>
+      </c>
+      <c r="K10" s="17">
+        <v>726</v>
+      </c>
+      <c r="L10" s="17">
         <v>724</v>
-      </c>
-      <c r="J10" s="17">
-        <v>722</v>
-      </c>
-      <c r="K10" s="17">
-        <v>718</v>
-      </c>
-      <c r="L10" s="17">
-        <v>719</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="17" t="s">
@@ -3078,34 +3078,34 @@
         <v>634</v>
       </c>
       <c r="C11" s="17">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D11" s="17">
+        <v>636</v>
+      </c>
+      <c r="E11" s="17">
+        <v>644</v>
+      </c>
+      <c r="F11" s="17">
         <v>646</v>
       </c>
-      <c r="E11" s="17">
+      <c r="G11" s="17">
         <v>642</v>
       </c>
-      <c r="F11" s="17">
-        <v>639</v>
-      </c>
-      <c r="G11" s="17">
-        <v>645</v>
-      </c>
       <c r="H11" s="17">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I11" s="17">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="J11" s="17">
         <v>641</v>
       </c>
       <c r="K11" s="17">
+        <v>646</v>
+      </c>
+      <c r="L11" s="17">
         <v>640</v>
-      </c>
-      <c r="L11" s="17">
-        <v>647</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="17" t="s">
@@ -3151,34 +3151,34 @@
         <v>1539</v>
       </c>
       <c r="C12" s="17">
+        <v>1599</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1596</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1592</v>
+      </c>
+      <c r="F12" s="17">
         <v>1571</v>
       </c>
-      <c r="D12" s="17">
-        <v>1569</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1608</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1629</v>
-      </c>
       <c r="G12" s="17">
-        <v>1629</v>
+        <v>1600</v>
       </c>
       <c r="H12" s="17">
-        <v>1600</v>
+        <v>1554</v>
       </c>
       <c r="I12" s="17">
-        <v>1619</v>
+        <v>1588</v>
       </c>
       <c r="J12" s="17">
-        <v>1577</v>
+        <v>1585</v>
       </c>
       <c r="K12" s="17">
-        <v>1618</v>
+        <v>1576</v>
       </c>
       <c r="L12" s="17">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="17" t="s">
@@ -3234,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3305,15 +3305,15 @@
       </c>
       <c r="D4" s="6">
         <f>MIN(data!C4:L4) / data!B4 -1</f>
-        <v>1.6393442622950838E-2</v>
+        <v>1.0928961748633892E-2</v>
       </c>
       <c r="E4" s="6">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>2.9098360655737565E-2</v>
+        <v>2.8825136612021796E-2</v>
       </c>
       <c r="F4" s="6">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
-        <v>4.2349726775956276E-2</v>
+        <v>4.508196721311486E-2</v>
       </c>
       <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
@@ -3334,15 +3334,15 @@
       </c>
       <c r="D5" s="6">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
-        <v>1.9541778975741275E-2</v>
+        <v>1.2803234501347793E-2</v>
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>3.982479784366566E-2</v>
+        <v>3.5781671159029527E-2</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>5.5929919137466255E-2</v>
+        <v>6.60377358490567E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
@@ -3363,15 +3363,15 @@
       </c>
       <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>-5.0813008130081272E-2</v>
+        <v>-7.1138211382113847E-2</v>
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>-3.3333333333333326E-2</v>
+        <v>-4.9796747967479682E-2</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>-8.1300813008130524E-3</v>
+        <v>-2.4390243902439046E-2</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
@@ -3392,15 +3392,15 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-7.0175438596491224E-2</v>
+        <v>-6.8965517241379337E-2</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-5.456745311554756E-2</v>
+        <v>-6.2431941923774992E-2</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>-4.5977011494252928E-2</v>
+        <v>-5.0816696914700588E-2</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
@@ -3421,15 +3421,15 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>5.9665871121719061E-3</v>
+        <v>1.193317422434359E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>1.9570405727923568E-2</v>
+        <v>1.8257756563245797E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>2.8639618138424749E-2</v>
+        <v>3.5799522673030992E-2</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
@@ -3450,15 +3450,15 @@
       </c>
       <c r="D9" s="6">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>-1.937618147448017E-2</v>
+        <v>-3.1663516068052955E-2</v>
       </c>
       <c r="E9" s="6">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>-1.4366729678638945E-2</v>
+        <v>-1.4130434782608781E-2</v>
       </c>
       <c r="F9" s="6">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>-6.1436672967863926E-3</v>
+        <v>-3.3081285444234165E-3</v>
       </c>
       <c r="G9" s="7">
         <f>AVERAGE(data!O9:X9)</f>
@@ -3483,11 +3483,11 @@
       </c>
       <c r="E10" s="6">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>-6.3989637305699398E-2</v>
+        <v>-6.4507772020725329E-2</v>
       </c>
       <c r="F10" s="6">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>-4.9222797927461093E-2</v>
+        <v>-5.9585492227979264E-2</v>
       </c>
       <c r="G10" s="7">
         <f>AVERAGE(data!O10:X10)</f>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="D11" s="6">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>4.7318611987381409E-3</v>
+        <v>3.154574132492094E-3</v>
       </c>
       <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>2.0504731861198833E-2</v>
+        <v>1.8927444794952786E-2</v>
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
@@ -3537,15 +3537,15 @@
       </c>
       <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>1.949317738791434E-2</v>
+        <v>9.74658869395717E-3</v>
       </c>
       <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>4.0610786224821283E-2</v>
+        <v>3.047433398310595E-2</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>5.8479532163742798E-2</v>
+        <v>3.9636127355425543E-2</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD7032C-D234-43D1-B5FA-3001F9C53FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D9B33-9B7C-43CF-80B1-D29AFA1F3FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2414,7 +2414,7 @@
   <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2567,25 +2567,25 @@
         <v>732</v>
       </c>
       <c r="C4" s="17">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D4" s="17">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="E4" s="17">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="F4" s="17">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="G4" s="17">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="H4" s="17">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="I4" s="17">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="J4" s="17">
         <v>762</v>
@@ -2594,41 +2594,41 @@
         <v>752</v>
       </c>
       <c r="L4" s="17">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="17" t="s">
         <v>90</v>
       </c>
       <c r="O4" s="19">
-        <v>124.01600000000001</v>
+        <v>114.703</v>
       </c>
       <c r="P4" s="19">
-        <v>115.59399999999999</v>
+        <v>124.61</v>
       </c>
       <c r="Q4" s="19">
-        <v>111.235</v>
+        <v>110.345</v>
       </c>
       <c r="R4" s="19">
-        <v>113.54600000000001</v>
+        <v>114.078</v>
       </c>
       <c r="S4" s="19">
-        <v>120.532</v>
+        <v>112.328</v>
       </c>
       <c r="T4" s="19">
-        <v>109.51600000000001</v>
+        <v>120.71899999999999</v>
       </c>
       <c r="U4" s="19">
-        <v>113.40600000000001</v>
+        <v>124.03100000000001</v>
       </c>
       <c r="V4" s="19">
-        <v>120.34399999999999</v>
+        <v>129.124</v>
       </c>
       <c r="W4" s="19">
-        <v>107.313</v>
+        <v>122.90600000000001</v>
       </c>
       <c r="X4" s="19">
-        <v>114.5</v>
+        <v>118.657</v>
       </c>
       <c r="AH4" s="20"/>
     </row>
@@ -2640,68 +2640,68 @@
         <v>1484</v>
       </c>
       <c r="C5" s="17">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="D5" s="17">
-        <v>1582</v>
+        <v>1518</v>
       </c>
       <c r="E5" s="17">
-        <v>1535</v>
+        <v>1540</v>
       </c>
       <c r="F5" s="17">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="G5" s="17">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="H5" s="17">
-        <v>1534</v>
+        <v>1549</v>
       </c>
       <c r="I5" s="17">
-        <v>1528</v>
+        <v>1564</v>
       </c>
       <c r="J5" s="17">
-        <v>1515</v>
+        <v>1542</v>
       </c>
       <c r="K5" s="17">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="L5" s="17">
-        <v>1503</v>
+        <v>1550</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="17" t="s">
         <v>91</v>
       </c>
       <c r="O5" s="19">
-        <v>104.95399999999999</v>
+        <v>106.96899999999999</v>
       </c>
       <c r="P5" s="19">
-        <v>114.25</v>
+        <v>99.891000000000005</v>
       </c>
       <c r="Q5" s="19">
-        <v>93.076999999999998</v>
+        <v>107.25</v>
       </c>
       <c r="R5" s="19">
-        <v>96.11</v>
+        <v>117.82899999999999</v>
       </c>
       <c r="S5" s="19">
-        <v>102.032</v>
+        <v>110.86</v>
       </c>
       <c r="T5" s="19">
-        <v>101.78100000000001</v>
+        <v>116.562</v>
       </c>
       <c r="U5" s="19">
-        <v>106.828</v>
+        <v>113.78100000000001</v>
       </c>
       <c r="V5" s="19">
-        <v>96.858999999999995</v>
+        <v>109.78100000000001</v>
       </c>
       <c r="W5" s="19">
-        <v>106.126</v>
+        <v>108.501</v>
       </c>
       <c r="X5" s="19">
-        <v>104.28100000000001</v>
+        <v>106.312</v>
       </c>
       <c r="AH5" s="20"/>
     </row>
@@ -2713,68 +2713,68 @@
         <v>492</v>
       </c>
       <c r="C6" s="17">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D6" s="17">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="E6" s="17">
+        <v>457</v>
+      </c>
+      <c r="F6" s="17">
+        <v>464</v>
+      </c>
+      <c r="G6" s="17">
         <v>463</v>
       </c>
-      <c r="F6" s="17">
-        <v>468</v>
-      </c>
-      <c r="G6" s="17">
-        <v>480</v>
-      </c>
       <c r="H6" s="17">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I6" s="17">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="J6" s="17">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K6" s="17">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="L6" s="17">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="17" t="s">
         <v>92</v>
       </c>
       <c r="O6" s="19">
-        <v>163.142</v>
+        <v>212.172</v>
       </c>
       <c r="P6" s="19">
-        <v>180.53100000000001</v>
+        <v>240.09399999999999</v>
       </c>
       <c r="Q6" s="19">
-        <v>179.22</v>
+        <v>208.71899999999999</v>
       </c>
       <c r="R6" s="19">
-        <v>174.06399999999999</v>
+        <v>235.73500000000001</v>
       </c>
       <c r="S6" s="19">
-        <v>184.01599999999999</v>
+        <v>250.95400000000001</v>
       </c>
       <c r="T6" s="19">
-        <v>177.15600000000001</v>
+        <v>254.07900000000001</v>
       </c>
       <c r="U6" s="19">
-        <v>138.09399999999999</v>
+        <v>240.827</v>
       </c>
       <c r="V6" s="19">
-        <v>191.75</v>
+        <v>211.81299999999999</v>
       </c>
       <c r="W6" s="19">
-        <v>141.76499999999999</v>
+        <v>173.15700000000001</v>
       </c>
       <c r="X6" s="19">
-        <v>230.76599999999999</v>
+        <v>248.01499999999999</v>
       </c>
       <c r="AH6" s="20"/>
     </row>
@@ -2786,68 +2786,68 @@
         <v>1653</v>
       </c>
       <c r="C7" s="17">
+        <v>1559</v>
+      </c>
+      <c r="D7" s="17">
         <v>1544</v>
       </c>
-      <c r="D7" s="17">
-        <v>1547</v>
-      </c>
       <c r="E7" s="17">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="F7" s="17">
+        <v>1558</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1538</v>
+      </c>
+      <c r="H7" s="17">
         <v>1552</v>
       </c>
-      <c r="G7" s="17">
-        <v>1539</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1547</v>
-      </c>
       <c r="I7" s="17">
-        <v>1569</v>
+        <v>1544</v>
       </c>
       <c r="J7" s="17">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="K7" s="17">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="L7" s="17">
-        <v>1543</v>
+        <v>1567</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="17" t="s">
         <v>93</v>
       </c>
       <c r="O7" s="19">
-        <v>75.484999999999999</v>
+        <v>78.984999999999999</v>
       </c>
       <c r="P7" s="19">
-        <v>80.171999999999997</v>
+        <v>82.171000000000006</v>
       </c>
       <c r="Q7" s="19">
-        <v>76.358999999999995</v>
+        <v>79.39</v>
       </c>
       <c r="R7" s="19">
-        <v>78.688000000000002</v>
+        <v>80.531000000000006</v>
       </c>
       <c r="S7" s="19">
-        <v>76.688000000000002</v>
+        <v>78.936999999999998</v>
       </c>
       <c r="T7" s="19">
-        <v>72.328000000000003</v>
+        <v>80.938000000000002</v>
       </c>
       <c r="U7" s="19">
-        <v>74.703000000000003</v>
+        <v>84.233999999999995</v>
       </c>
       <c r="V7" s="19">
-        <v>81.375</v>
+        <v>82.358999999999995</v>
       </c>
       <c r="W7" s="19">
-        <v>80.641000000000005</v>
+        <v>80.141000000000005</v>
       </c>
       <c r="X7" s="19">
-        <v>78.906999999999996</v>
+        <v>79.468000000000004</v>
       </c>
       <c r="AH7" s="20"/>
     </row>
@@ -2859,68 +2859,68 @@
         <v>838</v>
       </c>
       <c r="C8" s="17">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D8" s="17">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E8" s="17">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="F8" s="17">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="G8" s="17">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="H8" s="17">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I8" s="17">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J8" s="17">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="K8" s="17">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="L8" s="17">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="17" t="s">
         <v>94</v>
       </c>
       <c r="O8" s="19">
-        <v>99.733999999999995</v>
+        <v>106.73399999999999</v>
       </c>
       <c r="P8" s="19">
-        <v>97.453000000000003</v>
+        <v>112.438</v>
       </c>
       <c r="Q8" s="19">
-        <v>100.01600000000001</v>
+        <v>116.642</v>
       </c>
       <c r="R8" s="19">
-        <v>102.813</v>
+        <v>102.14</v>
       </c>
       <c r="S8" s="19">
-        <v>103.76600000000001</v>
+        <v>111.532</v>
       </c>
       <c r="T8" s="19">
-        <v>103</v>
+        <v>114.062</v>
       </c>
       <c r="U8" s="19">
-        <v>108.59399999999999</v>
+        <v>109.84399999999999</v>
       </c>
       <c r="V8" s="19">
-        <v>109.59399999999999</v>
+        <v>102.35899999999999</v>
       </c>
       <c r="W8" s="19">
-        <v>109.328</v>
+        <v>113.09399999999999</v>
       </c>
       <c r="X8" s="19">
-        <v>103.782</v>
+        <v>110.422</v>
       </c>
       <c r="AH8" s="20"/>
     </row>
@@ -2932,68 +2932,68 @@
         <v>2116</v>
       </c>
       <c r="C9" s="17">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="D9" s="17">
-        <v>2106</v>
+        <v>2059</v>
       </c>
       <c r="E9" s="17">
-        <v>2074</v>
+        <v>2098</v>
       </c>
       <c r="F9" s="17">
-        <v>2086</v>
+        <v>2105</v>
       </c>
       <c r="G9" s="17">
-        <v>2103</v>
+        <v>2048</v>
       </c>
       <c r="H9" s="17">
-        <v>2049</v>
+        <v>2085</v>
       </c>
       <c r="I9" s="17">
-        <v>2099</v>
+        <v>2058</v>
       </c>
       <c r="J9" s="17">
-        <v>2109</v>
+        <v>2125</v>
       </c>
       <c r="K9" s="17">
-        <v>2099</v>
+        <v>2058</v>
       </c>
       <c r="L9" s="17">
-        <v>2082</v>
+        <v>2069</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="17" t="s">
         <v>95</v>
       </c>
       <c r="O9" s="19">
-        <v>45.015999999999998</v>
+        <v>45.968000000000004</v>
       </c>
       <c r="P9" s="19">
-        <v>43.875</v>
+        <v>45.344000000000001</v>
       </c>
       <c r="Q9" s="19">
-        <v>46.234000000000002</v>
+        <v>45.734999999999999</v>
       </c>
       <c r="R9" s="19">
-        <v>49.14</v>
+        <v>47.14</v>
       </c>
       <c r="S9" s="19">
-        <v>46.375</v>
+        <v>44.359000000000002</v>
       </c>
       <c r="T9" s="19">
-        <v>46.201999999999998</v>
+        <v>47.28</v>
       </c>
       <c r="U9" s="19">
-        <v>46.438000000000002</v>
+        <v>48.938000000000002</v>
       </c>
       <c r="V9" s="19">
-        <v>44.076999999999998</v>
+        <v>45.063000000000002</v>
       </c>
       <c r="W9" s="19">
-        <v>45.688000000000002</v>
+        <v>45.155999999999999</v>
       </c>
       <c r="X9" s="19">
-        <v>47.375999999999998</v>
+        <v>48.094000000000001</v>
       </c>
       <c r="AH9" s="20"/>
     </row>
@@ -3005,68 +3005,68 @@
         <v>772</v>
       </c>
       <c r="C10" s="17">
+        <v>718</v>
+      </c>
+      <c r="D10" s="17">
+        <v>718</v>
+      </c>
+      <c r="E10" s="17">
+        <v>718</v>
+      </c>
+      <c r="F10" s="17">
+        <v>719</v>
+      </c>
+      <c r="G10" s="17">
+        <v>719</v>
+      </c>
+      <c r="H10" s="17">
         <v>720</v>
-      </c>
-      <c r="D10" s="17">
-        <v>719</v>
-      </c>
-      <c r="E10" s="17">
-        <v>719</v>
-      </c>
-      <c r="F10" s="17">
-        <v>718</v>
-      </c>
-      <c r="G10" s="17">
-        <v>725</v>
-      </c>
-      <c r="H10" s="17">
-        <v>725</v>
       </c>
       <c r="I10" s="17">
         <v>721</v>
       </c>
       <c r="J10" s="17">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="K10" s="17">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="L10" s="17">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="17" t="s">
         <v>96</v>
       </c>
       <c r="O10" s="19">
-        <v>99.421999999999997</v>
+        <v>115.703</v>
       </c>
       <c r="P10" s="19">
-        <v>101.25</v>
+        <v>108.64100000000001</v>
       </c>
       <c r="Q10" s="19">
-        <v>101.82899999999999</v>
+        <v>112.61</v>
       </c>
       <c r="R10" s="19">
-        <v>107.515</v>
+        <v>105.73399999999999</v>
       </c>
       <c r="S10" s="19">
-        <v>103.28</v>
+        <v>108.687</v>
       </c>
       <c r="T10" s="19">
-        <v>94.313000000000002</v>
+        <v>107.985</v>
       </c>
       <c r="U10" s="19">
-        <v>112.34399999999999</v>
+        <v>106.39</v>
       </c>
       <c r="V10" s="19">
-        <v>104.188</v>
+        <v>105.047</v>
       </c>
       <c r="W10" s="19">
-        <v>102.626</v>
+        <v>107.422</v>
       </c>
       <c r="X10" s="19">
-        <v>103.265</v>
+        <v>107.39100000000001</v>
       </c>
       <c r="AH10" s="20"/>
     </row>
@@ -3081,22 +3081,22 @@
         <v>638</v>
       </c>
       <c r="D11" s="17">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E11" s="17">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F11" s="17">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G11" s="17">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H11" s="17">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I11" s="17">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="J11" s="17">
         <v>641</v>
@@ -3105,41 +3105,41 @@
         <v>646</v>
       </c>
       <c r="L11" s="17">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="17" t="s">
         <v>99</v>
       </c>
       <c r="O11" s="19">
-        <v>122.14100000000001</v>
+        <v>152.26599999999999</v>
       </c>
       <c r="P11" s="19">
-        <v>119.5</v>
+        <v>122.95399999999999</v>
       </c>
       <c r="Q11" s="19">
-        <v>123.28100000000001</v>
+        <v>152.84399999999999</v>
       </c>
       <c r="R11" s="19">
-        <v>131.28100000000001</v>
+        <v>144.375</v>
       </c>
       <c r="S11" s="19">
-        <v>136.65600000000001</v>
+        <v>137.672</v>
       </c>
       <c r="T11" s="19">
-        <v>138.578</v>
+        <v>131.07900000000001</v>
       </c>
       <c r="U11" s="19">
-        <v>123.625</v>
+        <v>127.953</v>
       </c>
       <c r="V11" s="19">
-        <v>125.28100000000001</v>
+        <v>125.65600000000001</v>
       </c>
       <c r="W11" s="19">
-        <v>122.078</v>
+        <v>114.562</v>
       </c>
       <c r="X11" s="19">
-        <v>111.34399999999999</v>
+        <v>128.96899999999999</v>
       </c>
       <c r="AH11" s="20"/>
     </row>
@@ -3151,68 +3151,68 @@
         <v>1539</v>
       </c>
       <c r="C12" s="17">
+        <v>1596</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1644</v>
+      </c>
+      <c r="E12" s="17">
         <v>1599</v>
       </c>
-      <c r="D12" s="17">
-        <v>1596</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1592</v>
-      </c>
       <c r="F12" s="17">
-        <v>1571</v>
+        <v>1585</v>
       </c>
       <c r="G12" s="17">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="H12" s="17">
-        <v>1554</v>
+        <v>1618</v>
       </c>
       <c r="I12" s="17">
-        <v>1588</v>
+        <v>1611</v>
       </c>
       <c r="J12" s="17">
-        <v>1585</v>
+        <v>1598</v>
       </c>
       <c r="K12" s="17">
-        <v>1576</v>
+        <v>1565</v>
       </c>
       <c r="L12" s="17">
-        <v>1598</v>
+        <v>1583</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="17" t="s">
         <v>100</v>
       </c>
       <c r="O12" s="19">
-        <v>46.515000000000001</v>
+        <v>44.780999999999999</v>
       </c>
       <c r="P12" s="19">
-        <v>44.953000000000003</v>
+        <v>43.311999999999998</v>
       </c>
       <c r="Q12" s="19">
-        <v>45.359000000000002</v>
+        <v>45.328000000000003</v>
       </c>
       <c r="R12" s="19">
-        <v>43.530999999999999</v>
+        <v>45.686999999999998</v>
       </c>
       <c r="S12" s="19">
-        <v>45.438000000000002</v>
+        <v>45.969000000000001</v>
       </c>
       <c r="T12" s="19">
-        <v>44.921999999999997</v>
+        <v>43.594000000000001</v>
       </c>
       <c r="U12" s="19">
-        <v>43.561999999999998</v>
+        <v>43.484999999999999</v>
       </c>
       <c r="V12" s="19">
-        <v>43.484999999999999</v>
+        <v>45.375</v>
       </c>
       <c r="W12" s="19">
-        <v>44.795999999999999</v>
+        <v>45.546999999999997</v>
       </c>
       <c r="X12" s="19">
-        <v>45.61</v>
+        <v>43.826999999999998</v>
       </c>
       <c r="AH12" s="20"/>
     </row>
@@ -3232,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3247,7 +3247,7 @@
     <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
         <v>81</v>
       </c>
@@ -3258,7 +3258,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="30"/>
       <c r="B3" s="32"/>
       <c r="C3" s="39"/>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>90</v>
       </c>
@@ -3305,23 +3305,22 @@
       </c>
       <c r="D4" s="6">
         <f>MIN(data!C4:L4) / data!B4 -1</f>
-        <v>1.0928961748633892E-2</v>
+        <v>4.098360655737654E-3</v>
       </c>
       <c r="E4" s="6">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>2.8825136612021796E-2</v>
+        <v>3.0191256830601088E-2</v>
       </c>
       <c r="F4" s="6">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
-        <v>4.508196721311486E-2</v>
+        <v>4.9180327868852514E-2</v>
       </c>
       <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>115.00020000000002</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>119.15009999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>91</v>
       </c>
@@ -3334,23 +3333,22 @@
       </c>
       <c r="D5" s="6">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
-        <v>1.2803234501347793E-2</v>
+        <v>1.9541778975741275E-2</v>
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>3.5781671159029527E-2</v>
+        <v>3.9218328840970429E-2</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>6.60377358490567E-2</v>
+        <v>5.3908355795148299E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>102.6298</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>109.77359999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>92</v>
       </c>
@@ -3367,19 +3365,18 @@
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>-4.9796747967479682E-2</v>
+        <v>-5.365853658536579E-2</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>-2.4390243902439046E-2</v>
+        <v>-2.8455284552845517E-2</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>176.0504</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>227.5565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
         <v>93</v>
       </c>
@@ -3392,23 +3389,22 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-6.8965517241379337E-2</v>
+        <v>-6.9570477918935225E-2</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-6.2431941923774992E-2</v>
+        <v>-6.1464004839685393E-2</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>-5.0816696914700588E-2</v>
+        <v>-5.2026618269812475E-2</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>77.534599999999983</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>80.715400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>94</v>
       </c>
@@ -3421,23 +3417,22 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>1.193317422434359E-2</v>
+        <v>1.0739856801909253E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>1.8257756563245797E-2</v>
+        <v>2.1599045346062162E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>3.5799522673030992E-2</v>
+        <v>3.4606205250596656E-2</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>103.80799999999999</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>109.92670000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
         <v>95</v>
       </c>
@@ -3450,23 +3445,22 @@
       </c>
       <c r="D9" s="6">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>-3.1663516068052955E-2</v>
+        <v>-3.2136105860113395E-2</v>
       </c>
       <c r="E9" s="6">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>-1.4130434782608781E-2</v>
+        <v>-1.9139886578449894E-2</v>
       </c>
       <c r="F9" s="6">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>-3.3081285444234165E-3</v>
+        <v>4.2533081285445196E-3</v>
       </c>
       <c r="G9" s="7">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>46.042099999999991</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>46.307699999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>96</v>
       </c>
@@ -3483,19 +3477,18 @@
       </c>
       <c r="E10" s="6">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>-6.4507772020725329E-2</v>
+        <v>-6.7227979274611327E-2</v>
       </c>
       <c r="F10" s="6">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>-5.9585492227979264E-2</v>
+        <v>-5.569948186528495E-2</v>
       </c>
       <c r="G10" s="7">
         <f>AVERAGE(data!O10:X10)</f>
-        <v>103.00319999999999</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>108.56100000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>99</v>
       </c>
@@ -3508,23 +3501,22 @@
       </c>
       <c r="D11" s="6">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>3.154574132492094E-3</v>
+        <v>1.577287066246047E-3</v>
       </c>
       <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>1.2933753943217718E-2</v>
+        <v>1.1198738170347111E-2</v>
       </c>
       <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>1.8927444794952786E-2</v>
+        <v>2.5236593059936974E-2</v>
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>125.37650000000001</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <v>133.833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
         <v>100</v>
       </c>
@@ -3537,23 +3529,22 @@
       </c>
       <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>9.74658869395717E-3</v>
+        <v>1.6894087069525776E-2</v>
       </c>
       <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>3.047433398310595E-2</v>
+        <v>3.8596491228070295E-2</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>3.9636127355425543E-2</v>
+        <v>6.8226120857699746E-2</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>44.817099999999996</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+        <v>44.6905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
       <c r="B13" s="22"/>
       <c r="C13" s="2"/>
@@ -3562,7 +3553,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="22"/>
       <c r="C14" s="2"/>
@@ -3571,10 +3562,10 @@
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
     </row>
-    <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D9B33-9B7C-43CF-80B1-D29AFA1F3FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA909DF-EBDC-4D11-8B23-4BDC190E57CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
   <si>
     <t>Instance</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>MersenneTwister seed</t>
-  </si>
-  <si>
-    <t>Optimized solution</t>
   </si>
   <si>
     <t>            Ψᵣ  =   [</t>
@@ -251,9 +248,6 @@
     <t>Number of iterations in a local search</t>
   </si>
   <si>
-    <t>        x = max(100, problem size)</t>
-  </si>
-  <si>
     <t>            n   =   x                       ,</t>
   </si>
   <si>
@@ -311,39 +305,9 @@
     <t>                        :interopt!</t>
   </si>
   <si>
-    <t>bar-n100-1</t>
-  </si>
-  <si>
-    <t>ber-n100-2</t>
-  </si>
-  <si>
-    <t>nyc-n100-3</t>
-  </si>
-  <si>
-    <t>poa-n100-4</t>
-  </si>
-  <si>
-    <t>bar-n100-5</t>
-  </si>
-  <si>
-    <t>ber-n100-6</t>
-  </si>
-  <si>
-    <t>poa-n100-7</t>
-  </si>
-  <si>
     <t>            ω̅   =   0.1                     ,</t>
   </si>
   <si>
-    <t>            θ   =   0.999                   ,</t>
-  </si>
-  <si>
-    <t>nyc-n100-1</t>
-  </si>
-  <si>
-    <t>poa-n100-2</t>
-  </si>
-  <si>
     <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
   <si>
@@ -351,6 +315,57 @@
   </si>
   <si>
     <t>            c̅   =   30                      ,</t>
+  </si>
+  <si>
+    <t>Set B</t>
+  </si>
+  <si>
+    <t>Set A</t>
+  </si>
+  <si>
+    <t>lc101</t>
+  </si>
+  <si>
+    <t>lc201</t>
+  </si>
+  <si>
+    <t>lr101</t>
+  </si>
+  <si>
+    <t>lr201</t>
+  </si>
+  <si>
+    <t>lrc101</t>
+  </si>
+  <si>
+    <t>lrc201</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>        x = max(100, problem size) ÷ 5</t>
+  </si>
+  <si>
+    <t>Set C</t>
+  </si>
+  <si>
+    <t>            θ   =   0.9925                  ,</t>
+  </si>
+  <si>
+    <t>        x = max(100, problem size) ÷ 100</t>
+  </si>
+  <si>
+    <t>            θ   =   0.9                     ,</t>
+  </si>
+  <si>
+    <t>        x = max(100, problem size) ÷ 2</t>
+  </si>
+  <si>
+    <t>            θ   =   0.9975                  ,</t>
   </si>
 </sst>
 </file>
@@ -360,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +440,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="JuliaMono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -434,7 +455,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -632,12 +653,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -684,19 +714,41 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,41 +759,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1024,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:N279"/>
+  <dimension ref="A1:O281"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1049,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1062,7 +1123,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1093,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1119,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1127,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1147,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1164,713 +1225,930 @@
       <c r="B16" s="13"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>70</v>
+    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="B17" s="13"/>
+      <c r="E17" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="E18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>66</v>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>68</v>
+      <c r="E21" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="24"/>
+      <c r="J21" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="26"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>46</v>
+      <c r="E23" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="27"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>47</v>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>48</v>
+      <c r="E38" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
-        <v>40</v>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>49</v>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>50</v>
+      <c r="E47" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
+      <c r="J47" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>51</v>
+      <c r="E48" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
+      <c r="J48" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O48" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
-        <v>57</v>
+      <c r="E49" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
+      <c r="J49" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
-        <v>59</v>
+      <c r="E50" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
+      <c r="J50" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O50" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>61</v>
+      <c r="E51" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
+      <c r="J51" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>60</v>
+      <c r="E52" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
+      <c r="J52" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
-        <v>52</v>
+      <c r="E53" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J53" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="O53" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>53</v>
+      <c r="E54" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J54" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
-        <v>54</v>
+      <c r="E55" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I55" s="1"/>
+      <c r="J55" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>55</v>
+      <c r="E56" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J56" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>56</v>
+      <c r="E57" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J57" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="O57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>58</v>
+      <c r="E58" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="16"/>
-    </row>
-    <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J58" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="O59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
-      <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="16"/>
-    </row>
-    <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J62" s="15"/>
     </row>
-    <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="J63" s="15"/>
-    </row>
-    <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
+    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J64" s="15"/>
     </row>
     <row r="65" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J65" s="15"/>
     </row>
+    <row r="66" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J66" s="15"/>
+    </row>
     <row r="67" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J67" s="15"/>
     </row>
-    <row r="68" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J68" s="15"/>
-    </row>
     <row r="69" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J69" s="15"/>
     </row>
-    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="13"/>
-    </row>
-    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="13"/>
+    <row r="70" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J70" s="15"/>
+    </row>
+    <row r="71" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J71" s="15"/>
     </row>
     <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="13"/>
@@ -2400,9 +2678,15 @@
     <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="13"/>
     </row>
+    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B280" s="13"/>
+    </row>
+    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B281" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K22:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2411,10 +2695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2423,79 +2707,116 @@
     <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.7265625" style="17"/>
     <col min="14" max="14" width="17.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="24" width="8.54296875" style="17" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="17"/>
+    <col min="15" max="15" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="26" width="8.7265625" style="17"/>
+    <col min="27" max="27" width="17.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="37" width="8.54296875" style="17" customWidth="1"/>
+    <col min="38" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+    <row r="1" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="30"/>
       <c r="M1" s="19"/>
-      <c r="N1" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="30"/>
-    </row>
-    <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="N1" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="30"/>
+    </row>
+    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="19"/>
       <c r="N2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="28"/>
-    </row>
-    <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="36"/>
+    </row>
+    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18">
         <v>1010</v>
       </c>
@@ -2527,704 +2848,846 @@
         <v>2807</v>
       </c>
       <c r="M3" s="19"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="18">
+      <c r="N3" s="30"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="18">
         <v>1010</v>
       </c>
-      <c r="P3" s="18">
+      <c r="Q3" s="18">
         <v>1106</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="R3" s="18">
         <v>1509</v>
       </c>
-      <c r="R3" s="18">
+      <c r="S3" s="18">
         <v>1604</v>
       </c>
-      <c r="S3" s="18">
+      <c r="T3" s="18">
         <v>1905</v>
       </c>
-      <c r="T3" s="18">
+      <c r="U3" s="18">
         <v>2104</v>
       </c>
-      <c r="U3" s="18">
+      <c r="V3" s="18">
         <v>2412</v>
       </c>
-      <c r="V3" s="18">
+      <c r="W3" s="18">
         <v>2703</v>
       </c>
-      <c r="W3" s="18">
+      <c r="X3" s="18">
         <v>2710</v>
       </c>
-      <c r="X3" s="18">
+      <c r="Y3" s="18">
         <v>2807</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="21">
-        <v>732</v>
-      </c>
-      <c r="C4" s="17">
-        <v>757</v>
-      </c>
-      <c r="D4" s="17">
-        <v>761</v>
-      </c>
-      <c r="E4" s="17">
-        <v>741</v>
-      </c>
-      <c r="F4" s="17">
-        <v>762</v>
-      </c>
-      <c r="G4" s="17">
-        <v>768</v>
-      </c>
-      <c r="H4" s="17">
-        <v>752</v>
-      </c>
-      <c r="I4" s="17">
-        <v>751</v>
-      </c>
-      <c r="J4" s="17">
-        <v>762</v>
-      </c>
-      <c r="K4" s="17">
-        <v>752</v>
-      </c>
-      <c r="L4" s="17">
-        <v>735</v>
-      </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="19">
-        <v>114.703</v>
-      </c>
-      <c r="P4" s="19">
-        <v>124.61</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>110.345</v>
-      </c>
-      <c r="R4" s="19">
-        <v>114.078</v>
-      </c>
-      <c r="S4" s="19">
-        <v>112.328</v>
-      </c>
-      <c r="T4" s="19">
-        <v>120.71899999999999</v>
-      </c>
-      <c r="U4" s="19">
-        <v>124.03100000000001</v>
-      </c>
-      <c r="V4" s="19">
-        <v>129.124</v>
-      </c>
-      <c r="W4" s="19">
-        <v>122.90600000000001</v>
-      </c>
-      <c r="X4" s="19">
-        <v>118.657</v>
-      </c>
-      <c r="AH4" s="20"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="18">
+        <v>1010</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>1106</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>1509</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>1604</v>
+      </c>
+      <c r="AF3" s="18">
+        <v>1905</v>
+      </c>
+      <c r="AG3" s="18">
+        <v>2104</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>2412</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>2703</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>2710</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1484</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1542</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1518</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1540</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1551</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1553</v>
-      </c>
-      <c r="H5" s="17">
-        <v>1549</v>
-      </c>
-      <c r="I5" s="17">
-        <v>1564</v>
-      </c>
-      <c r="J5" s="17">
-        <v>1542</v>
-      </c>
-      <c r="K5" s="17">
-        <v>1513</v>
-      </c>
-      <c r="L5" s="17">
-        <v>1550</v>
-      </c>
-      <c r="M5" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="B5" s="20">
+        <v>10</v>
+      </c>
+      <c r="C5" s="20">
+        <v>10</v>
+      </c>
+      <c r="D5" s="20">
+        <v>10</v>
+      </c>
+      <c r="E5" s="20">
+        <v>10</v>
+      </c>
+      <c r="F5" s="20">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20">
+        <v>10</v>
+      </c>
+      <c r="H5" s="20">
+        <v>10</v>
+      </c>
+      <c r="I5" s="20">
+        <v>10</v>
+      </c>
+      <c r="J5" s="20">
+        <v>10</v>
+      </c>
+      <c r="K5" s="20">
+        <v>10</v>
+      </c>
+      <c r="L5" s="20">
+        <v>10</v>
+      </c>
       <c r="N5" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" s="19">
-        <v>106.96899999999999</v>
-      </c>
-      <c r="P5" s="19">
-        <v>99.891000000000005</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>107.25</v>
-      </c>
-      <c r="R5" s="19">
-        <v>117.82899999999999</v>
-      </c>
-      <c r="S5" s="19">
-        <v>110.86</v>
-      </c>
-      <c r="T5" s="19">
-        <v>116.562</v>
-      </c>
-      <c r="U5" s="19">
-        <v>113.78100000000001</v>
-      </c>
-      <c r="V5" s="19">
-        <v>109.78100000000001</v>
-      </c>
-      <c r="W5" s="19">
-        <v>108.501</v>
-      </c>
-      <c r="X5" s="19">
-        <v>106.312</v>
-      </c>
-      <c r="AH5" s="20"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="O5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="P5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="R5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="S5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="T5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="U5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="V5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="W5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="X5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>828.94</v>
+      </c>
+      <c r="AA5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>2.9529999999999998</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>2.907</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="AE5" s="19">
+        <v>3.3279999999999998</v>
+      </c>
+      <c r="AF5" s="19">
+        <v>2.8109999999999999</v>
+      </c>
+      <c r="AG5" s="19">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="AH5" s="19">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="AI5" s="19">
+        <v>3.359</v>
+      </c>
+      <c r="AJ5" s="19">
+        <v>3.64</v>
+      </c>
+      <c r="AK5" s="19">
+        <v>3.3119999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="20">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20">
+        <v>3</v>
+      </c>
+      <c r="D6" s="20">
+        <v>3</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3</v>
+      </c>
+      <c r="F6" s="20">
+        <v>3</v>
+      </c>
+      <c r="G6" s="20">
+        <v>3</v>
+      </c>
+      <c r="H6" s="20">
+        <v>3</v>
+      </c>
+      <c r="I6" s="20">
+        <v>3</v>
+      </c>
+      <c r="J6" s="20">
+        <v>3</v>
+      </c>
+      <c r="K6" s="20">
+        <v>3</v>
+      </c>
+      <c r="L6" s="20">
+        <v>3</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="P6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="R6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="S6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="T6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="U6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="V6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="W6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="X6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>21.047000000000001</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>20.155999999999999</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>27.78</v>
+      </c>
+      <c r="AE6" s="19">
+        <v>18.515000000000001</v>
+      </c>
+      <c r="AF6" s="19">
+        <v>25.812000000000001</v>
+      </c>
+      <c r="AG6" s="19">
+        <v>14.202999999999999</v>
+      </c>
+      <c r="AH6" s="19">
+        <v>36.031999999999996</v>
+      </c>
+      <c r="AI6" s="19">
+        <v>31.593</v>
+      </c>
+      <c r="AJ6" s="19">
+        <v>16.234999999999999</v>
+      </c>
+      <c r="AK6" s="19">
+        <v>20.594000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+    </row>
+    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="21">
-        <v>492</v>
-      </c>
-      <c r="C6" s="17">
-        <v>468</v>
-      </c>
-      <c r="D6" s="17">
-        <v>477</v>
-      </c>
-      <c r="E6" s="17">
-        <v>457</v>
-      </c>
-      <c r="F6" s="17">
-        <v>464</v>
-      </c>
-      <c r="G6" s="17">
-        <v>463</v>
-      </c>
-      <c r="H6" s="17">
-        <v>457</v>
-      </c>
-      <c r="I6" s="17">
-        <v>463</v>
-      </c>
-      <c r="J6" s="17">
-        <v>464</v>
-      </c>
-      <c r="K6" s="17">
-        <v>478</v>
-      </c>
-      <c r="L6" s="17">
-        <v>465</v>
-      </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="17" t="s">
+      <c r="B8" s="20"/>
+      <c r="N8" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="19">
-        <v>212.172</v>
-      </c>
-      <c r="P6" s="19">
-        <v>240.09399999999999</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>208.71899999999999</v>
-      </c>
-      <c r="R6" s="19">
-        <v>235.73500000000001</v>
-      </c>
-      <c r="S6" s="19">
-        <v>250.95400000000001</v>
-      </c>
-      <c r="T6" s="19">
-        <v>254.07900000000001</v>
-      </c>
-      <c r="U6" s="19">
-        <v>240.827</v>
-      </c>
-      <c r="V6" s="19">
-        <v>211.81299999999999</v>
-      </c>
-      <c r="W6" s="19">
-        <v>173.15700000000001</v>
-      </c>
-      <c r="X6" s="19">
-        <v>248.01499999999999</v>
-      </c>
-      <c r="AH6" s="20"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="21">
-        <v>1653</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1559</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1544</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1540</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1558</v>
-      </c>
-      <c r="G7" s="17">
-        <v>1538</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1552</v>
-      </c>
-      <c r="I7" s="17">
-        <v>1544</v>
-      </c>
-      <c r="J7" s="17">
-        <v>1545</v>
-      </c>
-      <c r="K7" s="17">
-        <v>1567</v>
-      </c>
-      <c r="L7" s="17">
-        <v>1567</v>
-      </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="19">
-        <v>78.984999999999999</v>
-      </c>
-      <c r="P7" s="19">
-        <v>82.171000000000006</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>79.39</v>
-      </c>
-      <c r="R7" s="19">
-        <v>80.531000000000006</v>
-      </c>
-      <c r="S7" s="19">
-        <v>78.936999999999998</v>
-      </c>
-      <c r="T7" s="19">
-        <v>80.938000000000002</v>
-      </c>
-      <c r="U7" s="19">
-        <v>84.233999999999995</v>
-      </c>
-      <c r="V7" s="19">
-        <v>82.358999999999995</v>
-      </c>
-      <c r="W7" s="19">
-        <v>80.141000000000005</v>
-      </c>
-      <c r="X7" s="19">
-        <v>79.468000000000004</v>
-      </c>
-      <c r="AH7" s="20"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="21">
-        <v>838</v>
-      </c>
-      <c r="C8" s="17">
-        <v>853</v>
-      </c>
-      <c r="D8" s="17">
-        <v>856</v>
-      </c>
-      <c r="E8" s="17">
-        <v>858</v>
-      </c>
-      <c r="F8" s="17">
-        <v>862</v>
-      </c>
-      <c r="G8" s="17">
-        <v>847</v>
-      </c>
-      <c r="H8" s="17">
-        <v>865</v>
-      </c>
-      <c r="I8" s="17">
-        <v>847</v>
-      </c>
-      <c r="J8" s="17">
-        <v>867</v>
-      </c>
-      <c r="K8" s="17">
-        <v>853</v>
-      </c>
-      <c r="L8" s="17">
-        <v>853</v>
-      </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" s="19">
-        <v>106.73399999999999</v>
-      </c>
-      <c r="P8" s="19">
-        <v>112.438</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>116.642</v>
-      </c>
-      <c r="R8" s="19">
-        <v>102.14</v>
-      </c>
-      <c r="S8" s="19">
-        <v>111.532</v>
-      </c>
-      <c r="T8" s="19">
-        <v>114.062</v>
-      </c>
-      <c r="U8" s="19">
-        <v>109.84399999999999</v>
-      </c>
-      <c r="V8" s="19">
-        <v>102.35899999999999</v>
-      </c>
-      <c r="W8" s="19">
-        <v>113.09399999999999</v>
-      </c>
-      <c r="X8" s="19">
-        <v>110.422</v>
-      </c>
-      <c r="AH8" s="20"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="O8" s="20"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+    </row>
+    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="21">
-        <v>2116</v>
-      </c>
-      <c r="C9" s="17">
-        <v>2050</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2059</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2098</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2105</v>
-      </c>
-      <c r="G9" s="17">
-        <v>2048</v>
-      </c>
-      <c r="H9" s="17">
-        <v>2085</v>
-      </c>
-      <c r="I9" s="17">
-        <v>2058</v>
-      </c>
-      <c r="J9" s="17">
-        <v>2125</v>
-      </c>
-      <c r="K9" s="17">
-        <v>2058</v>
-      </c>
-      <c r="L9" s="17">
-        <v>2069</v>
-      </c>
-      <c r="M9" s="19"/>
+        <v>96</v>
+      </c>
+      <c r="B9" s="20">
+        <v>19</v>
+      </c>
+      <c r="C9" s="20">
+        <v>19</v>
+      </c>
+      <c r="D9" s="20">
+        <v>19</v>
+      </c>
+      <c r="E9" s="20">
+        <v>19</v>
+      </c>
+      <c r="F9" s="20">
+        <v>19</v>
+      </c>
+      <c r="G9" s="20">
+        <v>19</v>
+      </c>
+      <c r="H9" s="20">
+        <v>19</v>
+      </c>
+      <c r="I9" s="20">
+        <v>19</v>
+      </c>
+      <c r="J9" s="20">
+        <v>19</v>
+      </c>
+      <c r="K9" s="20">
+        <v>19</v>
+      </c>
+      <c r="L9" s="20">
+        <v>19</v>
+      </c>
       <c r="N9" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="19">
-        <v>45.968000000000004</v>
-      </c>
-      <c r="P9" s="19">
-        <v>45.344000000000001</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>45.734999999999999</v>
-      </c>
-      <c r="R9" s="19">
-        <v>47.14</v>
-      </c>
-      <c r="S9" s="19">
-        <v>44.359000000000002</v>
-      </c>
-      <c r="T9" s="19">
-        <v>47.28</v>
-      </c>
-      <c r="U9" s="19">
-        <v>48.938000000000002</v>
-      </c>
-      <c r="V9" s="19">
-        <v>45.063000000000002</v>
-      </c>
-      <c r="W9" s="19">
-        <v>45.155999999999999</v>
-      </c>
-      <c r="X9" s="19">
-        <v>48.094000000000001</v>
-      </c>
-      <c r="AH9" s="20"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="O9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="P9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="R9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="S9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="T9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="U9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="V9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="W9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="X9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>1650.8</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>29.984000000000002</v>
+      </c>
+      <c r="AC9" s="19">
+        <v>29.64</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>30.515000000000001</v>
+      </c>
+      <c r="AE9" s="19">
+        <v>32.454000000000001</v>
+      </c>
+      <c r="AF9" s="19">
+        <v>30.079000000000001</v>
+      </c>
+      <c r="AG9" s="19">
+        <v>30.047999999999998</v>
+      </c>
+      <c r="AH9" s="19">
+        <v>28.625</v>
+      </c>
+      <c r="AI9" s="19">
+        <v>30.375</v>
+      </c>
+      <c r="AJ9" s="19">
+        <v>30.984999999999999</v>
+      </c>
+      <c r="AK9" s="19">
+        <v>30.530999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="21">
-        <v>772</v>
-      </c>
-      <c r="C10" s="17">
-        <v>718</v>
-      </c>
-      <c r="D10" s="17">
-        <v>718</v>
-      </c>
-      <c r="E10" s="17">
-        <v>718</v>
-      </c>
-      <c r="F10" s="17">
-        <v>719</v>
-      </c>
-      <c r="G10" s="17">
-        <v>719</v>
-      </c>
-      <c r="H10" s="17">
-        <v>720</v>
-      </c>
-      <c r="I10" s="17">
-        <v>721</v>
-      </c>
-      <c r="J10" s="17">
-        <v>719</v>
-      </c>
-      <c r="K10" s="17">
-        <v>729</v>
-      </c>
-      <c r="L10" s="17">
-        <v>720</v>
-      </c>
-      <c r="M10" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="B10" s="20">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4</v>
+      </c>
+      <c r="D10" s="20">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20">
+        <v>4</v>
+      </c>
+      <c r="F10" s="20">
+        <v>4</v>
+      </c>
+      <c r="G10" s="20">
+        <v>4</v>
+      </c>
+      <c r="H10" s="20">
+        <v>4</v>
+      </c>
+      <c r="I10" s="20">
+        <v>4</v>
+      </c>
+      <c r="J10" s="20">
+        <v>4</v>
+      </c>
+      <c r="K10" s="20">
+        <v>4</v>
+      </c>
+      <c r="L10" s="20">
+        <v>4</v>
+      </c>
       <c r="N10" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="19">
-        <v>115.703</v>
-      </c>
-      <c r="P10" s="19">
-        <v>108.64100000000001</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>112.61</v>
-      </c>
-      <c r="R10" s="19">
-        <v>105.73399999999999</v>
-      </c>
-      <c r="S10" s="19">
-        <v>108.687</v>
-      </c>
-      <c r="T10" s="19">
-        <v>107.985</v>
-      </c>
-      <c r="U10" s="19">
-        <v>106.39</v>
-      </c>
-      <c r="V10" s="19">
-        <v>105.047</v>
-      </c>
-      <c r="W10" s="19">
-        <v>107.422</v>
-      </c>
-      <c r="X10" s="19">
-        <v>107.39100000000001</v>
-      </c>
-      <c r="AH10" s="20"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="P10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="R10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="S10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="T10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="U10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="V10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="W10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="X10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>1253.23</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>250.922</v>
+      </c>
+      <c r="AC10" s="19">
+        <v>243.28100000000001</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>252.34399999999999</v>
+      </c>
+      <c r="AE10" s="19">
+        <v>258.56200000000001</v>
+      </c>
+      <c r="AF10" s="19">
+        <v>256.17200000000003</v>
+      </c>
+      <c r="AG10" s="19">
+        <v>243.39</v>
+      </c>
+      <c r="AH10" s="19">
+        <v>256.11</v>
+      </c>
+      <c r="AI10" s="19">
+        <v>256.01600000000002</v>
+      </c>
+      <c r="AJ10" s="19">
+        <v>247.03</v>
+      </c>
+      <c r="AK10" s="19">
+        <v>244.93799999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+    </row>
+    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="N12" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+    </row>
+    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="20">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17">
+        <v>14</v>
+      </c>
+      <c r="E13" s="17">
+        <v>15</v>
+      </c>
+      <c r="F13" s="17">
+        <v>14</v>
+      </c>
+      <c r="G13" s="17">
+        <v>14</v>
+      </c>
+      <c r="H13" s="17">
+        <v>14</v>
+      </c>
+      <c r="I13" s="17">
+        <v>15</v>
+      </c>
+      <c r="J13" s="17">
+        <v>15</v>
+      </c>
+      <c r="K13" s="17">
+        <v>15</v>
+      </c>
+      <c r="L13" s="17">
+        <v>14</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="20">
+        <v>1708.8</v>
+      </c>
+      <c r="P13" s="20">
+        <v>1708.8</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>1708.8</v>
+      </c>
+      <c r="R13" s="20">
+        <v>1703.21</v>
+      </c>
+      <c r="S13" s="20">
+        <v>1708.8</v>
+      </c>
+      <c r="T13" s="20">
+        <v>1708.8</v>
+      </c>
+      <c r="U13" s="20">
+        <v>1708.8</v>
+      </c>
+      <c r="V13" s="20">
+        <v>1703.21</v>
+      </c>
+      <c r="W13" s="20">
+        <v>1703.21</v>
+      </c>
+      <c r="X13" s="20">
+        <v>1703.21</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>1708.8</v>
+      </c>
+      <c r="AA13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB13" s="19">
+        <v>101.78100000000001</v>
+      </c>
+      <c r="AC13" s="19">
+        <v>103.235</v>
+      </c>
+      <c r="AD13" s="19">
+        <v>100.79600000000001</v>
+      </c>
+      <c r="AE13" s="19">
+        <v>103.078</v>
+      </c>
+      <c r="AF13" s="19">
+        <v>104.625</v>
+      </c>
+      <c r="AG13" s="19">
+        <v>104.03100000000001</v>
+      </c>
+      <c r="AH13" s="19">
+        <v>101.063</v>
+      </c>
+      <c r="AI13" s="19">
+        <v>99.516000000000005</v>
+      </c>
+      <c r="AJ13" s="19">
+        <v>102.688</v>
+      </c>
+      <c r="AK13" s="19">
+        <v>105.501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="21">
-        <v>634</v>
-      </c>
-      <c r="C11" s="17">
-        <v>638</v>
-      </c>
-      <c r="D11" s="17">
-        <v>638</v>
-      </c>
-      <c r="E11" s="17">
-        <v>650</v>
-      </c>
-      <c r="F11" s="17">
-        <v>641</v>
-      </c>
-      <c r="G11" s="17">
-        <v>639</v>
-      </c>
-      <c r="H11" s="17">
-        <v>640</v>
-      </c>
-      <c r="I11" s="17">
-        <v>635</v>
-      </c>
-      <c r="J11" s="17">
-        <v>641</v>
-      </c>
-      <c r="K11" s="17">
-        <v>646</v>
-      </c>
-      <c r="L11" s="17">
-        <v>643</v>
-      </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="17" t="s">
+      <c r="B14" s="20">
+        <v>4</v>
+      </c>
+      <c r="C14" s="17">
+        <v>4</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4</v>
+      </c>
+      <c r="E14" s="17">
+        <v>4</v>
+      </c>
+      <c r="F14" s="17">
+        <v>4</v>
+      </c>
+      <c r="G14" s="17">
+        <v>4</v>
+      </c>
+      <c r="H14" s="17">
+        <v>4</v>
+      </c>
+      <c r="I14" s="17">
+        <v>4</v>
+      </c>
+      <c r="J14" s="17">
+        <v>4</v>
+      </c>
+      <c r="K14" s="17">
+        <v>4</v>
+      </c>
+      <c r="L14" s="17">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="O11" s="19">
-        <v>152.26599999999999</v>
-      </c>
-      <c r="P11" s="19">
-        <v>122.95399999999999</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>152.84399999999999</v>
-      </c>
-      <c r="R11" s="19">
-        <v>144.375</v>
-      </c>
-      <c r="S11" s="19">
-        <v>137.672</v>
-      </c>
-      <c r="T11" s="19">
-        <v>131.07900000000001</v>
-      </c>
-      <c r="U11" s="19">
-        <v>127.953</v>
-      </c>
-      <c r="V11" s="19">
-        <v>125.65600000000001</v>
-      </c>
-      <c r="W11" s="19">
-        <v>114.562</v>
-      </c>
-      <c r="X11" s="19">
-        <v>128.96899999999999</v>
-      </c>
-      <c r="AH11" s="20"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="21">
-        <v>1539</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1596</v>
-      </c>
-      <c r="D12" s="17">
-        <v>1644</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1599</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1585</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1585</v>
-      </c>
-      <c r="H12" s="17">
-        <v>1618</v>
-      </c>
-      <c r="I12" s="17">
-        <v>1611</v>
-      </c>
-      <c r="J12" s="17">
-        <v>1598</v>
-      </c>
-      <c r="K12" s="17">
-        <v>1565</v>
-      </c>
-      <c r="L12" s="17">
-        <v>1583</v>
-      </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O12" s="19">
-        <v>44.780999999999999</v>
-      </c>
-      <c r="P12" s="19">
-        <v>43.311999999999998</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>45.328000000000003</v>
-      </c>
-      <c r="R12" s="19">
-        <v>45.686999999999998</v>
-      </c>
-      <c r="S12" s="19">
-        <v>45.969000000000001</v>
-      </c>
-      <c r="T12" s="19">
-        <v>43.594000000000001</v>
-      </c>
-      <c r="U12" s="19">
-        <v>43.484999999999999</v>
-      </c>
-      <c r="V12" s="19">
-        <v>45.375</v>
-      </c>
-      <c r="W12" s="19">
-        <v>45.546999999999997</v>
-      </c>
-      <c r="X12" s="19">
-        <v>43.826999999999998</v>
-      </c>
-      <c r="AH12" s="20"/>
-    </row>
+      <c r="O14" s="20">
+        <v>1406.94</v>
+      </c>
+      <c r="P14" s="20">
+        <v>1406.94</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>1406.94</v>
+      </c>
+      <c r="R14" s="20">
+        <v>1406.94</v>
+      </c>
+      <c r="S14" s="20">
+        <v>1455.54</v>
+      </c>
+      <c r="T14" s="20">
+        <v>1455.54</v>
+      </c>
+      <c r="U14" s="20">
+        <v>1455.54</v>
+      </c>
+      <c r="V14" s="20">
+        <v>1455.54</v>
+      </c>
+      <c r="W14" s="20">
+        <v>1455.54</v>
+      </c>
+      <c r="X14" s="20">
+        <v>1455.54</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>1455.54</v>
+      </c>
+      <c r="AA14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB14" s="19">
+        <v>661.39099999999996</v>
+      </c>
+      <c r="AC14" s="19">
+        <v>651</v>
+      </c>
+      <c r="AD14" s="19">
+        <v>700.98400000000004</v>
+      </c>
+      <c r="AE14" s="19">
+        <v>668.95299999999997</v>
+      </c>
+      <c r="AF14" s="19">
+        <v>686.42200000000003</v>
+      </c>
+      <c r="AG14" s="19">
+        <v>675.18799999999999</v>
+      </c>
+      <c r="AH14" s="19">
+        <v>650.70299999999997</v>
+      </c>
+      <c r="AI14" s="19">
+        <v>653.81200000000001</v>
+      </c>
+      <c r="AJ14" s="19">
+        <v>644.81299999999999</v>
+      </c>
+      <c r="AK14" s="19">
+        <v>671.54700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="O2:X2"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:L2"/>
-    <mergeCell ref="N1:X1"/>
+    <mergeCell ref="AB2:AK2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Y2"/>
+    <mergeCell ref="AA1:AK1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3232,235 +3695,252 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.453125" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
-    <col min="3" max="6" width="10.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="5"/>
+    <col min="3" max="11" width="10.54296875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="37" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="40" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="4">
-        <v>101</v>
-      </c>
-      <c r="C4" s="2">
-        <f>MAX(100, B4) * 50</f>
-        <v>5050</v>
-      </c>
-      <c r="D4" s="6">
-        <f>MIN(data!C4:L4) / data!B4 -1</f>
-        <v>4.098360655737654E-3</v>
-      </c>
-      <c r="E4" s="6">
-        <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>3.0191256830601088E-2</v>
-      </c>
-      <c r="F4" s="6">
-        <f>MAX(data!C4:L4) / data!B4 -1</f>
-        <v>4.9180327868852514E-2</v>
-      </c>
-      <c r="G4" s="7">
-        <f>AVERAGE(data!O4:X4)</f>
-        <v>119.15009999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="4">
-        <v>101</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:C10" si="0">MAX(100, B5) * 50</f>
-        <v>5050</v>
-      </c>
-      <c r="D5" s="6">
-        <f>MIN(data!C5:L5) / data!B5 -1</f>
-        <v>1.9541778975741275E-2</v>
-      </c>
-      <c r="E5" s="6">
-        <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>3.9218328840970429E-2</v>
-      </c>
-      <c r="F5" s="6">
-        <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>5.3908355795148299E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <f>AVERAGE(data!O5:X5)</f>
-        <v>109.77359999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="33"/>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>5050</v>
-      </c>
-      <c r="D6" s="6">
-        <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>-7.1138211382113847E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>-5.365853658536579E-2</v>
-      </c>
-      <c r="F6" s="6">
-        <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>-2.8455284552845517E-2</v>
+        <f>_xlfn.CEILING.MATH(MAX(100, B6) / 100) * 50</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="24">
+        <f>data!B5</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="25">
+        <f>MIN(data!C5:L5)</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="7">
+        <f>AVERAGE(data!C5:L5)</f>
+        <v>10</v>
       </c>
       <c r="G6" s="7">
-        <f>AVERAGE(data!O6:X6)</f>
-        <v>227.5565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <f>MAX(data!C5:L5)</f>
+        <v>10</v>
+      </c>
+      <c r="H6" s="20">
+        <f>data!O5</f>
+        <v>828.94</v>
+      </c>
+      <c r="I6" s="6">
+        <f>_xlfn.MINIFS(data!P5:Y5, data!C5:L5, data!B5) / data!O5 -1</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f>AVERAGEIFS(data!P5:Y5, data!C5:L5, data!B5) / data!O5 -1</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <f>_xlfn.MAXIFS(data!P5:Y5, data!C5:L5, data!B5)  / data!O5 -1</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f>AVERAGE(data!AB5:AK5)</f>
+        <v>3.0700999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4">
         <v>101</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>5050</v>
-      </c>
-      <c r="D7" s="6">
-        <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-6.9570477918935225E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-6.1464004839685393E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>-5.2026618269812475E-2</v>
+        <f>_xlfn.CEILING.MATH(MAX(100, B7) / 100) * 50</f>
+        <v>100</v>
+      </c>
+      <c r="D7" s="24">
+        <f>data!B6</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="25">
+        <f>MIN(data!C6:L6)</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <f>AVERAGE(data!C6:L6)</f>
+        <v>3</v>
       </c>
       <c r="G7" s="7">
-        <f>AVERAGE(data!O7:X7)</f>
-        <v>80.715400000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="4">
-        <v>101</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>5050</v>
-      </c>
-      <c r="D8" s="6">
-        <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>1.0739856801909253E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>2.1599045346062162E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>3.4606205250596656E-2</v>
-      </c>
-      <c r="G8" s="7">
-        <f>AVERAGE(data!O8:X8)</f>
-        <v>109.92670000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="4">
-        <v>101</v>
-      </c>
-      <c r="C9" s="2">
-        <f>MAX(100, B9) * 50</f>
-        <v>5050</v>
-      </c>
-      <c r="D9" s="6">
-        <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>-3.2136105860113395E-2</v>
-      </c>
-      <c r="E9" s="6">
-        <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>-1.9139886578449894E-2</v>
-      </c>
-      <c r="F9" s="6">
-        <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>4.2533081285445196E-3</v>
-      </c>
-      <c r="G9" s="7">
-        <f>AVERAGE(data!O9:X9)</f>
-        <v>46.307699999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <f>MAX(data!C6:L6)</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="20">
+        <f>data!O6</f>
+        <v>591.55999999999995</v>
+      </c>
+      <c r="I7" s="6">
+        <f>_xlfn.MINIFS(data!P6:Y6, data!C6:L6, data!B6) / data!O6 -1</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <f>AVERAGEIFS(data!P6:Y6, data!C6:L6, data!B6) / data!O6 -1</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <f>_xlfn.MAXIFS(data!P6:Y6, data!C6:L6, data!B6)  / data!O6 -1</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f>AVERAGE(data!AB6:AK6)</f>
+        <v>23.1967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="24">
+        <f>data!B7</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>96</v>
       </c>
@@ -3468,202 +3948,271 @@
         <v>101</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>5050</v>
-      </c>
-      <c r="D10" s="6">
-        <f>MIN(data!C10:L10) / data!B10 -1</f>
-        <v>-6.9948186528497436E-2</v>
-      </c>
-      <c r="E10" s="6">
-        <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>-6.7227979274611327E-2</v>
-      </c>
-      <c r="F10" s="6">
-        <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>-5.569948186528495E-2</v>
+        <f>_xlfn.CEILING.MATH(MAX(100, B10) / 5) * 50</f>
+        <v>1050</v>
+      </c>
+      <c r="D10" s="24">
+        <f>data!B9</f>
+        <v>19</v>
+      </c>
+      <c r="E10" s="25">
+        <f>MIN(data!C9:L9)</f>
+        <v>19</v>
+      </c>
+      <c r="F10" s="7">
+        <f>AVERAGE(data!C9:L9)</f>
+        <v>19</v>
       </c>
       <c r="G10" s="7">
-        <f>AVERAGE(data!O10:X10)</f>
-        <v>108.56100000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <f>MAX(data!C9:L9)</f>
+        <v>19</v>
+      </c>
+      <c r="H10" s="20">
+        <f>data!O9</f>
+        <v>1650.8</v>
+      </c>
+      <c r="I10" s="6">
+        <f>_xlfn.MINIFS(data!P9:Y9, data!C9:L9, data!B9) / data!O9 -1</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <f>AVERAGEIFS(data!P9:Y9, data!C9:L9, data!B9) / data!O9 -1</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f>_xlfn.MAXIFS(data!P9:Y9, data!C9:L9, data!B9)  / data!O9 -1</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f>AVERAGE(data!AB9:AK9)</f>
+        <v>30.323600000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="4">
         <v>101</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11" si="1">MAX(100, B11) * 50</f>
-        <v>5050</v>
-      </c>
-      <c r="D11" s="6">
-        <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>1.577287066246047E-3</v>
-      </c>
-      <c r="E11" s="6">
-        <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>1.1198738170347111E-2</v>
-      </c>
-      <c r="F11" s="6">
-        <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>2.5236593059936974E-2</v>
+        <f>_xlfn.CEILING.MATH(MAX(100, B11) / 5) * 50</f>
+        <v>1050</v>
+      </c>
+      <c r="D11" s="24">
+        <f>data!B10</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="25">
+        <f>MIN(data!C10:L10)</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <f>AVERAGE(data!C10:L10)</f>
+        <v>4</v>
       </c>
       <c r="G11" s="7">
-        <f>AVERAGE(data!O11:X11)</f>
-        <v>133.833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="4">
+        <f>MAX(data!C10:L10)</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="20">
+        <f>data!O10</f>
+        <v>1253.23</v>
+      </c>
+      <c r="I11" s="6">
+        <f>_xlfn.MINIFS(data!P10:Y10, data!C10:L10, data!B10) / data!O10 -1</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <f>AVERAGEIFS(data!P10:Y10, data!C10:L10, data!B10) / data!O10 -1</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <f>_xlfn.MAXIFS(data!P10:Y10, data!C10:L10, data!B10)  / data!O10 -1</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f>AVERAGE(data!AB10:AK10)</f>
+        <v>250.87650000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="17"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="4">
         <v>101</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" ref="C12" si="2">MAX(100, B12) * 50</f>
-        <v>5050</v>
-      </c>
-      <c r="D12" s="6">
-        <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>1.6894087069525776E-2</v>
-      </c>
-      <c r="E12" s="6">
-        <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>3.8596491228070295E-2</v>
-      </c>
-      <c r="F12" s="6">
-        <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>6.8226120857699746E-2</v>
-      </c>
-      <c r="G12" s="7">
-        <f>AVERAGE(data!O12:X12)</f>
-        <v>44.6905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="17"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="2">
+        <f>_xlfn.CEILING.MATH(MAX(100, B14) / 5) * 50</f>
+        <v>1050</v>
+      </c>
+      <c r="D14" s="24">
+        <f>data!B13</f>
+        <v>14</v>
+      </c>
+      <c r="E14" s="25">
+        <f>MIN(data!C13:L13)</f>
+        <v>14</v>
+      </c>
+      <c r="F14" s="7">
+        <f>AVERAGE(data!C13:L13)</f>
+        <v>14.4</v>
+      </c>
+      <c r="G14" s="7">
+        <f>MAX(data!C13:L13)</f>
+        <v>15</v>
+      </c>
+      <c r="H14" s="20">
+        <f>data!O13</f>
+        <v>1708.8</v>
+      </c>
+      <c r="I14" s="6">
+        <f>_xlfn.MINIFS(data!P13:Y13, data!C13:L13, data!B13) / data!O13 -1</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <f>AVERAGEIFS(data!P13:Y13, data!C13:L13, data!B13) / data!O13 -1</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <f>_xlfn.MAXIFS(data!P13:Y13, data!C13:L13, data!B13)  / data!O13 -1</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f>AVERAGE(data!AB13:AK13)</f>
+        <v>102.63140000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="4">
+        <v>101</v>
+      </c>
+      <c r="C15" s="2">
+        <f>_xlfn.CEILING.MATH(MAX(100, B15) / 5) * 50</f>
+        <v>1050</v>
+      </c>
+      <c r="D15" s="24">
+        <f>data!B14</f>
+        <v>4</v>
+      </c>
+      <c r="E15" s="25">
+        <f>MIN(data!C14:L14)</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="7">
+        <f>AVERAGE(data!C14:L14)</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="7">
+        <f>MAX(data!C14:L14)</f>
+        <v>4</v>
+      </c>
+      <c r="H15" s="20">
+        <f>data!O14</f>
+        <v>1406.94</v>
+      </c>
+      <c r="I15" s="6">
+        <f>_xlfn.MINIFS(data!P14:Y14, data!C14:L14, data!B14) / data!O14 -1</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <f>AVERAGEIFS(data!P14:Y14, data!C14:L14, data!B14) / data!O14 -1</f>
+        <v>2.4180135613459219E-2</v>
+      </c>
+      <c r="K15" s="6">
+        <f>_xlfn.MAXIFS(data!P14:Y14, data!C14:L14, data!B14)  / data!O14 -1</f>
+        <v>3.4543050876369996E-2</v>
+      </c>
+      <c r="L15" s="7">
+        <f>AVERAGE(data!AB14:AK14)</f>
+        <v>666.48130000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G16" s="6"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="8"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:G3"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E6:E15 F6:F15 G6:G15" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA909DF-EBDC-4D11-8B23-4BDC190E57CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04B95BC-6A3A-4376-A566-2C6249544235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3698,7 +3698,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3911,10 +3911,7 @@
       <c r="A8" s="17"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24">
-        <f>data!B7</f>
-        <v>0</v>
-      </c>
+      <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04B95BC-6A3A-4376-A566-2C6249544235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A709ED-D6E9-4F47-822B-F0F7BD53721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -1088,24 +1088,24 @@
   <dimension ref="A1:O281"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="9" customWidth="1"/>
-    <col min="2" max="11" width="9.1796875" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="18.5703125" style="9" customWidth="1"/>
+    <col min="2" max="11" width="9.140625" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1131,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
@@ -1139,17 +1139,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
@@ -1165,17 +1165,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
@@ -1215,17 +1215,17 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="13"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>93</v>
       </c>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="L40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="L41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="L42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="L43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="L44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="L45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -1845,7 +1845,7 @@
       <c r="L46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>39</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>40</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>41</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>80</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>81</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>90</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>91</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>88</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>42</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>43</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>70</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>106</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>44</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2126,562 +2126,562 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J62" s="15"/>
     </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J65" s="15"/>
     </row>
-    <row r="66" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J66" s="15"/>
     </row>
-    <row r="67" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J67" s="15"/>
     </row>
-    <row r="69" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J69" s="15"/>
     </row>
-    <row r="70" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="15"/>
     </row>
-    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="13"/>
     </row>
-    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="13"/>
     </row>
-    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="13"/>
     </row>
-    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="13"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="13"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="13"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="13"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="13"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="13"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="13"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="13"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="13"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="13"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="13"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="13"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="13"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="13"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="13"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="13"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="13"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="13"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="13"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="13"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="13"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="13"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="13"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="13"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="13"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="13"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="13"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="13"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="13"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="13"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="13"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="13"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="13"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="13"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="13"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="13"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="13"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="13"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="13"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="13"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="13"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="13"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="13"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="13"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="13"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="13"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="13"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="13"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="13"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="13"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="13"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="13"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="13"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="13"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="13"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="13"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="13"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="13"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="13"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="13"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="13"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="13"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="13"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="13"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="13"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="13"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="13"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="13"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="13"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="13"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="13"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="13"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="13"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="13"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="13"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="13"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="13"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="13"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="13"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="13"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="13"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="13"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="13"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="13"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="13"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="13"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="13"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="13"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="13"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="13"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="13"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="13"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="13"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="13"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="13"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="13"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="13"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="13"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="13"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="13"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="13"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="13"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="13"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="13"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="13"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="13"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="13"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="13"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="13"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="13"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="13"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="13"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="13"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="13"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="13"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="13"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="13"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="13"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="13"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="13"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="13"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="13"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="13"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="13"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="13"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="13"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="13"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="13"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="13"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="13"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="13"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="13"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="13"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="13"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="13"/>
     </row>
-    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="13"/>
     </row>
-    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="13"/>
     </row>
-    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="13"/>
     </row>
-    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="13"/>
     </row>
-    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="13"/>
     </row>
-    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="13"/>
     </row>
-    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="13"/>
     </row>
-    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="13"/>
     </row>
-    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="13"/>
     </row>
-    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="13"/>
     </row>
-    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="13"/>
     </row>
-    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="13"/>
     </row>
-    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="13"/>
     </row>
-    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="13"/>
     </row>
-    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="13"/>
     </row>
-    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="13"/>
     </row>
-    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="13"/>
     </row>
-    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="13"/>
     </row>
-    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="13"/>
     </row>
-    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="13"/>
     </row>
-    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="13"/>
     </row>
-    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="13"/>
     </row>
-    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="13"/>
     </row>
-    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="13"/>
     </row>
-    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="13"/>
     </row>
-    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="13"/>
     </row>
-    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="13"/>
     </row>
-    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="13"/>
     </row>
-    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="13"/>
     </row>
-    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="13"/>
     </row>
-    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="13"/>
     </row>
-    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="13"/>
     </row>
-    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="13"/>
     </row>
-    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="13"/>
     </row>
-    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="13"/>
     </row>
-    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="13"/>
     </row>
-    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="13"/>
     </row>
-    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="13"/>
     </row>
   </sheetData>
@@ -2698,23 +2698,23 @@
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD26"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.7265625" style="17"/>
-    <col min="14" max="14" width="17.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="8.7109375" style="17"/>
+    <col min="14" max="14" width="17.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="8.7265625" style="17"/>
-    <col min="27" max="27" width="17.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="37" width="8.54296875" style="17" customWidth="1"/>
-    <col min="38" max="16384" width="8.7265625" style="17"/>
+    <col min="16" max="26" width="8.7109375" style="17"/>
+    <col min="27" max="27" width="17.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="37" width="8.5703125" style="17" customWidth="1"/>
+    <col min="38" max="16384" width="8.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>101</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="AJ1" s="29"/>
       <c r="AK1" s="30"/>
     </row>
-    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="AJ2" s="35"/>
       <c r="AK2" s="36"/>
     </row>
-    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="33"/>
       <c r="C3" s="18">
@@ -2913,7 +2913,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>93</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>94</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3.3119999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>95</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>20.594000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="19"/>
@@ -3162,7 +3162,7 @@
       <c r="AJ7" s="19"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>92</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="AJ8" s="19"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>96</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>30.530999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>97</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>244.93799999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20"/>
       <c r="O11" s="20"/>
       <c r="P11" s="19"/>
@@ -3430,7 +3430,7 @@
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>103</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>98</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>105.501</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>99</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>671.54700000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:L1"/>
@@ -3698,19 +3698,19 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
-    <col min="3" max="11" width="10.54296875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
+    <col min="3" max="11" width="10.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>79</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="K1" s="37"/>
       <c r="L1" s="38"/>
     </row>
-    <row r="2" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
@@ -3778,7 +3778,7 @@
       <c r="K3" s="38"/>
       <c r="L3" s="50"/>
     </row>
-    <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="42"/>
@@ -3804,14 +3804,14 @@
       </c>
       <c r="L4" s="51"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>94</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>3.0700999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>95</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>23.1967</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -3921,7 +3921,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>92</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>96</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>30.323600000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>97</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>250.87650000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -4047,7 +4047,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>103</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>98</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>102.63140000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>99</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>666.48130000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="G16" s="6"/>
@@ -4169,7 +4169,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="G17" s="6"/>
@@ -4179,7 +4179,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D81FC2-2B84-47E9-BD1F-08C3551A0DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B433D6D6-8319-4F4E-B1D5-CA15E80425C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="123">
   <si>
     <t>Instance</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>        x = max(100, problem size)</t>
-  </si>
-  <si>
-    <t>            n   =   x ÷ 64                  ,</t>
   </si>
   <si>
     <t>lc109</t>
@@ -1109,25 +1106,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="9.140625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="18.54296875" style="8" customWidth="1"/>
+    <col min="2" max="9" width="9.1796875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1137,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1153,7 +1150,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1161,17 +1158,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +1176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -1187,17 +1184,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1225,7 +1222,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
@@ -1237,10 +1234,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>91</v>
       </c>
@@ -1257,7 +1254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1266,7 +1263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1281,7 +1278,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -1315,9 +1312,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1332,7 +1329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -1349,7 +1346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1366,7 +1363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1377,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1392,7 @@
       <c r="I26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -1410,7 +1407,7 @@
       <c r="I27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1422,7 @@
       <c r="I28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1437,7 @@
       <c r="I29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -1455,7 +1452,7 @@
       <c r="I30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1470,7 +1467,7 @@
       <c r="I31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
@@ -1485,7 +1482,7 @@
       <c r="I32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -1500,7 +1497,7 @@
       <c r="I33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1515,7 +1512,7 @@
       <c r="I34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1532,7 +1529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1547,7 +1544,7 @@
       <c r="I36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1562,7 +1559,7 @@
       <c r="I37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1577,7 +1574,7 @@
       <c r="I38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -1592,7 +1589,7 @@
       <c r="I39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -1607,7 +1604,7 @@
       <c r="I40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,7 +1619,7 @@
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1639,7 +1636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1654,7 +1651,7 @@
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
@@ -1669,7 +1666,7 @@
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1684,7 +1681,7 @@
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
@@ -1699,7 +1696,7 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -1714,7 +1711,7 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -1729,7 +1726,7 @@
       <c r="I48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -1744,7 +1741,7 @@
       <c r="I49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>39</v>
       </c>
@@ -1761,7 +1758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>40</v>
       </c>
@@ -1778,7 +1775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>41</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>80</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>81</v>
       </c>
@@ -1829,7 +1826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>88</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>89</v>
       </c>
@@ -1863,7 +1860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>101</v>
       </c>
@@ -1880,7 +1877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>42</v>
       </c>
@@ -1897,7 +1894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>43</v>
       </c>
@@ -1913,7 +1910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
         <v>70</v>
       </c>
@@ -1929,15 +1926,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -1945,7 +1942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
         <v>44</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1972,538 +1969,538 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="12"/>
     </row>
-    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="12"/>
     </row>
-    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="12"/>
     </row>
-    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="12"/>
     </row>
-    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="12"/>
     </row>
-    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="12"/>
     </row>
-    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="12"/>
     </row>
-    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="12"/>
     </row>
-    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12"/>
     </row>
-    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="12"/>
     </row>
-    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="12"/>
     </row>
-    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="12"/>
     </row>
-    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="12"/>
     </row>
-    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="12"/>
     </row>
-    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12"/>
     </row>
-    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="12"/>
     </row>
-    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="12"/>
     </row>
-    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="12"/>
     </row>
-    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="12"/>
     </row>
-    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="12"/>
     </row>
-    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="12"/>
     </row>
-    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="12"/>
     </row>
-    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="12"/>
     </row>
-    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="12"/>
     </row>
-    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="12"/>
     </row>
-    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="12"/>
     </row>
-    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="12"/>
     </row>
-    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="12"/>
     </row>
-    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="12"/>
     </row>
-    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="12"/>
     </row>
-    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="12"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="12"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="12"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="12"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="12"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="12"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="12"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="12"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="12"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="12"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="12"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="12"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="12"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="12"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="12"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="12"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="12"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="12"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="12"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="12"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="12"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="12"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="12"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="12"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="12"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="12"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="12"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="12"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="12"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="12"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="12"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="12"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="12"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="12"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="12"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="12"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="12"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="12"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="12"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="12"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="12"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="12"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="12"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="12"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="12"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="12"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="12"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="12"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="12"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="12"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="12"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="12"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="12"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="12"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="12"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="12"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="12"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="12"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="12"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="12"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="12"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="12"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="12"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="12"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="12"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="12"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="12"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="12"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="12"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="12"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="12"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="12"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="12"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="12"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="12"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="12"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="12"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="12"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="12"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="12"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="12"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="12"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="12"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="12"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="12"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="12"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="12"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="12"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="12"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="12"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="12"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="12"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="12"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="12"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="12"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="12"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="12"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="12"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="12"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="12"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="12"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="12"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="12"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="12"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="12"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="12"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="12"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="12"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="12"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="12"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="12"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="12"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="12"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="12"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="12"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="12"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="12"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="12"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="12"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="12"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="12"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="12"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="12"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="12"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="12"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="12"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="12"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="12"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="12"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="12"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="12"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="12"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="12"/>
     </row>
   </sheetData>
@@ -2517,23 +2514,23 @@
   <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.7109375" style="15"/>
-    <col min="14" max="14" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="8.7265625" style="15"/>
+    <col min="14" max="14" width="17.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="8.7109375" style="15"/>
-    <col min="27" max="27" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="37" width="8.5703125" style="15" customWidth="1"/>
-    <col min="38" max="16384" width="8.7109375" style="15"/>
+    <col min="16" max="26" width="8.7265625" style="15"/>
+    <col min="27" max="27" width="17.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="37" width="8.54296875" style="15" customWidth="1"/>
+    <col min="38" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>99</v>
       </c>
@@ -2578,7 +2575,7 @@
       <c r="AJ1" s="25"/>
       <c r="AK1" s="26"/>
     </row>
-    <row r="2" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2630,7 @@
       <c r="AJ2" s="31"/>
       <c r="AK2" s="32"/>
     </row>
-    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26"/>
       <c r="B3" s="29"/>
       <c r="C3" s="16">
@@ -2732,7 +2729,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>91</v>
       </c>
@@ -2743,7 +2740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>92</v>
       </c>
@@ -2850,9 +2847,9 @@
         <v>317.29700000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="15">
         <v>9</v>
@@ -2888,7 +2885,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O6" s="17">
         <v>1035.3499999999999</v>
@@ -2924,7 +2921,7 @@
         <v>1049.26</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB6" s="17">
         <v>326.125</v>
@@ -2957,9 +2954,9 @@
         <v>326.11</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="15">
         <v>9</v>
@@ -2995,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O7" s="17">
         <v>1000.6</v>
@@ -3031,7 +3028,7 @@
         <v>827.81700000000001</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB7" s="17">
         <v>321.18700000000001</v>
@@ -3064,7 +3061,7 @@
         <v>323.73399999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>94</v>
       </c>
@@ -3171,9 +3168,9 @@
         <v>146.96899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="15">
         <v>9</v>
@@ -3209,7 +3206,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O9" s="17">
         <v>1013.39</v>
@@ -3245,7 +3242,7 @@
         <v>1013.39</v>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB9" s="17">
         <v>285.95299999999997</v>
@@ -3278,9 +3275,9 @@
         <v>292.45299999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="15">
         <v>14</v>
@@ -3316,7 +3313,7 @@
         <v>14</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O10" s="17">
         <v>1377.11</v>
@@ -3352,7 +3349,7 @@
         <v>1377.11</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB10" s="17">
         <v>209.73500000000001</v>
@@ -3385,7 +3382,7 @@
         <v>205.077</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
@@ -3492,9 +3489,9 @@
         <v>203.64</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="15">
         <v>11</v>
@@ -3530,7 +3527,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O12" s="17">
         <v>1424.73</v>
@@ -3566,7 +3563,7 @@
         <v>1424.73</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB12" s="17">
         <v>257.68799999999999</v>
@@ -3599,9 +3596,9 @@
         <v>252.84399999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="15">
         <v>10</v>
@@ -3637,7 +3634,7 @@
         <v>10</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O13" s="17">
         <v>1147.43</v>
@@ -3673,7 +3670,7 @@
         <v>1147.43</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB13" s="17">
         <v>264.93799999999999</v>
@@ -3706,7 +3703,7 @@
         <v>271.01600000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -3729,7 +3726,7 @@
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>90</v>
       </c>
@@ -3751,7 +3748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>93</v>
       </c>
@@ -3858,9 +3855,9 @@
         <v>796.65599999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="15">
         <v>3</v>
@@ -3896,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O17" s="17">
         <v>590.6</v>
@@ -3932,7 +3929,7 @@
         <v>638.75599999999997</v>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB17" s="17">
         <v>601.82899999999995</v>
@@ -3965,9 +3962,9 @@
         <v>622.35900000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="15">
         <v>3</v>
@@ -4003,7 +4000,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O18" s="17">
         <v>588.29</v>
@@ -4039,7 +4036,7 @@
         <v>588.28599999999994</v>
       </c>
       <c r="AA18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB18" s="17">
         <v>562.84400000000005</v>
@@ -4072,7 +4069,7 @@
         <v>576.20399999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>95</v>
       </c>
@@ -4179,9 +4176,9 @@
         <v>293.64</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="15">
         <v>3</v>
@@ -4217,7 +4214,7 @@
         <v>4</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O20" s="17">
         <v>1197.67</v>
@@ -4253,7 +4250,7 @@
         <v>1250.0999999999999</v>
       </c>
       <c r="AA20" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB20" s="17">
         <v>363.78199999999998</v>
@@ -4286,9 +4283,9 @@
         <v>343.37400000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="15">
         <v>2</v>
@@ -4324,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O21" s="17">
         <v>734.85</v>
@@ -4360,7 +4357,7 @@
         <v>734.84799999999996</v>
       </c>
       <c r="AA21" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB21" s="17">
         <v>1292.03</v>
@@ -4393,7 +4390,7 @@
         <v>1155.67</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>97</v>
       </c>
@@ -4500,9 +4497,9 @@
         <v>308.53100000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="15">
         <v>3</v>
@@ -4538,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O23" s="17">
         <v>1089.07</v>
@@ -4574,7 +4571,7 @@
         <v>1089.07</v>
       </c>
       <c r="AA23" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB23" s="17">
         <v>469.89</v>
@@ -4607,9 +4604,9 @@
         <v>523.93700000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="15">
         <v>4</v>
@@ -4645,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O24" s="17">
         <v>1302.2</v>
@@ -4681,7 +4678,7 @@
         <v>1302.2</v>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB24" s="17">
         <v>318.5</v>
@@ -4737,21 +4734,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="5" customWidth="1"/>
-    <col min="4" max="11" width="10.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="17.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="5" customWidth="1"/>
+    <col min="4" max="11" width="10.54296875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -4767,7 +4764,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -4793,7 +4790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -4805,7 +4802,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="34"/>
@@ -4819,7 +4816,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="38"/>
@@ -4845,14 +4842,14 @@
       </c>
       <c r="L4" s="47"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>92</v>
       </c>
@@ -4900,9 +4897,9 @@
         <v>318.90769999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="4">
         <v>105</v>
@@ -4948,9 +4945,9 @@
         <v>325.19069999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="5">
         <v>107</v>
@@ -4996,7 +4993,7 @@
         <v>320.81100000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>94</v>
       </c>
@@ -5044,9 +5041,9 @@
         <v>146.33730000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
@@ -5092,9 +5089,9 @@
         <v>287.61110000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="4">
         <v>107</v>
@@ -5140,7 +5137,7 @@
         <v>206.47180000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>96</v>
       </c>
@@ -5188,9 +5185,9 @@
         <v>201.09189999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="4">
         <v>107</v>
@@ -5236,9 +5233,9 @@
         <v>253.21880000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="4">
         <v>105</v>
@@ -5284,7 +5281,7 @@
         <v>272.25670000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -5298,7 +5295,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>90</v>
       </c>
@@ -5313,7 +5310,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>93</v>
       </c>
@@ -5361,9 +5358,9 @@
         <v>791.34990000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5">
         <v>103</v>
@@ -5409,9 +5406,9 @@
         <v>616.74360000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5">
         <v>103</v>
@@ -5457,7 +5454,7 @@
         <v>579.98440000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>95</v>
       </c>
@@ -5505,9 +5502,9 @@
         <v>295.01390000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="5">
         <v>101</v>
@@ -5553,9 +5550,9 @@
         <v>385.49070000000012</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5">
         <v>101</v>
@@ -5601,7 +5598,7 @@
         <v>1228.8130000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>97</v>
       </c>
@@ -5649,9 +5646,9 @@
         <v>307.25010000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5">
         <v>103</v>
@@ -5697,9 +5694,9 @@
         <v>493.09340000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="5">
         <v>103</v>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B433D6D6-8319-4F4E-B1D5-CA15E80425C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EF4890-1D97-41E4-8071-089FD7058C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -1106,25 +1106,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="8" customWidth="1"/>
-    <col min="2" max="9" width="9.1796875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="18.5703125" style="8" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1158,17 +1158,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -1184,17 +1184,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
@@ -1234,10 +1234,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>91</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="I26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="I27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="I28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="I29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="I30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="I31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="I32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="I33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="I34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="I36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="I37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="I38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="I39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="I40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="I48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="I49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>39</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>40</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>41</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>80</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>81</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>88</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>89</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>101</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>42</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>43</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>70</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>112</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>44</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1969,538 +1969,538 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="12"/>
     </row>
-    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="12"/>
     </row>
-    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12"/>
     </row>
-    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="12"/>
     </row>
-    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="12"/>
     </row>
-    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="12"/>
     </row>
-    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="12"/>
     </row>
-    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12"/>
     </row>
-    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="12"/>
     </row>
-    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="12"/>
     </row>
-    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="12"/>
     </row>
-    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="12"/>
     </row>
-    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="12"/>
     </row>
-    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="12"/>
     </row>
-    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="12"/>
     </row>
-    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="12"/>
     </row>
-    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="12"/>
     </row>
-    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="12"/>
     </row>
-    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="12"/>
     </row>
-    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="12"/>
     </row>
-    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="12"/>
     </row>
-    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="12"/>
     </row>
-    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="12"/>
     </row>
-    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="12"/>
     </row>
-    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12"/>
     </row>
-    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="12"/>
     </row>
-    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="12"/>
     </row>
-    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="12"/>
     </row>
-    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="12"/>
     </row>
-    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="12"/>
     </row>
-    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="12"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="12"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="12"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="12"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="12"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="12"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="12"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="12"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="12"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="12"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="12"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="12"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="12"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="12"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="12"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="12"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="12"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="12"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="12"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="12"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="12"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="12"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="12"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="12"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="12"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="12"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="12"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="12"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="12"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="12"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="12"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="12"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="12"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="12"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="12"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="12"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="12"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="12"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="12"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="12"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="12"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="12"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="12"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="12"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="12"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="12"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="12"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="12"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="12"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="12"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="12"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="12"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="12"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="12"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="12"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="12"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="12"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="12"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="12"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="12"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="12"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="12"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="12"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="12"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="12"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="12"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="12"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="12"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="12"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="12"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="12"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="12"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="12"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="12"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="12"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="12"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="12"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="12"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="12"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="12"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="12"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="12"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="12"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="12"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="12"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="12"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="12"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="12"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="12"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="12"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="12"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="12"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="12"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="12"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="12"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="12"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="12"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="12"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="12"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="12"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="12"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="12"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="12"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="12"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="12"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="12"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="12"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="12"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="12"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="12"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="12"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="12"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="12"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="12"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="12"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="12"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="12"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="12"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="12"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="12"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="12"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="12"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="12"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="12"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="12"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="12"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="12"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="12"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="12"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="12"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="12"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="12"/>
     </row>
   </sheetData>
@@ -2514,23 +2514,23 @@
   <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.7265625" style="15"/>
-    <col min="14" max="14" width="17.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="8.7109375" style="15"/>
+    <col min="14" max="14" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="8.7265625" style="15"/>
-    <col min="27" max="27" width="17.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="37" width="8.54296875" style="15" customWidth="1"/>
-    <col min="38" max="16384" width="8.7265625" style="15"/>
+    <col min="16" max="26" width="8.7109375" style="15"/>
+    <col min="27" max="27" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="37" width="8.5703125" style="15" customWidth="1"/>
+    <col min="38" max="16384" width="8.7109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>99</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="AJ1" s="25"/>
       <c r="AK1" s="26"/>
     </row>
-    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="AJ2" s="31"/>
       <c r="AK2" s="32"/>
     </row>
-    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="29"/>
       <c r="C3" s="16">
@@ -2729,7 +2729,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>91</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>92</v>
       </c>
@@ -2817,37 +2817,37 @@
         <v>92</v>
       </c>
       <c r="AB5" s="17">
-        <v>326.01600000000002</v>
+        <v>113.203</v>
       </c>
       <c r="AC5" s="17">
-        <v>323.29599999999999</v>
+        <v>114.765</v>
       </c>
       <c r="AD5" s="17">
-        <v>312.48399999999998</v>
+        <v>118.82899999999999</v>
       </c>
       <c r="AE5" s="17">
-        <v>316.11</v>
+        <v>112.923</v>
       </c>
       <c r="AF5" s="17">
-        <v>322.28100000000001</v>
+        <v>112.999</v>
       </c>
       <c r="AG5" s="17">
-        <v>321</v>
+        <v>113.98399999999999</v>
       </c>
       <c r="AH5" s="17">
-        <v>317.89</v>
+        <v>114.71899999999999</v>
       </c>
       <c r="AI5" s="17">
-        <v>314.45299999999997</v>
+        <v>113.75</v>
       </c>
       <c r="AJ5" s="17">
-        <v>318.25</v>
+        <v>112.39100000000001</v>
       </c>
       <c r="AK5" s="17">
-        <v>317.29700000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112.547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>109</v>
       </c>
@@ -2858,13 +2858,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="15">
         <v>9</v>
       </c>
       <c r="F6" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="15">
         <v>9</v>
@@ -2891,70 +2891,70 @@
         <v>1035.3499999999999</v>
       </c>
       <c r="P6" s="17">
-        <v>1068.68</v>
+        <v>1035.3499999999999</v>
       </c>
       <c r="Q6" s="17">
-        <v>827.86500000000001</v>
+        <v>1055.92</v>
       </c>
       <c r="R6" s="17">
-        <v>1051.49</v>
+        <v>1055.19</v>
       </c>
       <c r="S6" s="17">
-        <v>827.86500000000001</v>
+        <v>1038.3499999999999</v>
       </c>
       <c r="T6" s="17">
-        <v>1068.68</v>
+        <v>1068.28</v>
       </c>
       <c r="U6" s="17">
-        <v>1102.01</v>
+        <v>1068.28</v>
       </c>
       <c r="V6" s="17">
-        <v>1049.26</v>
+        <v>1054.23</v>
       </c>
       <c r="W6" s="17">
-        <v>1101.3</v>
+        <v>1038.3499999999999</v>
       </c>
       <c r="X6" s="17">
-        <v>1068.28</v>
+        <v>1064.46</v>
       </c>
       <c r="Y6" s="17">
-        <v>1049.26</v>
+        <v>1063.83</v>
       </c>
       <c r="AA6" s="15" t="s">
         <v>109</v>
       </c>
       <c r="AB6" s="17">
-        <v>326.125</v>
+        <v>119.25</v>
       </c>
       <c r="AC6" s="17">
-        <v>325.64</v>
+        <v>118.625</v>
       </c>
       <c r="AD6" s="17">
-        <v>340.00099999999998</v>
+        <v>119.125</v>
       </c>
       <c r="AE6" s="17">
-        <v>319.34399999999999</v>
+        <v>118.82899999999999</v>
       </c>
       <c r="AF6" s="17">
-        <v>327.76600000000002</v>
+        <v>117.718</v>
       </c>
       <c r="AG6" s="17">
-        <v>322.65600000000001</v>
+        <v>120.64100000000001</v>
       </c>
       <c r="AH6" s="17">
-        <v>323.375</v>
+        <v>119.75</v>
       </c>
       <c r="AI6" s="17">
-        <v>320.98399999999998</v>
+        <v>118.15600000000001</v>
       </c>
       <c r="AJ6" s="17">
-        <v>319.90600000000001</v>
+        <v>119.203</v>
       </c>
       <c r="AK6" s="17">
-        <v>326.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>116.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>108</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="15">
         <v>10</v>
@@ -2983,7 +2983,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7" s="15">
         <v>10</v>
@@ -2998,7 +2998,7 @@
         <v>1000.6</v>
       </c>
       <c r="P7" s="17">
-        <v>827.81700000000001</v>
+        <v>1019.83</v>
       </c>
       <c r="Q7" s="17">
         <v>827.81700000000001</v>
@@ -3019,7 +3019,7 @@
         <v>827.81700000000001</v>
       </c>
       <c r="W7" s="17">
-        <v>1022.51</v>
+        <v>827.81700000000001</v>
       </c>
       <c r="X7" s="17">
         <v>827.81700000000001</v>
@@ -3031,37 +3031,37 @@
         <v>108</v>
       </c>
       <c r="AB7" s="17">
-        <v>321.18700000000001</v>
+        <v>119.59399999999999</v>
       </c>
       <c r="AC7" s="17">
-        <v>328.68700000000001</v>
+        <v>116.09399999999999</v>
       </c>
       <c r="AD7" s="17">
-        <v>326.48500000000001</v>
+        <v>117.70399999999999</v>
       </c>
       <c r="AE7" s="17">
-        <v>321.392</v>
+        <v>115.95399999999999</v>
       </c>
       <c r="AF7" s="17">
-        <v>308.42099999999999</v>
+        <v>116.703</v>
       </c>
       <c r="AG7" s="17">
-        <v>313.048</v>
+        <v>115.953</v>
       </c>
       <c r="AH7" s="17">
-        <v>319.60899999999998</v>
+        <v>115.90600000000001</v>
       </c>
       <c r="AI7" s="17">
-        <v>325.76499999999999</v>
+        <v>115.843</v>
       </c>
       <c r="AJ7" s="17">
-        <v>319.78199999999998</v>
+        <v>116.126</v>
       </c>
       <c r="AK7" s="17">
-        <v>323.73399999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>116.42100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>94</v>
       </c>
@@ -3138,37 +3138,37 @@
         <v>94</v>
       </c>
       <c r="AB8" s="17">
-        <v>147.703</v>
+        <v>60.561999999999998</v>
       </c>
       <c r="AC8" s="17">
-        <v>147.56200000000001</v>
+        <v>60.344999999999999</v>
       </c>
       <c r="AD8" s="17">
-        <v>145.547</v>
+        <v>60.780999999999999</v>
       </c>
       <c r="AE8" s="17">
-        <v>147.71799999999999</v>
+        <v>60.594000000000001</v>
       </c>
       <c r="AF8" s="17">
-        <v>146.48400000000001</v>
+        <v>59.875999999999998</v>
       </c>
       <c r="AG8" s="17">
-        <v>144.53100000000001</v>
+        <v>59.296999999999997</v>
       </c>
       <c r="AH8" s="17">
-        <v>146.797</v>
+        <v>59.576999999999998</v>
       </c>
       <c r="AI8" s="17">
-        <v>145.96799999999999</v>
+        <v>60.093000000000004</v>
       </c>
       <c r="AJ8" s="17">
-        <v>144.09399999999999</v>
+        <v>59.984000000000002</v>
       </c>
       <c r="AK8" s="17">
-        <v>146.96899999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60.171999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>110</v>
       </c>
@@ -3188,19 +3188,19 @@
         <v>9</v>
       </c>
       <c r="G9" s="15">
+        <v>9</v>
+      </c>
+      <c r="H9" s="15">
         <v>10</v>
       </c>
-      <c r="H9" s="15">
-        <v>9</v>
-      </c>
       <c r="I9" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="15">
         <v>9</v>
       </c>
       <c r="K9" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9" s="15">
         <v>9</v>
@@ -3212,70 +3212,70 @@
         <v>1013.39</v>
       </c>
       <c r="P9" s="17">
-        <v>1016.93</v>
+        <v>1013.39</v>
       </c>
       <c r="Q9" s="17">
-        <v>1013.39</v>
+        <v>1013.99</v>
       </c>
       <c r="R9" s="17">
-        <v>1013.39</v>
+        <v>1013.99</v>
       </c>
       <c r="S9" s="17">
         <v>1013.39</v>
       </c>
       <c r="T9" s="17">
-        <v>1030</v>
+        <v>1013.99</v>
       </c>
       <c r="U9" s="17">
+        <v>1042.73</v>
+      </c>
+      <c r="V9" s="17">
+        <v>1045.99</v>
+      </c>
+      <c r="W9" s="17">
+        <v>1013.99</v>
+      </c>
+      <c r="X9" s="17">
         <v>1013.39</v>
       </c>
-      <c r="V9" s="17">
-        <v>1013.39</v>
-      </c>
-      <c r="W9" s="17">
-        <v>1013.39</v>
-      </c>
-      <c r="X9" s="17">
-        <v>1030.5999999999999</v>
-      </c>
       <c r="Y9" s="17">
-        <v>1013.39</v>
+        <v>1013.99</v>
       </c>
       <c r="AA9" s="15" t="s">
         <v>110</v>
       </c>
       <c r="AB9" s="17">
-        <v>285.95299999999997</v>
+        <v>110.46899999999999</v>
       </c>
       <c r="AC9" s="17">
-        <v>279.04700000000003</v>
+        <v>108.282</v>
       </c>
       <c r="AD9" s="17">
-        <v>293.89100000000002</v>
+        <v>106.593</v>
       </c>
       <c r="AE9" s="17">
-        <v>294.43799999999999</v>
+        <v>111.86</v>
       </c>
       <c r="AF9" s="17">
-        <v>283.25</v>
+        <v>110.03100000000001</v>
       </c>
       <c r="AG9" s="17">
-        <v>290.125</v>
+        <v>106.124</v>
       </c>
       <c r="AH9" s="17">
-        <v>289.67200000000003</v>
+        <v>104.438</v>
       </c>
       <c r="AI9" s="17">
-        <v>290.65600000000001</v>
+        <v>111.46899999999999</v>
       </c>
       <c r="AJ9" s="17">
-        <v>276.62599999999998</v>
+        <v>111.125</v>
       </c>
       <c r="AK9" s="17">
-        <v>292.45299999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>107.235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>120</v>
       </c>
@@ -3352,37 +3352,37 @@
         <v>120</v>
       </c>
       <c r="AB10" s="17">
-        <v>209.73500000000001</v>
+        <v>78.953000000000003</v>
       </c>
       <c r="AC10" s="17">
-        <v>206.203</v>
+        <v>79.296000000000006</v>
       </c>
       <c r="AD10" s="17">
-        <v>204.875</v>
+        <v>78.843000000000004</v>
       </c>
       <c r="AE10" s="17">
-        <v>201.40600000000001</v>
+        <v>78.766000000000005</v>
       </c>
       <c r="AF10" s="17">
-        <v>208.11</v>
+        <v>79.843999999999994</v>
       </c>
       <c r="AG10" s="17">
-        <v>207.155</v>
+        <v>78.546999999999997</v>
       </c>
       <c r="AH10" s="17">
-        <v>209.46899999999999</v>
+        <v>78.626000000000005</v>
       </c>
       <c r="AI10" s="17">
-        <v>209.01599999999999</v>
+        <v>78.123999999999995</v>
       </c>
       <c r="AJ10" s="17">
-        <v>203.672</v>
+        <v>78.468999999999994</v>
       </c>
       <c r="AK10" s="17">
-        <v>205.077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78.234999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
@@ -3459,37 +3459,37 @@
         <v>96</v>
       </c>
       <c r="AB11" s="17">
-        <v>201.43700000000001</v>
+        <v>76.983999999999995</v>
       </c>
       <c r="AC11" s="17">
-        <v>204.09399999999999</v>
+        <v>76.578000000000003</v>
       </c>
       <c r="AD11" s="17">
-        <v>195.499</v>
+        <v>77.046999999999997</v>
       </c>
       <c r="AE11" s="17">
-        <v>202.703</v>
+        <v>77.186999999999998</v>
       </c>
       <c r="AF11" s="17">
-        <v>196.09399999999999</v>
+        <v>77.406000000000006</v>
       </c>
       <c r="AG11" s="17">
-        <v>201.15600000000001</v>
+        <v>77.765000000000001</v>
       </c>
       <c r="AH11" s="17">
-        <v>203.922</v>
+        <v>76.36</v>
       </c>
       <c r="AI11" s="17">
-        <v>202</v>
+        <v>76.266000000000005</v>
       </c>
       <c r="AJ11" s="17">
-        <v>200.374</v>
+        <v>76.781000000000006</v>
       </c>
       <c r="AK11" s="17">
-        <v>203.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>113</v>
       </c>
@@ -3566,37 +3566,37 @@
         <v>113</v>
       </c>
       <c r="AB12" s="17">
-        <v>257.68799999999999</v>
+        <v>90.873999999999995</v>
       </c>
       <c r="AC12" s="17">
-        <v>252.173</v>
+        <v>94.22</v>
       </c>
       <c r="AD12" s="17">
-        <v>253.93700000000001</v>
+        <v>94.203000000000003</v>
       </c>
       <c r="AE12" s="17">
-        <v>253.28100000000001</v>
+        <v>94.234999999999999</v>
       </c>
       <c r="AF12" s="17">
-        <v>251.48400000000001</v>
+        <v>92.718000000000004</v>
       </c>
       <c r="AG12" s="17">
-        <v>251.90600000000001</v>
+        <v>94.125</v>
       </c>
       <c r="AH12" s="17">
-        <v>246.01599999999999</v>
+        <v>92.343999999999994</v>
       </c>
       <c r="AI12" s="17">
-        <v>255.422</v>
+        <v>93.234999999999999</v>
       </c>
       <c r="AJ12" s="17">
-        <v>257.43700000000001</v>
+        <v>90.953000000000003</v>
       </c>
       <c r="AK12" s="17">
-        <v>252.84399999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>94.421999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>111</v>
       </c>
@@ -3604,34 +3604,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="15">
         <v>10</v>
       </c>
       <c r="E13" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="15">
         <v>10</v>
       </c>
       <c r="G13" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="15">
         <v>10</v>
       </c>
       <c r="K13" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N13" s="15" t="s">
         <v>111</v>
@@ -3640,70 +3640,70 @@
         <v>1147.43</v>
       </c>
       <c r="P13" s="17">
-        <v>1175.6500000000001</v>
+        <v>1147.43</v>
       </c>
       <c r="Q13" s="17">
         <v>1147.43</v>
       </c>
       <c r="R13" s="17">
-        <v>1147.43</v>
+        <v>1177.1199999999999</v>
       </c>
       <c r="S13" s="17">
         <v>1147.43</v>
       </c>
       <c r="T13" s="17">
-        <v>1147.43</v>
+        <v>1177.8</v>
       </c>
       <c r="U13" s="17">
-        <v>1147.43</v>
+        <v>1177.8</v>
       </c>
       <c r="V13" s="17">
-        <v>1147.43</v>
+        <v>1176.71</v>
       </c>
       <c r="W13" s="17">
         <v>1147.43</v>
       </c>
       <c r="X13" s="17">
-        <v>1147.43</v>
+        <v>1175.6500000000001</v>
       </c>
       <c r="Y13" s="17">
-        <v>1147.43</v>
+        <v>1175.6500000000001</v>
       </c>
       <c r="AA13" s="15" t="s">
         <v>111</v>
       </c>
       <c r="AB13" s="17">
-        <v>264.93799999999999</v>
+        <v>99.296000000000006</v>
       </c>
       <c r="AC13" s="17">
-        <v>280.45400000000001</v>
+        <v>97.561999999999998</v>
       </c>
       <c r="AD13" s="17">
-        <v>271.79700000000003</v>
+        <v>93.656999999999996</v>
       </c>
       <c r="AE13" s="17">
-        <v>276.36</v>
+        <v>96.891000000000005</v>
       </c>
       <c r="AF13" s="17">
-        <v>267.625</v>
+        <v>93</v>
       </c>
       <c r="AG13" s="17">
-        <v>273.39100000000002</v>
+        <v>93.313000000000002</v>
       </c>
       <c r="AH13" s="17">
-        <v>270.82900000000001</v>
+        <v>92.593999999999994</v>
       </c>
       <c r="AI13" s="17">
-        <v>271.62599999999998</v>
+        <v>93.281000000000006</v>
       </c>
       <c r="AJ13" s="17">
-        <v>274.53100000000001</v>
+        <v>92.626000000000005</v>
       </c>
       <c r="AK13" s="17">
-        <v>271.01600000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92.483999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -3726,7 +3726,7 @@
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>90</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>93</v>
       </c>
@@ -3825,37 +3825,37 @@
         <v>93</v>
       </c>
       <c r="AB16" s="17">
-        <v>735.48400000000004</v>
+        <v>205.06200000000001</v>
       </c>
       <c r="AC16" s="17">
-        <v>797.18600000000004</v>
+        <v>205.90600000000001</v>
       </c>
       <c r="AD16" s="17">
-        <v>804.34400000000005</v>
+        <v>198.875</v>
       </c>
       <c r="AE16" s="17">
-        <v>769.34299999999996</v>
+        <v>204.40700000000001</v>
       </c>
       <c r="AF16" s="17">
-        <v>790.81299999999999</v>
+        <v>206.59299999999999</v>
       </c>
       <c r="AG16" s="17">
-        <v>817.34400000000005</v>
+        <v>207.499</v>
       </c>
       <c r="AH16" s="17">
-        <v>782.23400000000004</v>
+        <v>206.34399999999999</v>
       </c>
       <c r="AI16" s="17">
-        <v>842.45299999999997</v>
+        <v>204.5</v>
       </c>
       <c r="AJ16" s="17">
-        <v>777.64200000000005</v>
+        <v>210.43700000000001</v>
       </c>
       <c r="AK16" s="17">
-        <v>796.65599999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>201.59299999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>118</v>
       </c>
@@ -3899,22 +3899,22 @@
         <v>590.6</v>
       </c>
       <c r="P17" s="17">
-        <v>638.75599999999997</v>
+        <v>591.173</v>
       </c>
       <c r="Q17" s="17">
-        <v>638.18100000000004</v>
+        <v>591.173</v>
       </c>
       <c r="R17" s="17">
-        <v>638.75599999999997</v>
+        <v>590.59900000000005</v>
       </c>
       <c r="S17" s="17">
-        <v>638.75599999999997</v>
+        <v>591.173</v>
       </c>
       <c r="T17" s="17">
         <v>591.173</v>
       </c>
       <c r="U17" s="17">
-        <v>638.75599999999997</v>
+        <v>590.59900000000005</v>
       </c>
       <c r="V17" s="17">
         <v>638.18100000000004</v>
@@ -3926,43 +3926,43 @@
         <v>591.173</v>
       </c>
       <c r="Y17" s="17">
-        <v>638.75599999999997</v>
+        <v>590.59900000000005</v>
       </c>
       <c r="AA17" s="15" t="s">
         <v>118</v>
       </c>
       <c r="AB17" s="17">
-        <v>601.82899999999995</v>
+        <v>203.23500000000001</v>
       </c>
       <c r="AC17" s="17">
-        <v>615.42100000000005</v>
+        <v>192.84399999999999</v>
       </c>
       <c r="AD17" s="17">
-        <v>629.76499999999999</v>
+        <v>197.93700000000001</v>
       </c>
       <c r="AE17" s="17">
-        <v>613.96799999999996</v>
+        <v>197.84399999999999</v>
       </c>
       <c r="AF17" s="17">
-        <v>624.23500000000001</v>
+        <v>203.96899999999999</v>
       </c>
       <c r="AG17" s="17">
-        <v>619.89</v>
+        <v>197.23400000000001</v>
       </c>
       <c r="AH17" s="17">
-        <v>575.56299999999999</v>
+        <v>198.46899999999999</v>
       </c>
       <c r="AI17" s="17">
-        <v>604.29700000000003</v>
+        <v>194.48500000000001</v>
       </c>
       <c r="AJ17" s="17">
-        <v>660.10900000000004</v>
+        <v>201.81200000000001</v>
       </c>
       <c r="AK17" s="17">
-        <v>622.35900000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+        <v>199.047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>117</v>
       </c>
@@ -4039,37 +4039,37 @@
         <v>117</v>
       </c>
       <c r="AB18" s="17">
-        <v>562.84400000000005</v>
+        <v>203.10900000000001</v>
       </c>
       <c r="AC18" s="17">
-        <v>557.78099999999995</v>
+        <v>194.64099999999999</v>
       </c>
       <c r="AD18" s="17">
-        <v>572.29700000000003</v>
+        <v>199.10900000000001</v>
       </c>
       <c r="AE18" s="17">
-        <v>639.95299999999997</v>
+        <v>199.126</v>
       </c>
       <c r="AF18" s="17">
-        <v>551.23500000000001</v>
+        <v>200.18899999999999</v>
       </c>
       <c r="AG18" s="17">
-        <v>578.61</v>
+        <v>203.047</v>
       </c>
       <c r="AH18" s="17">
-        <v>597.17100000000005</v>
+        <v>197.125</v>
       </c>
       <c r="AI18" s="17">
-        <v>601.10900000000004</v>
+        <v>194.57900000000001</v>
       </c>
       <c r="AJ18" s="17">
-        <v>562.64</v>
+        <v>195.56200000000001</v>
       </c>
       <c r="AK18" s="17">
-        <v>576.20399999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>203.78200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>95</v>
       </c>
@@ -4146,37 +4146,37 @@
         <v>95</v>
       </c>
       <c r="AB19" s="17">
-        <v>294.31099999999998</v>
+        <v>115.813</v>
       </c>
       <c r="AC19" s="17">
-        <v>303.17099999999999</v>
+        <v>115.90600000000001</v>
       </c>
       <c r="AD19" s="17">
-        <v>308.64100000000002</v>
+        <v>117.828</v>
       </c>
       <c r="AE19" s="17">
-        <v>291.017</v>
+        <v>110.876</v>
       </c>
       <c r="AF19" s="17">
-        <v>305.43700000000001</v>
+        <v>116.437</v>
       </c>
       <c r="AG19" s="17">
-        <v>280.15600000000001</v>
+        <v>107.5</v>
       </c>
       <c r="AH19" s="17">
-        <v>290.98500000000001</v>
+        <v>118.89</v>
       </c>
       <c r="AI19" s="17">
-        <v>290.01600000000002</v>
+        <v>117.126</v>
       </c>
       <c r="AJ19" s="17">
-        <v>292.76499999999999</v>
+        <v>118.34399999999999</v>
       </c>
       <c r="AK19" s="17">
-        <v>293.64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+        <v>114.34399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>115</v>
       </c>
@@ -4190,22 +4190,22 @@
         <v>4</v>
       </c>
       <c r="E20" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="15">
         <v>3</v>
       </c>
       <c r="G20" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="15">
         <v>3</v>
       </c>
       <c r="J20" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" s="15">
         <v>3</v>
@@ -4220,70 +4220,70 @@
         <v>1197.67</v>
       </c>
       <c r="P20" s="17">
-        <v>1262.44</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="Q20" s="17">
-        <v>1251.1400000000001</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="R20" s="17">
-        <v>1197.67</v>
+        <v>1250.0899999999999</v>
       </c>
       <c r="S20" s="17">
         <v>1197.67</v>
       </c>
       <c r="T20" s="17">
-        <v>1253.0999999999999</v>
+        <v>1197.67</v>
       </c>
       <c r="U20" s="17">
-        <v>1250.0999999999999</v>
+        <v>1197.67</v>
       </c>
       <c r="V20" s="17">
         <v>1197.67</v>
       </c>
       <c r="W20" s="17">
-        <v>1250.0999999999999</v>
+        <v>1197.67</v>
       </c>
       <c r="X20" s="17">
         <v>1197.67</v>
       </c>
       <c r="Y20" s="17">
-        <v>1250.0999999999999</v>
+        <v>1250.0899999999999</v>
       </c>
       <c r="AA20" s="15" t="s">
         <v>115</v>
       </c>
       <c r="AB20" s="17">
-        <v>363.78199999999998</v>
+        <v>143.047</v>
       </c>
       <c r="AC20" s="17">
-        <v>370.21800000000002</v>
+        <v>137.374</v>
       </c>
       <c r="AD20" s="17">
-        <v>375.71800000000002</v>
+        <v>141.43700000000001</v>
       </c>
       <c r="AE20" s="17">
-        <v>490.21899999999999</v>
+        <v>187.578</v>
       </c>
       <c r="AF20" s="17">
-        <v>348.71899999999999</v>
+        <v>163.578</v>
       </c>
       <c r="AG20" s="17">
-        <v>347.48399999999998</v>
+        <v>155.422</v>
       </c>
       <c r="AH20" s="17">
-        <v>387.59500000000003</v>
+        <v>188.15600000000001</v>
       </c>
       <c r="AI20" s="17">
-        <v>366.15699999999998</v>
+        <v>152.56299999999999</v>
       </c>
       <c r="AJ20" s="17">
-        <v>461.64100000000002</v>
+        <v>173.625</v>
       </c>
       <c r="AK20" s="17">
-        <v>343.37400000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+        <v>138.328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>116</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>734.85</v>
       </c>
       <c r="P21" s="17">
-        <v>739.298</v>
+        <v>734.84799999999996</v>
       </c>
       <c r="Q21" s="17">
         <v>734.84799999999996</v>
@@ -4342,7 +4342,7 @@
         <v>734.84799999999996</v>
       </c>
       <c r="U21" s="17">
-        <v>734.84799999999996</v>
+        <v>738.86699999999996</v>
       </c>
       <c r="V21" s="17">
         <v>734.84799999999996</v>
@@ -4351,7 +4351,7 @@
         <v>734.84799999999996</v>
       </c>
       <c r="X21" s="17">
-        <v>743.40099999999995</v>
+        <v>738.86699999999996</v>
       </c>
       <c r="Y21" s="17">
         <v>734.84799999999996</v>
@@ -4360,37 +4360,37 @@
         <v>116</v>
       </c>
       <c r="AB21" s="17">
-        <v>1292.03</v>
+        <v>516.68799999999999</v>
       </c>
       <c r="AC21" s="17">
-        <v>1153.3599999999999</v>
+        <v>465.78100000000001</v>
       </c>
       <c r="AD21" s="17">
-        <v>1163.3900000000001</v>
+        <v>487.64</v>
       </c>
       <c r="AE21" s="17">
-        <v>1344.12</v>
+        <v>470.29700000000003</v>
       </c>
       <c r="AF21" s="17">
-        <v>1202.3399999999999</v>
+        <v>507.89</v>
       </c>
       <c r="AG21" s="17">
-        <v>1191.3900000000001</v>
+        <v>520.82799999999997</v>
       </c>
       <c r="AH21" s="17">
-        <v>1279.8900000000001</v>
+        <v>497.733</v>
       </c>
       <c r="AI21" s="17">
-        <v>1224.69</v>
+        <v>475.07799999999997</v>
       </c>
       <c r="AJ21" s="17">
-        <v>1281.25</v>
+        <v>500.51499999999999</v>
       </c>
       <c r="AK21" s="17">
-        <v>1155.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>521.68700000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>97</v>
       </c>
@@ -4434,70 +4434,70 @@
         <v>1406.94</v>
       </c>
       <c r="P22" s="17">
+        <v>1455.54</v>
+      </c>
+      <c r="Q22" s="17">
         <v>1406.94</v>
       </c>
-      <c r="Q22" s="17">
-        <v>1455.54</v>
-      </c>
       <c r="R22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="S22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="T22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="U22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="V22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="W22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="X22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="Y22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="AA22" s="15" t="s">
         <v>97</v>
       </c>
       <c r="AB22" s="17">
-        <v>293.31299999999999</v>
+        <v>108.578</v>
       </c>
       <c r="AC22" s="17">
-        <v>297.42200000000003</v>
+        <v>110.79600000000001</v>
       </c>
       <c r="AD22" s="17">
-        <v>309.73500000000001</v>
+        <v>104.40600000000001</v>
       </c>
       <c r="AE22" s="17">
-        <v>296.89100000000002</v>
+        <v>114.59399999999999</v>
       </c>
       <c r="AF22" s="17">
-        <v>321</v>
+        <v>119.078</v>
       </c>
       <c r="AG22" s="17">
-        <v>308.5</v>
+        <v>107.203</v>
       </c>
       <c r="AH22" s="17">
-        <v>311.93700000000001</v>
+        <v>106.126</v>
       </c>
       <c r="AI22" s="17">
-        <v>318.15699999999998</v>
+        <v>105.09399999999999</v>
       </c>
       <c r="AJ22" s="17">
-        <v>307.01499999999999</v>
+        <v>113.703</v>
       </c>
       <c r="AK22" s="17">
-        <v>308.53100000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+        <v>108.235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>114</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="15">
         <v>3</v>
@@ -4547,7 +4547,7 @@
         <v>1089.07</v>
       </c>
       <c r="R23" s="17">
-        <v>1089.07</v>
+        <v>1118.7</v>
       </c>
       <c r="S23" s="17">
         <v>1089.07</v>
@@ -4574,37 +4574,37 @@
         <v>114</v>
       </c>
       <c r="AB23" s="17">
-        <v>469.89</v>
+        <v>192.047</v>
       </c>
       <c r="AC23" s="17">
-        <v>476.84399999999999</v>
+        <v>211.047</v>
       </c>
       <c r="AD23" s="17">
-        <v>519.56299999999999</v>
+        <v>205.875</v>
       </c>
       <c r="AE23" s="17">
-        <v>502.17099999999999</v>
+        <v>200.76499999999999</v>
       </c>
       <c r="AF23" s="17">
-        <v>502.23399999999998</v>
+        <v>196.75</v>
       </c>
       <c r="AG23" s="17">
-        <v>483.327</v>
+        <v>192.09399999999999</v>
       </c>
       <c r="AH23" s="17">
-        <v>484.40600000000001</v>
+        <v>200.749</v>
       </c>
       <c r="AI23" s="17">
-        <v>502.71899999999999</v>
+        <v>186.43799999999999</v>
       </c>
       <c r="AJ23" s="17">
-        <v>465.84300000000002</v>
+        <v>211.15600000000001</v>
       </c>
       <c r="AK23" s="17">
-        <v>523.93700000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+        <v>196.68799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>119</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>1302.2</v>
       </c>
       <c r="U24" s="17">
-        <v>1302.2</v>
+        <v>1379.85</v>
       </c>
       <c r="V24" s="17">
         <v>1302.2</v>
@@ -4681,34 +4681,34 @@
         <v>119</v>
       </c>
       <c r="AB24" s="17">
-        <v>318.5</v>
+        <v>116.124</v>
       </c>
       <c r="AC24" s="17">
-        <v>307.32799999999997</v>
+        <v>112.188</v>
       </c>
       <c r="AD24" s="17">
-        <v>308.79700000000003</v>
+        <v>114.687</v>
       </c>
       <c r="AE24" s="17">
-        <v>292.50099999999998</v>
+        <v>115.563</v>
       </c>
       <c r="AF24" s="17">
-        <v>305.17200000000003</v>
+        <v>111.813</v>
       </c>
       <c r="AG24" s="17">
-        <v>301.89100000000002</v>
+        <v>112.17100000000001</v>
       </c>
       <c r="AH24" s="17">
-        <v>301.25</v>
+        <v>113.46899999999999</v>
       </c>
       <c r="AI24" s="17">
-        <v>303.86</v>
+        <v>107.45399999999999</v>
       </c>
       <c r="AJ24" s="17">
-        <v>305.78100000000001</v>
+        <v>115.53100000000001</v>
       </c>
       <c r="AK24" s="17">
-        <v>287.37400000000002</v>
+        <v>114.23399999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4734,21 +4734,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="5" customWidth="1"/>
-    <col min="4" max="11" width="10.54296875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="5" customWidth="1"/>
+    <col min="4" max="11" width="10.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="38"/>
@@ -4842,14 +4842,14 @@
       </c>
       <c r="L4" s="47"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>92</v>
       </c>
@@ -4860,7 +4860,7 @@
         <f>INT(MAX(B6, 100) / 1) * 50</f>
         <v>5350</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="2">
         <f>data!B5</f>
         <v>10</v>
       </c>
@@ -4894,10 +4894,10 @@
       </c>
       <c r="L6" s="7">
         <f>AVERAGE(data!AB5:AK5)</f>
-        <v>318.90769999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>114.01100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>109</v>
       </c>
@@ -4908,7 +4908,7 @@
         <f t="shared" ref="C7:C14" si="0">INT(MAX(B7, 100) / 1) * 50</f>
         <v>5250</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="2">
         <f>data!B6</f>
         <v>9</v>
       </c>
@@ -4918,11 +4918,11 @@
       </c>
       <c r="F7" s="7">
         <f>AVERAGE(data!C6:L6) - data!B6</f>
-        <v>0.19999999999999929</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <f>MAX(data!C6:L6) - data!B6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="22">
         <f>data!O6</f>
@@ -4930,22 +4930,22 @@
       </c>
       <c r="I7" s="6">
         <f>_xlfn.MINIFS(data!P6:Y6, data!C6:L6, data!B6) / data!O6 -1</f>
-        <v>1.3435070266093696E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="6">
         <f>AVERAGEIFS(data!P6:Y6, data!C6:L6, data!B6) / data!O6 -1</f>
-        <v>3.3341382141305109E-2</v>
+        <v>1.8229584198580229E-2</v>
       </c>
       <c r="K7" s="6">
         <f>_xlfn.MAXIFS(data!P6:Y6, data!C6:L6, data!B6)  / data!O6 -1</f>
-        <v>6.4384024725938183E-2</v>
+        <v>3.1805669580335261E-2</v>
       </c>
       <c r="L7" s="7">
         <f>AVERAGE(data!AB6:AK6)</f>
-        <v>325.19069999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>118.79370000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>108</v>
       </c>
@@ -4956,7 +4956,7 @@
         <f t="shared" si="0"/>
         <v>5350</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="2">
         <f>data!B7</f>
         <v>9</v>
       </c>
@@ -4978,22 +4978,22 @@
       </c>
       <c r="I8" s="6">
         <f>_xlfn.MINIFS(data!P7:Y7, data!C7:L7, data!B7) / data!O7 -1</f>
-        <v>2.1896861882870322E-2</v>
+        <v>1.9218468918648757E-2</v>
       </c>
       <c r="J8" s="6">
         <f>AVERAGEIFS(data!P7:Y7, data!C7:L7, data!B7) / data!O7 -1</f>
-        <v>2.1896861882870322E-2</v>
+        <v>1.9218468918648757E-2</v>
       </c>
       <c r="K8" s="6">
         <f>_xlfn.MAXIFS(data!P7:Y7, data!C7:L7, data!B7)  / data!O7 -1</f>
-        <v>2.1896861882870322E-2</v>
+        <v>1.9218468918648757E-2</v>
       </c>
       <c r="L8" s="7">
         <f>AVERAGE(data!AB7:AK7)</f>
-        <v>320.81100000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>116.6298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>94</v>
       </c>
@@ -5004,7 +5004,7 @@
         <f t="shared" si="0"/>
         <v>5350</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="2">
         <f>data!B8</f>
         <v>19</v>
       </c>
@@ -5038,10 +5038,10 @@
       </c>
       <c r="L9" s="7">
         <f>AVERAGE(data!AB8:AK8)</f>
-        <v>146.33730000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>60.128099999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>110</v>
       </c>
@@ -5052,7 +5052,7 @@
         <f t="shared" si="0"/>
         <v>5250</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="2">
         <f>data!B9</f>
         <v>9</v>
       </c>
@@ -5078,18 +5078,18 @@
       </c>
       <c r="J10" s="6">
         <f>AVERAGEIFS(data!P9:Y9, data!C9:L9, data!B9) / data!O9 -1</f>
-        <v>4.3665321347163832E-4</v>
+        <v>3.7004509616234138E-4</v>
       </c>
       <c r="K10" s="6">
         <f>_xlfn.MAXIFS(data!P9:Y9, data!C9:L9, data!B9)  / data!O9 -1</f>
-        <v>3.4932257077728845E-3</v>
+        <v>5.9207215385992384E-4</v>
       </c>
       <c r="L10" s="7">
         <f>AVERAGE(data!AB9:AK9)</f>
-        <v>287.61110000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>108.76259999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>120</v>
       </c>
@@ -5100,7 +5100,7 @@
         <f t="shared" si="0"/>
         <v>5350</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="2">
         <f>data!B10</f>
         <v>14</v>
       </c>
@@ -5134,10 +5134,10 @@
       </c>
       <c r="L11" s="7">
         <f>AVERAGE(data!AB10:AK10)</f>
-        <v>206.47180000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>78.770300000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>96</v>
       </c>
@@ -5148,7 +5148,7 @@
         <f t="shared" si="0"/>
         <v>5350</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="2">
         <f>data!B11</f>
         <v>14</v>
       </c>
@@ -5182,10 +5182,10 @@
       </c>
       <c r="L12" s="7">
         <f>AVERAGE(data!AB11:AK11)</f>
-        <v>201.09189999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>76.884399999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>113</v>
       </c>
@@ -5196,7 +5196,7 @@
         <f t="shared" si="0"/>
         <v>5350</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="2">
         <f>data!B12</f>
         <v>11</v>
       </c>
@@ -5230,10 +5230,10 @@
       </c>
       <c r="L13" s="7">
         <f>AVERAGE(data!AB12:AK12)</f>
-        <v>253.21880000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>93.132900000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>111</v>
       </c>
@@ -5244,7 +5244,7 @@
         <f t="shared" si="0"/>
         <v>5250</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="2">
         <f>data!B13</f>
         <v>10</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="F14" s="7">
         <f>AVERAGE(data!C13:L13) - data!B13</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="G14" s="7">
         <f>MAX(data!C13:L13) - data!B13</f>
@@ -5278,10 +5278,10 @@
       </c>
       <c r="L14" s="7">
         <f>AVERAGE(data!AB13:AK13)</f>
-        <v>272.25670000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>94.470400000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -5295,7 +5295,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>90</v>
       </c>
@@ -5310,7 +5310,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>93</v>
       </c>
@@ -5321,7 +5321,7 @@
         <f>INT(MAX(B17, 100) / 4) * 50</f>
         <v>1250</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="2">
         <f>data!B16</f>
         <v>3</v>
       </c>
@@ -5355,10 +5355,10 @@
       </c>
       <c r="L17" s="7">
         <f>AVERAGE(data!AB16:AK16)</f>
-        <v>791.34990000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205.1216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>118</v>
       </c>
@@ -5366,10 +5366,10 @@
         <v>103</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:C25" si="1">INT(MAX(B18, 100) / 4) * 50</f>
+        <f>INT(MAX(B18, 100) / 4) * 50</f>
         <v>1250</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="2">
         <f>data!B17</f>
         <v>3</v>
       </c>
@@ -5395,18 +5395,18 @@
       </c>
       <c r="J18" s="6">
         <f>AVERAGEIFS(data!P17:Y17, data!C17:L17, data!B17) / data!O17 -1</f>
-        <v>5.707534710463924E-2</v>
+        <v>8.5408059600404762E-3</v>
       </c>
       <c r="K18" s="6">
         <f>_xlfn.MAXIFS(data!P17:Y17, data!C17:L17, data!B17)  / data!O17 -1</f>
-        <v>8.1537419573315173E-2</v>
+        <v>8.0563833389773132E-2</v>
       </c>
       <c r="L18" s="7">
         <f>AVERAGE(data!AB17:AK17)</f>
-        <v>616.74360000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+        <v>198.68760000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>117</v>
       </c>
@@ -5414,10 +5414,10 @@
         <v>103</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C19:C25" si="1">INT(MAX(B19, 100) / 4) * 50</f>
         <v>1250</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="2">
         <f>data!B18</f>
         <v>3</v>
       </c>
@@ -5451,10 +5451,10 @@
       </c>
       <c r="L19" s="7">
         <f>AVERAGE(data!AB18:AK18)</f>
-        <v>579.98440000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+        <v>199.02690000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>95</v>
       </c>
@@ -5465,7 +5465,7 @@
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="2">
         <f>data!B19</f>
         <v>4</v>
       </c>
@@ -5499,10 +5499,10 @@
       </c>
       <c r="L20" s="7">
         <f>AVERAGE(data!AB19:AK19)</f>
-        <v>295.01390000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+        <v>115.30640000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>115</v>
       </c>
@@ -5510,10 +5510,10 @@
         <v>101</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
+        <f>INT(MAX(B21, 100) / 4) * 50</f>
         <v>1250</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="2">
         <f>data!B20</f>
         <v>3</v>
       </c>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="F21" s="7">
         <f>AVERAGE(data!C20:L20) - data!B20</f>
-        <v>0.60000000000000009</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="G21" s="7">
         <f>MAX(data!C20:L20) - data!B20</f>
@@ -5547,10 +5547,10 @@
       </c>
       <c r="L21" s="7">
         <f>AVERAGE(data!AB20:AK20)</f>
-        <v>385.49070000000012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+        <v>158.11080000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>116</v>
       </c>
@@ -5558,10 +5558,10 @@
         <v>101</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
+        <f>INT(MAX(B22, 100) / 4) * 50</f>
         <v>1250</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="2">
         <f>data!B21</f>
         <v>2</v>
       </c>
@@ -5587,18 +5587,18 @@
       </c>
       <c r="J22" s="6">
         <f>AVERAGEIFS(data!P21:Y21, data!C21:L21, data!B21) / data!O21 -1</f>
-        <v>1.7667551200923892E-3</v>
+        <v>1.0911070286452329E-3</v>
       </c>
       <c r="K22" s="6">
         <f>_xlfn.MAXIFS(data!P21:Y21, data!C21:L21, data!B21)  / data!O21 -1</f>
-        <v>1.1636388378580609E-2</v>
+        <v>5.4664217187179176E-3</v>
       </c>
       <c r="L22" s="7">
         <f>AVERAGE(data!AB21:AK21)</f>
-        <v>1228.8130000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+        <v>496.41369999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>97</v>
       </c>
@@ -5609,7 +5609,7 @@
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="2">
         <f>data!B22</f>
         <v>4</v>
       </c>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="J23" s="6">
         <f>AVERAGEIFS(data!P22:Y22, data!C22:L22, data!B22) / data!O22 -1</f>
-        <v>3.1088745788733219E-2</v>
+        <v>3.4543050876372217E-3</v>
       </c>
       <c r="K23" s="6">
         <f>_xlfn.MAXIFS(data!P22:Y22, data!C22:L22, data!B22)  / data!O22 -1</f>
@@ -5643,10 +5643,10 @@
       </c>
       <c r="L23" s="7">
         <f>AVERAGE(data!AB22:AK22)</f>
-        <v>307.25010000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+        <v>109.78129999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>114</v>
       </c>
@@ -5657,7 +5657,7 @@
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="2">
         <f>data!B23</f>
         <v>3</v>
       </c>
@@ -5667,11 +5667,11 @@
       </c>
       <c r="F24" s="7">
         <f>AVERAGE(data!C23:L23) - data!B23</f>
-        <v>0</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="G24" s="7">
         <f>MAX(data!C23:L23) - data!B23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="22">
         <f>data!O23</f>
@@ -5683,18 +5683,18 @@
       </c>
       <c r="J24" s="6">
         <f>AVERAGEIFS(data!P23:Y23, data!C23:L23, data!B23) / data!O23 -1</f>
-        <v>0</v>
+        <v>3.0229665882102186E-3</v>
       </c>
       <c r="K24" s="6">
         <f>_xlfn.MAXIFS(data!P23:Y23, data!C23:L23, data!B23)  / data!O23 -1</f>
-        <v>0</v>
+        <v>2.7206699293893077E-2</v>
       </c>
       <c r="L24" s="7">
         <f>AVERAGE(data!AB23:AK23)</f>
-        <v>493.09340000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+        <v>199.36089999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>119</v>
       </c>
@@ -5705,7 +5705,7 @@
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="2">
         <f>data!B24</f>
         <v>4</v>
       </c>
@@ -5731,15 +5731,15 @@
       </c>
       <c r="J25" s="6">
         <f>AVERAGEIFS(data!P24:Y24, data!C24:L24, data!B24) / data!O24 -1</f>
-        <v>0</v>
+        <v>5.9629857164800182E-3</v>
       </c>
       <c r="K25" s="6">
         <f>_xlfn.MAXIFS(data!P24:Y24, data!C24:L24, data!B24)  / data!O24 -1</f>
-        <v>0</v>
+        <v>5.9629857164797961E-2</v>
       </c>
       <c r="L25" s="7">
         <f>AVERAGE(data!AB24:AK24)</f>
-        <v>303.24540000000007</v>
+        <v>113.32339999999999</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EF4890-1D97-41E4-8071-089FD7058C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD5CC9-4D3E-4B48-89C3-40868CD3688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -1110,21 +1110,21 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="9.140625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="18.54296875" style="8" customWidth="1"/>
+    <col min="2" max="9" width="9.1796875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1158,17 +1158,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -1184,17 +1184,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
@@ -1234,10 +1234,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>91</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="I26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="I27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="I28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="I29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="I30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="I31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="I32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="I33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="I34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="I36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="I37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="I38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="I39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="I40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="I48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="I49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>39</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>40</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>41</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>80</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>81</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>88</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>89</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>101</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>42</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>43</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
         <v>70</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>112</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
         <v>44</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1969,538 +1969,538 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="12"/>
     </row>
-    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="12"/>
     </row>
-    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="12"/>
     </row>
-    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="12"/>
     </row>
-    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="12"/>
     </row>
-    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="12"/>
     </row>
-    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="12"/>
     </row>
-    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="12"/>
     </row>
-    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12"/>
     </row>
-    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="12"/>
     </row>
-    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="12"/>
     </row>
-    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="12"/>
     </row>
-    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="12"/>
     </row>
-    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="12"/>
     </row>
-    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12"/>
     </row>
-    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="12"/>
     </row>
-    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="12"/>
     </row>
-    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="12"/>
     </row>
-    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="12"/>
     </row>
-    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="12"/>
     </row>
-    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="12"/>
     </row>
-    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="12"/>
     </row>
-    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="12"/>
     </row>
-    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="12"/>
     </row>
-    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="12"/>
     </row>
-    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="12"/>
     </row>
-    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="12"/>
     </row>
-    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="12"/>
     </row>
-    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="12"/>
     </row>
-    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="12"/>
     </row>
-    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="12"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="12"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="12"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="12"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="12"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="12"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="12"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="12"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="12"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="12"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="12"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="12"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="12"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="12"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="12"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="12"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="12"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="12"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="12"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="12"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="12"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="12"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="12"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="12"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="12"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="12"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="12"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="12"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="12"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="12"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="12"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="12"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="12"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="12"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="12"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="12"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="12"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="12"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="12"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="12"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="12"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="12"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="12"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="12"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="12"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="12"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="12"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="12"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="12"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="12"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="12"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="12"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="12"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="12"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="12"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="12"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="12"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="12"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="12"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="12"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="12"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="12"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="12"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="12"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="12"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="12"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="12"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="12"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="12"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="12"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="12"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="12"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="12"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="12"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="12"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="12"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="12"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="12"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="12"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="12"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="12"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="12"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="12"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="12"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="12"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="12"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="12"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="12"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="12"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="12"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="12"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="12"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="12"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="12"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="12"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="12"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="12"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="12"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="12"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="12"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="12"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="12"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="12"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="12"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="12"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="12"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="12"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="12"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="12"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="12"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="12"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="12"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="12"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="12"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="12"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="12"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="12"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="12"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="12"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="12"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="12"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="12"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="12"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="12"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="12"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="12"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="12"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="12"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="12"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="12"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="12"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="12"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="12"/>
     </row>
   </sheetData>
@@ -2514,23 +2514,23 @@
   <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.7109375" style="15"/>
-    <col min="14" max="14" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="8.7265625" style="15"/>
+    <col min="14" max="14" width="17.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="8.7109375" style="15"/>
-    <col min="27" max="27" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="37" width="8.5703125" style="15" customWidth="1"/>
-    <col min="38" max="16384" width="8.7109375" style="15"/>
+    <col min="16" max="26" width="8.7265625" style="15"/>
+    <col min="27" max="27" width="17.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="37" width="8.54296875" style="15" customWidth="1"/>
+    <col min="38" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>99</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="AJ1" s="25"/>
       <c r="AK1" s="26"/>
     </row>
-    <row r="2" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="AJ2" s="31"/>
       <c r="AK2" s="32"/>
     </row>
-    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26"/>
       <c r="B3" s="29"/>
       <c r="C3" s="16">
@@ -2729,7 +2729,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>91</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>92</v>
       </c>
@@ -2817,37 +2817,37 @@
         <v>92</v>
       </c>
       <c r="AB5" s="17">
-        <v>113.203</v>
+        <v>113.782</v>
       </c>
       <c r="AC5" s="17">
-        <v>114.765</v>
+        <v>112.937</v>
       </c>
       <c r="AD5" s="17">
-        <v>118.82899999999999</v>
+        <v>112.64100000000001</v>
       </c>
       <c r="AE5" s="17">
-        <v>112.923</v>
+        <v>112.438</v>
       </c>
       <c r="AF5" s="17">
-        <v>112.999</v>
+        <v>112.625</v>
       </c>
       <c r="AG5" s="17">
-        <v>113.98399999999999</v>
+        <v>113.01600000000001</v>
       </c>
       <c r="AH5" s="17">
-        <v>114.71899999999999</v>
+        <v>114.297</v>
       </c>
       <c r="AI5" s="17">
-        <v>113.75</v>
+        <v>113.28100000000001</v>
       </c>
       <c r="AJ5" s="17">
-        <v>112.39100000000001</v>
+        <v>111.60899999999999</v>
       </c>
       <c r="AK5" s="17">
-        <v>112.547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112.422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>109</v>
       </c>
@@ -2924,37 +2924,37 @@
         <v>109</v>
       </c>
       <c r="AB6" s="17">
-        <v>119.25</v>
+        <v>119.45399999999999</v>
       </c>
       <c r="AC6" s="17">
-        <v>118.625</v>
+        <v>118.40600000000001</v>
       </c>
       <c r="AD6" s="17">
-        <v>119.125</v>
+        <v>119.01600000000001</v>
       </c>
       <c r="AE6" s="17">
-        <v>118.82899999999999</v>
+        <v>119.34399999999999</v>
       </c>
       <c r="AF6" s="17">
-        <v>117.718</v>
+        <v>117.626</v>
       </c>
       <c r="AG6" s="17">
-        <v>120.64100000000001</v>
+        <v>120.218</v>
       </c>
       <c r="AH6" s="17">
-        <v>119.75</v>
+        <v>119.95399999999999</v>
       </c>
       <c r="AI6" s="17">
-        <v>118.15600000000001</v>
+        <v>118.095</v>
       </c>
       <c r="AJ6" s="17">
-        <v>119.203</v>
+        <v>120.03100000000001</v>
       </c>
       <c r="AK6" s="17">
-        <v>116.64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>108</v>
       </c>
@@ -3031,37 +3031,37 @@
         <v>108</v>
       </c>
       <c r="AB7" s="17">
-        <v>119.59399999999999</v>
+        <v>119.843</v>
       </c>
       <c r="AC7" s="17">
-        <v>116.09399999999999</v>
+        <v>116.703</v>
       </c>
       <c r="AD7" s="17">
-        <v>117.70399999999999</v>
+        <v>117.672</v>
       </c>
       <c r="AE7" s="17">
-        <v>115.95399999999999</v>
+        <v>116.688</v>
       </c>
       <c r="AF7" s="17">
-        <v>116.703</v>
+        <v>116.60899999999999</v>
       </c>
       <c r="AG7" s="17">
-        <v>115.953</v>
+        <v>116.89100000000001</v>
       </c>
       <c r="AH7" s="17">
-        <v>115.90600000000001</v>
+        <v>116.60899999999999</v>
       </c>
       <c r="AI7" s="17">
-        <v>115.843</v>
+        <v>116.124</v>
       </c>
       <c r="AJ7" s="17">
-        <v>116.126</v>
+        <v>116.89100000000001</v>
       </c>
       <c r="AK7" s="17">
-        <v>116.42100000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116.922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>94</v>
       </c>
@@ -3138,37 +3138,37 @@
         <v>94</v>
       </c>
       <c r="AB8" s="17">
-        <v>60.561999999999998</v>
+        <v>60.734000000000002</v>
       </c>
       <c r="AC8" s="17">
-        <v>60.344999999999999</v>
+        <v>60.170999999999999</v>
       </c>
       <c r="AD8" s="17">
-        <v>60.780999999999999</v>
+        <v>60.546999999999997</v>
       </c>
       <c r="AE8" s="17">
-        <v>60.594000000000001</v>
+        <v>60.515999999999998</v>
       </c>
       <c r="AF8" s="17">
-        <v>59.875999999999998</v>
+        <v>60.171999999999997</v>
       </c>
       <c r="AG8" s="17">
-        <v>59.296999999999997</v>
+        <v>60.156999999999996</v>
       </c>
       <c r="AH8" s="17">
-        <v>59.576999999999998</v>
+        <v>60.046999999999997</v>
       </c>
       <c r="AI8" s="17">
-        <v>60.093000000000004</v>
+        <v>60.484000000000002</v>
       </c>
       <c r="AJ8" s="17">
-        <v>59.984000000000002</v>
+        <v>59.920999999999999</v>
       </c>
       <c r="AK8" s="17">
-        <v>60.171999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>110</v>
       </c>
@@ -3245,37 +3245,37 @@
         <v>110</v>
       </c>
       <c r="AB9" s="17">
-        <v>110.46899999999999</v>
+        <v>110.75</v>
       </c>
       <c r="AC9" s="17">
-        <v>108.282</v>
+        <v>108.485</v>
       </c>
       <c r="AD9" s="17">
-        <v>106.593</v>
+        <v>106.64</v>
       </c>
       <c r="AE9" s="17">
-        <v>111.86</v>
+        <v>112.42100000000001</v>
       </c>
       <c r="AF9" s="17">
-        <v>110.03100000000001</v>
+        <v>110.53100000000001</v>
       </c>
       <c r="AG9" s="17">
-        <v>106.124</v>
+        <v>106.64</v>
       </c>
       <c r="AH9" s="17">
-        <v>104.438</v>
+        <v>104.84399999999999</v>
       </c>
       <c r="AI9" s="17">
-        <v>111.46899999999999</v>
+        <v>112.10899999999999</v>
       </c>
       <c r="AJ9" s="17">
-        <v>111.125</v>
+        <v>111.624</v>
       </c>
       <c r="AK9" s="17">
-        <v>107.235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107.67100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>120</v>
       </c>
@@ -3352,37 +3352,37 @@
         <v>120</v>
       </c>
       <c r="AB10" s="17">
-        <v>78.953000000000003</v>
+        <v>79.281000000000006</v>
       </c>
       <c r="AC10" s="17">
-        <v>79.296000000000006</v>
+        <v>80.97</v>
       </c>
       <c r="AD10" s="17">
-        <v>78.843000000000004</v>
+        <v>78</v>
       </c>
       <c r="AE10" s="17">
-        <v>78.766000000000005</v>
+        <v>77.296000000000006</v>
       </c>
       <c r="AF10" s="17">
-        <v>79.843999999999994</v>
+        <v>80.016000000000005</v>
       </c>
       <c r="AG10" s="17">
-        <v>78.546999999999997</v>
+        <v>79.406000000000006</v>
       </c>
       <c r="AH10" s="17">
-        <v>78.626000000000005</v>
+        <v>79.36</v>
       </c>
       <c r="AI10" s="17">
-        <v>78.123999999999995</v>
+        <v>79.078000000000003</v>
       </c>
       <c r="AJ10" s="17">
-        <v>78.468999999999994</v>
+        <v>78.921999999999997</v>
       </c>
       <c r="AK10" s="17">
-        <v>78.234999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78.765000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
@@ -3459,37 +3459,37 @@
         <v>96</v>
       </c>
       <c r="AB11" s="17">
-        <v>76.983999999999995</v>
+        <v>77.376000000000005</v>
       </c>
       <c r="AC11" s="17">
-        <v>76.578000000000003</v>
+        <v>77.375</v>
       </c>
       <c r="AD11" s="17">
-        <v>77.046999999999997</v>
+        <v>77.328000000000003</v>
       </c>
       <c r="AE11" s="17">
-        <v>77.186999999999998</v>
+        <v>77.608999999999995</v>
       </c>
       <c r="AF11" s="17">
-        <v>77.406000000000006</v>
+        <v>77.531000000000006</v>
       </c>
       <c r="AG11" s="17">
-        <v>77.765000000000001</v>
+        <v>77.593999999999994</v>
       </c>
       <c r="AH11" s="17">
-        <v>76.36</v>
+        <v>76.906999999999996</v>
       </c>
       <c r="AI11" s="17">
-        <v>76.266000000000005</v>
+        <v>76.875</v>
       </c>
       <c r="AJ11" s="17">
-        <v>76.781000000000006</v>
+        <v>77.858999999999995</v>
       </c>
       <c r="AK11" s="17">
-        <v>76.47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76.766999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>113</v>
       </c>
@@ -3566,37 +3566,37 @@
         <v>113</v>
       </c>
       <c r="AB12" s="17">
-        <v>90.873999999999995</v>
+        <v>91.203000000000003</v>
       </c>
       <c r="AC12" s="17">
-        <v>94.22</v>
+        <v>94</v>
       </c>
       <c r="AD12" s="17">
-        <v>94.203000000000003</v>
+        <v>95.641000000000005</v>
       </c>
       <c r="AE12" s="17">
-        <v>94.234999999999999</v>
+        <v>94.36</v>
       </c>
       <c r="AF12" s="17">
-        <v>92.718000000000004</v>
+        <v>92.781000000000006</v>
       </c>
       <c r="AG12" s="17">
-        <v>94.125</v>
+        <v>93.593999999999994</v>
       </c>
       <c r="AH12" s="17">
-        <v>92.343999999999994</v>
+        <v>92.078000000000003</v>
       </c>
       <c r="AI12" s="17">
-        <v>93.234999999999999</v>
+        <v>94.233999999999995</v>
       </c>
       <c r="AJ12" s="17">
-        <v>90.953000000000003</v>
+        <v>91.343999999999994</v>
       </c>
       <c r="AK12" s="17">
-        <v>94.421999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94.468000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>111</v>
       </c>
@@ -3673,37 +3673,37 @@
         <v>111</v>
       </c>
       <c r="AB13" s="17">
-        <v>99.296000000000006</v>
+        <v>98.703000000000003</v>
       </c>
       <c r="AC13" s="17">
-        <v>97.561999999999998</v>
+        <v>96.733999999999995</v>
       </c>
       <c r="AD13" s="17">
-        <v>93.656999999999996</v>
+        <v>93.968999999999994</v>
       </c>
       <c r="AE13" s="17">
-        <v>96.891000000000005</v>
+        <v>97.546000000000006</v>
       </c>
       <c r="AF13" s="17">
-        <v>93</v>
+        <v>94.031000000000006</v>
       </c>
       <c r="AG13" s="17">
-        <v>93.313000000000002</v>
+        <v>94.061999999999998</v>
       </c>
       <c r="AH13" s="17">
-        <v>92.593999999999994</v>
+        <v>93.766000000000005</v>
       </c>
       <c r="AI13" s="17">
-        <v>93.281000000000006</v>
+        <v>94.688000000000002</v>
       </c>
       <c r="AJ13" s="17">
-        <v>92.626000000000005</v>
+        <v>93.343999999999994</v>
       </c>
       <c r="AK13" s="17">
-        <v>92.483999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92.563000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -3726,7 +3726,7 @@
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>90</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>93</v>
       </c>
@@ -3825,37 +3825,37 @@
         <v>93</v>
       </c>
       <c r="AB16" s="17">
-        <v>205.06200000000001</v>
+        <v>201.03100000000001</v>
       </c>
       <c r="AC16" s="17">
-        <v>205.90600000000001</v>
+        <v>205.28100000000001</v>
       </c>
       <c r="AD16" s="17">
-        <v>198.875</v>
+        <v>199.172</v>
       </c>
       <c r="AE16" s="17">
-        <v>204.40700000000001</v>
+        <v>204.5</v>
       </c>
       <c r="AF16" s="17">
-        <v>206.59299999999999</v>
+        <v>207.31200000000001</v>
       </c>
       <c r="AG16" s="17">
-        <v>207.499</v>
+        <v>207.93700000000001</v>
       </c>
       <c r="AH16" s="17">
-        <v>206.34399999999999</v>
+        <v>207.51499999999999</v>
       </c>
       <c r="AI16" s="17">
-        <v>204.5</v>
+        <v>204.82900000000001</v>
       </c>
       <c r="AJ16" s="17">
-        <v>210.43700000000001</v>
+        <v>211.328</v>
       </c>
       <c r="AK16" s="17">
-        <v>201.59299999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202.53100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>118</v>
       </c>
@@ -3932,37 +3932,37 @@
         <v>118</v>
       </c>
       <c r="AB17" s="17">
-        <v>203.23500000000001</v>
+        <v>204.09399999999999</v>
       </c>
       <c r="AC17" s="17">
-        <v>192.84399999999999</v>
+        <v>193.76499999999999</v>
       </c>
       <c r="AD17" s="17">
-        <v>197.93700000000001</v>
+        <v>198.98400000000001</v>
       </c>
       <c r="AE17" s="17">
-        <v>197.84399999999999</v>
+        <v>198.60900000000001</v>
       </c>
       <c r="AF17" s="17">
-        <v>203.96899999999999</v>
+        <v>204.374</v>
       </c>
       <c r="AG17" s="17">
-        <v>197.23400000000001</v>
+        <v>197.85900000000001</v>
       </c>
       <c r="AH17" s="17">
-        <v>198.46899999999999</v>
+        <v>198.90700000000001</v>
       </c>
       <c r="AI17" s="17">
-        <v>194.48500000000001</v>
+        <v>194.68799999999999</v>
       </c>
       <c r="AJ17" s="17">
-        <v>201.81200000000001</v>
+        <v>202.078</v>
       </c>
       <c r="AK17" s="17">
-        <v>199.047</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+        <v>199.34399999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>117</v>
       </c>
@@ -4039,37 +4039,37 @@
         <v>117</v>
       </c>
       <c r="AB18" s="17">
-        <v>203.10900000000001</v>
+        <v>203.23500000000001</v>
       </c>
       <c r="AC18" s="17">
-        <v>194.64099999999999</v>
+        <v>195.249</v>
       </c>
       <c r="AD18" s="17">
-        <v>199.10900000000001</v>
+        <v>199.11</v>
       </c>
       <c r="AE18" s="17">
-        <v>199.126</v>
+        <v>199.26499999999999</v>
       </c>
       <c r="AF18" s="17">
-        <v>200.18899999999999</v>
+        <v>200.43700000000001</v>
       </c>
       <c r="AG18" s="17">
-        <v>203.047</v>
+        <v>203.29599999999999</v>
       </c>
       <c r="AH18" s="17">
-        <v>197.125</v>
+        <v>197.78100000000001</v>
       </c>
       <c r="AI18" s="17">
-        <v>194.57900000000001</v>
+        <v>195.40600000000001</v>
       </c>
       <c r="AJ18" s="17">
-        <v>195.56200000000001</v>
+        <v>195.547</v>
       </c>
       <c r="AK18" s="17">
-        <v>203.78200000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204.31200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>95</v>
       </c>
@@ -4146,37 +4146,37 @@
         <v>95</v>
       </c>
       <c r="AB19" s="17">
-        <v>115.813</v>
+        <v>116.187</v>
       </c>
       <c r="AC19" s="17">
-        <v>115.90600000000001</v>
+        <v>116.46899999999999</v>
       </c>
       <c r="AD19" s="17">
-        <v>117.828</v>
+        <v>117.23399999999999</v>
       </c>
       <c r="AE19" s="17">
-        <v>110.876</v>
+        <v>111.125</v>
       </c>
       <c r="AF19" s="17">
-        <v>116.437</v>
+        <v>116.34399999999999</v>
       </c>
       <c r="AG19" s="17">
-        <v>107.5</v>
+        <v>107.937</v>
       </c>
       <c r="AH19" s="17">
-        <v>118.89</v>
+        <v>119.062</v>
       </c>
       <c r="AI19" s="17">
-        <v>117.126</v>
+        <v>117.453</v>
       </c>
       <c r="AJ19" s="17">
-        <v>118.34399999999999</v>
+        <v>118.60899999999999</v>
       </c>
       <c r="AK19" s="17">
-        <v>114.34399999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+        <v>114.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>115</v>
       </c>
@@ -4253,37 +4253,37 @@
         <v>115</v>
       </c>
       <c r="AB20" s="17">
-        <v>143.047</v>
+        <v>143.40600000000001</v>
       </c>
       <c r="AC20" s="17">
-        <v>137.374</v>
+        <v>138.03200000000001</v>
       </c>
       <c r="AD20" s="17">
-        <v>141.43700000000001</v>
+        <v>141.46899999999999</v>
       </c>
       <c r="AE20" s="17">
-        <v>187.578</v>
+        <v>187.672</v>
       </c>
       <c r="AF20" s="17">
-        <v>163.578</v>
+        <v>163.90700000000001</v>
       </c>
       <c r="AG20" s="17">
-        <v>155.422</v>
+        <v>155.59399999999999</v>
       </c>
       <c r="AH20" s="17">
-        <v>188.15600000000001</v>
+        <v>188.21899999999999</v>
       </c>
       <c r="AI20" s="17">
-        <v>152.56299999999999</v>
+        <v>153.17099999999999</v>
       </c>
       <c r="AJ20" s="17">
-        <v>173.625</v>
+        <v>173.797</v>
       </c>
       <c r="AK20" s="17">
-        <v>138.328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+        <v>138.59399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>116</v>
       </c>
@@ -4360,37 +4360,37 @@
         <v>116</v>
       </c>
       <c r="AB21" s="17">
-        <v>516.68799999999999</v>
+        <v>518.09400000000005</v>
       </c>
       <c r="AC21" s="17">
-        <v>465.78100000000001</v>
+        <v>465.95400000000001</v>
       </c>
       <c r="AD21" s="17">
-        <v>487.64</v>
+        <v>487.875</v>
       </c>
       <c r="AE21" s="17">
-        <v>470.29700000000003</v>
+        <v>471.06200000000001</v>
       </c>
       <c r="AF21" s="17">
-        <v>507.89</v>
+        <v>507.42099999999999</v>
       </c>
       <c r="AG21" s="17">
-        <v>520.82799999999997</v>
+        <v>507.57799999999997</v>
       </c>
       <c r="AH21" s="17">
-        <v>497.733</v>
+        <v>497.03199999999998</v>
       </c>
       <c r="AI21" s="17">
-        <v>475.07799999999997</v>
+        <v>475.56299999999999</v>
       </c>
       <c r="AJ21" s="17">
-        <v>500.51499999999999</v>
+        <v>500.59399999999999</v>
       </c>
       <c r="AK21" s="17">
-        <v>521.68700000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522.42200000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>97</v>
       </c>
@@ -4467,37 +4467,37 @@
         <v>97</v>
       </c>
       <c r="AB22" s="17">
-        <v>108.578</v>
+        <v>108.797</v>
       </c>
       <c r="AC22" s="17">
-        <v>110.79600000000001</v>
+        <v>110.297</v>
       </c>
       <c r="AD22" s="17">
+        <v>112.29600000000001</v>
+      </c>
+      <c r="AE22" s="17">
+        <v>109.062</v>
+      </c>
+      <c r="AF22" s="17">
+        <v>112.92100000000001</v>
+      </c>
+      <c r="AG22" s="17">
+        <v>106.578</v>
+      </c>
+      <c r="AH22" s="17">
         <v>104.40600000000001</v>
       </c>
-      <c r="AE22" s="17">
-        <v>114.59399999999999</v>
-      </c>
-      <c r="AF22" s="17">
-        <v>119.078</v>
-      </c>
-      <c r="AG22" s="17">
-        <v>107.203</v>
-      </c>
-      <c r="AH22" s="17">
-        <v>106.126</v>
-      </c>
       <c r="AI22" s="17">
-        <v>105.09399999999999</v>
+        <v>110.922</v>
       </c>
       <c r="AJ22" s="17">
-        <v>113.703</v>
+        <v>103.39</v>
       </c>
       <c r="AK22" s="17">
-        <v>108.235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+        <v>115.001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>114</v>
       </c>
@@ -4508,10 +4508,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="15">
+        <v>3</v>
+      </c>
+      <c r="E23" s="15">
         <v>4</v>
-      </c>
-      <c r="E23" s="15">
-        <v>3</v>
       </c>
       <c r="F23" s="15">
         <v>3</v>
@@ -4574,37 +4574,37 @@
         <v>114</v>
       </c>
       <c r="AB23" s="17">
-        <v>192.047</v>
+        <v>162.375</v>
       </c>
       <c r="AC23" s="17">
-        <v>211.047</v>
+        <v>193.43700000000001</v>
       </c>
       <c r="AD23" s="17">
-        <v>205.875</v>
+        <v>148.001</v>
       </c>
       <c r="AE23" s="17">
-        <v>200.76499999999999</v>
+        <v>189.25</v>
       </c>
       <c r="AF23" s="17">
-        <v>196.75</v>
+        <v>189.26599999999999</v>
       </c>
       <c r="AG23" s="17">
-        <v>192.09399999999999</v>
+        <v>202.655</v>
       </c>
       <c r="AH23" s="17">
-        <v>200.749</v>
+        <v>193.53100000000001</v>
       </c>
       <c r="AI23" s="17">
-        <v>186.43799999999999</v>
+        <v>175.375</v>
       </c>
       <c r="AJ23" s="17">
-        <v>211.15600000000001</v>
+        <v>196.09299999999999</v>
       </c>
       <c r="AK23" s="17">
-        <v>196.68799999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+        <v>193.43700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>119</v>
       </c>
@@ -4681,34 +4681,34 @@
         <v>119</v>
       </c>
       <c r="AB24" s="17">
-        <v>116.124</v>
+        <v>111.07899999999999</v>
       </c>
       <c r="AC24" s="17">
-        <v>112.188</v>
+        <v>108.76600000000001</v>
       </c>
       <c r="AD24" s="17">
-        <v>114.687</v>
+        <v>112.875</v>
       </c>
       <c r="AE24" s="17">
-        <v>115.563</v>
+        <v>110.187</v>
       </c>
       <c r="AF24" s="17">
-        <v>111.813</v>
+        <v>113.062</v>
       </c>
       <c r="AG24" s="17">
-        <v>112.17100000000001</v>
+        <v>108.063</v>
       </c>
       <c r="AH24" s="17">
-        <v>113.46899999999999</v>
+        <v>108.39100000000001</v>
       </c>
       <c r="AI24" s="17">
-        <v>107.45399999999999</v>
+        <v>115.313</v>
       </c>
       <c r="AJ24" s="17">
-        <v>115.53100000000001</v>
+        <v>111.798</v>
       </c>
       <c r="AK24" s="17">
-        <v>114.23399999999999</v>
+        <v>111.532</v>
       </c>
     </row>
   </sheetData>
@@ -4735,20 +4735,20 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="5" customWidth="1"/>
-    <col min="4" max="11" width="10.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="17.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="5" customWidth="1"/>
+    <col min="4" max="11" width="10.54296875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="38"/>
@@ -4842,14 +4842,14 @@
       </c>
       <c r="L4" s="47"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>92</v>
       </c>
@@ -4894,10 +4894,10 @@
       </c>
       <c r="L6" s="7">
         <f>AVERAGE(data!AB5:AK5)</f>
-        <v>114.01100000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112.90479999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>109</v>
       </c>
@@ -4942,10 +4942,10 @@
       </c>
       <c r="L7" s="7">
         <f>AVERAGE(data!AB6:AK6)</f>
-        <v>118.79370000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>118.9269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>108</v>
       </c>
@@ -4990,10 +4990,10 @@
       </c>
       <c r="L8" s="7">
         <f>AVERAGE(data!AB7:AK7)</f>
-        <v>116.6298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>117.09520000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>94</v>
       </c>
@@ -5038,10 +5038,10 @@
       </c>
       <c r="L9" s="7">
         <f>AVERAGE(data!AB8:AK8)</f>
-        <v>60.128099999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60.321899999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>110</v>
       </c>
@@ -5086,10 +5086,10 @@
       </c>
       <c r="L10" s="7">
         <f>AVERAGE(data!AB9:AK9)</f>
-        <v>108.76259999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>109.17149999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>120</v>
       </c>
@@ -5134,10 +5134,10 @@
       </c>
       <c r="L11" s="7">
         <f>AVERAGE(data!AB10:AK10)</f>
-        <v>78.770300000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>79.109400000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>96</v>
       </c>
@@ -5182,10 +5182,10 @@
       </c>
       <c r="L12" s="7">
         <f>AVERAGE(data!AB11:AK11)</f>
-        <v>76.884399999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>77.322100000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>113</v>
       </c>
@@ -5230,10 +5230,10 @@
       </c>
       <c r="L13" s="7">
         <f>AVERAGE(data!AB12:AK12)</f>
-        <v>93.132900000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>93.370299999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>111</v>
       </c>
@@ -5278,10 +5278,10 @@
       </c>
       <c r="L14" s="7">
         <f>AVERAGE(data!AB13:AK13)</f>
-        <v>94.470400000000012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>94.940599999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -5295,7 +5295,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>90</v>
       </c>
@@ -5310,7 +5310,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>93</v>
       </c>
@@ -5355,10 +5355,10 @@
       </c>
       <c r="L17" s="7">
         <f>AVERAGE(data!AB16:AK16)</f>
-        <v>205.1216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>205.14360000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>118</v>
       </c>
@@ -5403,10 +5403,10 @@
       </c>
       <c r="L18" s="7">
         <f>AVERAGE(data!AB17:AK17)</f>
-        <v>198.68760000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>199.27019999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>117</v>
       </c>
@@ -5451,10 +5451,10 @@
       </c>
       <c r="L19" s="7">
         <f>AVERAGE(data!AB18:AK18)</f>
-        <v>199.02690000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>199.3638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>95</v>
       </c>
@@ -5499,10 +5499,10 @@
       </c>
       <c r="L20" s="7">
         <f>AVERAGE(data!AB19:AK19)</f>
-        <v>115.30640000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>115.47799999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>115</v>
       </c>
@@ -5547,10 +5547,10 @@
       </c>
       <c r="L21" s="7">
         <f>AVERAGE(data!AB20:AK20)</f>
-        <v>158.11080000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>158.3861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>116</v>
       </c>
@@ -5595,10 +5595,10 @@
       </c>
       <c r="L22" s="7">
         <f>AVERAGE(data!AB21:AK21)</f>
-        <v>496.41369999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>495.35949999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>97</v>
       </c>
@@ -5643,10 +5643,10 @@
       </c>
       <c r="L23" s="7">
         <f>AVERAGE(data!AB22:AK22)</f>
-        <v>109.78129999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>109.367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
         <v>114</v>
       </c>
@@ -5683,18 +5683,18 @@
       </c>
       <c r="J24" s="6">
         <f>AVERAGEIFS(data!P23:Y23, data!C23:L23, data!B23) / data!O23 -1</f>
-        <v>3.0229665882102186E-3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="6">
         <f>_xlfn.MAXIFS(data!P23:Y23, data!C23:L23, data!B23)  / data!O23 -1</f>
-        <v>2.7206699293893077E-2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="7">
         <f>AVERAGE(data!AB23:AK23)</f>
-        <v>199.36089999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>184.34200000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>119</v>
       </c>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="L25" s="7">
         <f>AVERAGE(data!AB24:AK24)</f>
-        <v>113.32339999999999</v>
+        <v>111.1066</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD5CC9-4D3E-4B48-89C3-40868CD3688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4A9B83-11FA-4CED-BB4E-C2F2768C8F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -365,9 +365,6 @@
     <t>        x = max(100, problem size)</t>
   </si>
   <si>
-    <t>lc109</t>
-  </si>
-  <si>
     <t>lc103</t>
   </si>
   <si>
@@ -408,6 +405,9 @@
   </si>
   <si>
     <t>Deviation</t>
+  </si>
+  <si>
+    <t>lc104</t>
   </si>
 </sst>
 </file>
@@ -1106,25 +1106,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="8" customWidth="1"/>
-    <col min="2" max="9" width="9.1796875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="18.5703125" style="8" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1158,17 +1158,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -1184,17 +1184,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
@@ -1234,10 +1234,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>91</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="I26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="I27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="I28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="I29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="I30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="I31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="I32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="I33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="I34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="I36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="I37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="I38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="I39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="I40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="I48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="I49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>39</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>40</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>41</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>80</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>81</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>88</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>89</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>101</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>42</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>43</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>70</v>
       </c>
@@ -1926,15 +1926,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -1942,7 +1942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>44</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1969,538 +1969,538 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="12"/>
     </row>
-    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="12"/>
     </row>
-    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12"/>
     </row>
-    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="12"/>
     </row>
-    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="12"/>
     </row>
-    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="12"/>
     </row>
-    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="12"/>
     </row>
-    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12"/>
     </row>
-    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="12"/>
     </row>
-    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="12"/>
     </row>
-    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="12"/>
     </row>
-    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="12"/>
     </row>
-    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="12"/>
     </row>
-    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="12"/>
     </row>
-    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="12"/>
     </row>
-    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="12"/>
     </row>
-    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="12"/>
     </row>
-    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="12"/>
     </row>
-    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="12"/>
     </row>
-    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="12"/>
     </row>
-    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="12"/>
     </row>
-    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="12"/>
     </row>
-    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="12"/>
     </row>
-    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="12"/>
     </row>
-    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12"/>
     </row>
-    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="12"/>
     </row>
-    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="12"/>
     </row>
-    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="12"/>
     </row>
-    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="12"/>
     </row>
-    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="12"/>
     </row>
-    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="12"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="12"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="12"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="12"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="12"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="12"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="12"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="12"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="12"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="12"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="12"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="12"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="12"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="12"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="12"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="12"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="12"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="12"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="12"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="12"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="12"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="12"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="12"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="12"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="12"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="12"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="12"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="12"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="12"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="12"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="12"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="12"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="12"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="12"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="12"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="12"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="12"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="12"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="12"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="12"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="12"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="12"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="12"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="12"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="12"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="12"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="12"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="12"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="12"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="12"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="12"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="12"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="12"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="12"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="12"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="12"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="12"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="12"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="12"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="12"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="12"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="12"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="12"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="12"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="12"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="12"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="12"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="12"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="12"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="12"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="12"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="12"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="12"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="12"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="12"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="12"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="12"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="12"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="12"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="12"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="12"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="12"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="12"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="12"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="12"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="12"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="12"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="12"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="12"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="12"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="12"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="12"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="12"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="12"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="12"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="12"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="12"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="12"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="12"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="12"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="12"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="12"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="12"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="12"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="12"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="12"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="12"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="12"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="12"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="12"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="12"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="12"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="12"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="12"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="12"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="12"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="12"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="12"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="12"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="12"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="12"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="12"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="12"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="12"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="12"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="12"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="12"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="12"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="12"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="12"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="12"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="12"/>
     </row>
   </sheetData>
@@ -2513,24 +2513,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:AK24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.7265625" style="15"/>
-    <col min="14" max="14" width="17.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="8.7109375" style="15"/>
+    <col min="14" max="14" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="8.7265625" style="15"/>
-    <col min="27" max="27" width="17.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="37" width="8.54296875" style="15" customWidth="1"/>
-    <col min="38" max="16384" width="8.7265625" style="15"/>
+    <col min="16" max="26" width="8.7109375" style="15"/>
+    <col min="27" max="27" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="37" width="8.5703125" style="15" customWidth="1"/>
+    <col min="38" max="16384" width="8.7109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>99</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="AJ1" s="25"/>
       <c r="AK1" s="26"/>
     </row>
-    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="AJ2" s="31"/>
       <c r="AK2" s="32"/>
     </row>
-    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="29"/>
       <c r="C3" s="16">
@@ -2729,7 +2729,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>91</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>92</v>
       </c>
@@ -2847,9 +2847,9 @@
         <v>112.422</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="15">
         <v>9</v>
@@ -2885,43 +2885,43 @@
         <v>9</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O6" s="17">
         <v>1035.3499999999999</v>
       </c>
       <c r="P6" s="17">
+        <v>1054.23</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>1068.68</v>
+      </c>
+      <c r="R6" s="17">
+        <v>1068.5999999999999</v>
+      </c>
+      <c r="S6" s="17">
+        <v>1053.21</v>
+      </c>
+      <c r="T6" s="17">
+        <v>1040.48</v>
+      </c>
+      <c r="U6" s="17">
+        <v>1084.23</v>
+      </c>
+      <c r="V6" s="17">
         <v>1035.3499999999999</v>
       </c>
-      <c r="Q6" s="17">
-        <v>1055.92</v>
-      </c>
-      <c r="R6" s="17">
-        <v>1055.19</v>
-      </c>
-      <c r="S6" s="17">
-        <v>1038.3499999999999</v>
-      </c>
-      <c r="T6" s="17">
+      <c r="W6" s="17">
+        <v>1054.23</v>
+      </c>
+      <c r="X6" s="17">
+        <v>1054.23</v>
+      </c>
+      <c r="Y6" s="17">
         <v>1068.28</v>
       </c>
-      <c r="U6" s="17">
-        <v>1068.28</v>
-      </c>
-      <c r="V6" s="17">
-        <v>1054.23</v>
-      </c>
-      <c r="W6" s="17">
-        <v>1038.3499999999999</v>
-      </c>
-      <c r="X6" s="17">
-        <v>1064.46</v>
-      </c>
-      <c r="Y6" s="17">
-        <v>1063.83</v>
-      </c>
       <c r="AA6" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB6" s="17">
         <v>119.45399999999999</v>
@@ -2954,9 +2954,9 @@
         <v>117.125</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B7" s="15">
         <v>9</v>
@@ -2965,103 +2965,103 @@
         <v>9</v>
       </c>
       <c r="D7" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="O7" s="17">
-        <v>1000.6</v>
+        <v>860.01</v>
       </c>
       <c r="P7" s="17">
-        <v>1019.83</v>
+        <v>875.38199999999995</v>
       </c>
       <c r="Q7" s="17">
-        <v>827.81700000000001</v>
+        <v>863.59</v>
       </c>
       <c r="R7" s="17">
-        <v>827.81700000000001</v>
+        <v>863.59</v>
       </c>
       <c r="S7" s="17">
-        <v>827.81700000000001</v>
+        <v>861.64700000000005</v>
       </c>
       <c r="T7" s="17">
-        <v>827.81700000000001</v>
+        <v>888.22699999999998</v>
       </c>
       <c r="U7" s="17">
-        <v>827.81700000000001</v>
+        <v>862.35799999999995</v>
       </c>
       <c r="V7" s="17">
-        <v>827.81700000000001</v>
+        <v>861.95399999999995</v>
       </c>
       <c r="W7" s="17">
-        <v>827.81700000000001</v>
+        <v>878.61699999999996</v>
       </c>
       <c r="X7" s="17">
-        <v>827.81700000000001</v>
+        <v>883.94799999999998</v>
       </c>
       <c r="Y7" s="17">
-        <v>827.81700000000001</v>
+        <v>861.64700000000005</v>
       </c>
       <c r="AA7" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="AB7" s="17">
-        <v>119.843</v>
+        <v>132.453</v>
       </c>
       <c r="AC7" s="17">
-        <v>116.703</v>
+        <v>131.749</v>
       </c>
       <c r="AD7" s="17">
-        <v>117.672</v>
+        <v>133.35900000000001</v>
       </c>
       <c r="AE7" s="17">
-        <v>116.688</v>
+        <v>127.53</v>
       </c>
       <c r="AF7" s="17">
-        <v>116.60899999999999</v>
+        <v>131.251</v>
       </c>
       <c r="AG7" s="17">
-        <v>116.89100000000001</v>
+        <v>133.203</v>
       </c>
       <c r="AH7" s="17">
-        <v>116.60899999999999</v>
+        <v>133.61000000000001</v>
       </c>
       <c r="AI7" s="17">
-        <v>116.124</v>
+        <v>132.89099999999999</v>
       </c>
       <c r="AJ7" s="17">
-        <v>116.89100000000001</v>
+        <v>134.36000000000001</v>
       </c>
       <c r="AK7" s="17">
-        <v>116.922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>134.43799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>94</v>
       </c>
@@ -3168,9 +3168,9 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="15">
         <v>9</v>
@@ -3194,7 +3194,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="15">
         <v>9</v>
@@ -3206,7 +3206,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O9" s="17">
         <v>1013.39</v>
@@ -3215,34 +3215,34 @@
         <v>1013.39</v>
       </c>
       <c r="Q9" s="17">
-        <v>1013.99</v>
+        <v>1013.39</v>
       </c>
       <c r="R9" s="17">
         <v>1013.99</v>
       </c>
       <c r="S9" s="17">
-        <v>1013.39</v>
+        <v>1013.99</v>
       </c>
       <c r="T9" s="17">
         <v>1013.99</v>
       </c>
       <c r="U9" s="17">
-        <v>1042.73</v>
+        <v>1067.01</v>
       </c>
       <c r="V9" s="17">
-        <v>1045.99</v>
+        <v>1013.99</v>
       </c>
       <c r="W9" s="17">
         <v>1013.99</v>
       </c>
       <c r="X9" s="17">
-        <v>1013.39</v>
+        <v>1013.99</v>
       </c>
       <c r="Y9" s="17">
         <v>1013.99</v>
       </c>
       <c r="AA9" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB9" s="17">
         <v>110.75</v>
@@ -3275,9 +3275,9 @@
         <v>107.67100000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="15">
         <v>14</v>
@@ -3313,7 +3313,7 @@
         <v>14</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O10" s="17">
         <v>1377.11</v>
@@ -3349,7 +3349,7 @@
         <v>1377.11</v>
       </c>
       <c r="AA10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB10" s="17">
         <v>79.281000000000006</v>
@@ -3382,7 +3382,7 @@
         <v>78.765000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
@@ -3489,9 +3489,9 @@
         <v>76.766999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="15">
         <v>11</v>
@@ -3503,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="15">
         <v>11</v>
@@ -3527,7 +3527,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O12" s="17">
         <v>1424.73</v>
@@ -3539,7 +3539,7 @@
         <v>1424.73</v>
       </c>
       <c r="R12" s="17">
-        <v>1424.73</v>
+        <v>1440.44</v>
       </c>
       <c r="S12" s="17">
         <v>1424.73</v>
@@ -3563,7 +3563,7 @@
         <v>1424.73</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB12" s="17">
         <v>91.203000000000003</v>
@@ -3596,9 +3596,9 @@
         <v>94.468000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="15">
         <v>10</v>
@@ -3610,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="15">
         <v>10</v>
@@ -3622,19 +3622,19 @@
         <v>11</v>
       </c>
       <c r="I13" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="15">
         <v>10</v>
       </c>
       <c r="K13" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O13" s="17">
         <v>1147.43</v>
@@ -3646,31 +3646,31 @@
         <v>1147.43</v>
       </c>
       <c r="R13" s="17">
-        <v>1177.1199999999999</v>
+        <v>1147.43</v>
       </c>
       <c r="S13" s="17">
         <v>1147.43</v>
       </c>
       <c r="T13" s="17">
-        <v>1177.8</v>
+        <v>1175.6500000000001</v>
       </c>
       <c r="U13" s="17">
         <v>1177.8</v>
       </c>
       <c r="V13" s="17">
-        <v>1176.71</v>
+        <v>1147.43</v>
       </c>
       <c r="W13" s="17">
         <v>1147.43</v>
       </c>
       <c r="X13" s="17">
-        <v>1175.6500000000001</v>
+        <v>1147.43</v>
       </c>
       <c r="Y13" s="17">
-        <v>1175.6500000000001</v>
+        <v>1147.43</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB13" s="17">
         <v>98.703000000000003</v>
@@ -3703,7 +3703,7 @@
         <v>92.563000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -3726,7 +3726,7 @@
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>90</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>93</v>
       </c>
@@ -3855,9 +3855,9 @@
         <v>202.53100000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="15">
         <v>3</v>
@@ -3893,19 +3893,19 @@
         <v>3</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O17" s="17">
         <v>590.6</v>
       </c>
       <c r="P17" s="17">
-        <v>591.173</v>
+        <v>590.59900000000005</v>
       </c>
       <c r="Q17" s="17">
-        <v>591.173</v>
+        <v>638.18100000000004</v>
       </c>
       <c r="R17" s="17">
-        <v>590.59900000000005</v>
+        <v>638.18100000000004</v>
       </c>
       <c r="S17" s="17">
         <v>591.173</v>
@@ -3914,22 +3914,22 @@
         <v>591.173</v>
       </c>
       <c r="U17" s="17">
-        <v>590.59900000000005</v>
+        <v>591.173</v>
       </c>
       <c r="V17" s="17">
         <v>638.18100000000004</v>
       </c>
       <c r="W17" s="17">
-        <v>590.59900000000005</v>
+        <v>591.173</v>
       </c>
       <c r="X17" s="17">
-        <v>591.173</v>
+        <v>638.18100000000004</v>
       </c>
       <c r="Y17" s="17">
-        <v>590.59900000000005</v>
+        <v>638.18100000000004</v>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB17" s="17">
         <v>204.09399999999999</v>
@@ -3962,9 +3962,9 @@
         <v>199.34399999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="15">
         <v>3</v>
@@ -4000,7 +4000,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O18" s="17">
         <v>588.29</v>
@@ -4036,7 +4036,7 @@
         <v>588.28599999999994</v>
       </c>
       <c r="AA18" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB18" s="17">
         <v>203.23500000000001</v>
@@ -4069,7 +4069,7 @@
         <v>204.31200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>95</v>
       </c>
@@ -4176,81 +4176,81 @@
         <v>114.36</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="15">
         <v>3</v>
       </c>
       <c r="C20" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="15">
         <v>4</v>
       </c>
       <c r="E20" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="15">
         <v>3</v>
       </c>
       <c r="G20" s="15">
+        <v>4</v>
+      </c>
+      <c r="H20" s="15">
+        <v>4</v>
+      </c>
+      <c r="I20" s="15">
+        <v>4</v>
+      </c>
+      <c r="J20" s="15">
+        <v>4</v>
+      </c>
+      <c r="K20" s="15">
+        <v>4</v>
+      </c>
+      <c r="L20" s="15">
         <v>3</v>
       </c>
-      <c r="H20" s="15">
-        <v>3</v>
-      </c>
-      <c r="I20" s="15">
-        <v>3</v>
-      </c>
-      <c r="J20" s="15">
-        <v>3</v>
-      </c>
-      <c r="K20" s="15">
-        <v>3</v>
-      </c>
-      <c r="L20" s="15">
-        <v>4</v>
-      </c>
       <c r="N20" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O20" s="17">
         <v>1197.67</v>
       </c>
       <c r="P20" s="17">
-        <v>1250.0999999999999</v>
+        <v>1197.67</v>
       </c>
       <c r="Q20" s="17">
         <v>1250.0999999999999</v>
       </c>
       <c r="R20" s="17">
+        <v>1197.67</v>
+      </c>
+      <c r="S20" s="17">
+        <v>1206.02</v>
+      </c>
+      <c r="T20" s="17">
+        <v>1250.0999999999999</v>
+      </c>
+      <c r="U20" s="17">
+        <v>1250.0999999999999</v>
+      </c>
+      <c r="V20" s="17">
         <v>1250.0899999999999</v>
       </c>
-      <c r="S20" s="17">
+      <c r="W20" s="17">
+        <v>1250.0999999999999</v>
+      </c>
+      <c r="X20" s="17">
+        <v>1250.0899999999999</v>
+      </c>
+      <c r="Y20" s="17">
         <v>1197.67</v>
       </c>
-      <c r="T20" s="17">
-        <v>1197.67</v>
-      </c>
-      <c r="U20" s="17">
-        <v>1197.67</v>
-      </c>
-      <c r="V20" s="17">
-        <v>1197.67</v>
-      </c>
-      <c r="W20" s="17">
-        <v>1197.67</v>
-      </c>
-      <c r="X20" s="17">
-        <v>1197.67</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>1250.0899999999999</v>
-      </c>
       <c r="AA20" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB20" s="17">
         <v>143.40600000000001</v>
@@ -4283,9 +4283,9 @@
         <v>138.59399999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="15">
         <v>2</v>
@@ -4321,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O21" s="17">
         <v>734.85</v>
@@ -4342,7 +4342,7 @@
         <v>734.84799999999996</v>
       </c>
       <c r="U21" s="17">
-        <v>738.86699999999996</v>
+        <v>734.84799999999996</v>
       </c>
       <c r="V21" s="17">
         <v>734.84799999999996</v>
@@ -4351,13 +4351,13 @@
         <v>734.84799999999996</v>
       </c>
       <c r="X21" s="17">
-        <v>738.86699999999996</v>
+        <v>734.84799999999996</v>
       </c>
       <c r="Y21" s="17">
         <v>734.84799999999996</v>
       </c>
       <c r="AA21" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB21" s="17">
         <v>518.09400000000005</v>
@@ -4390,7 +4390,7 @@
         <v>522.42200000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>97</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>1406.94</v>
       </c>
       <c r="P22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="Q22" s="17">
         <v>1406.94</v>
@@ -4452,13 +4452,13 @@
         <v>1406.94</v>
       </c>
       <c r="V22" s="17">
-        <v>1406.94</v>
+        <v>1455.54</v>
       </c>
       <c r="W22" s="17">
         <v>1406.94</v>
       </c>
       <c r="X22" s="17">
-        <v>1406.94</v>
+        <v>1455.54</v>
       </c>
       <c r="Y22" s="17">
         <v>1406.94</v>
@@ -4497,9 +4497,9 @@
         <v>115.001</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="15">
         <v>3</v>
@@ -4511,7 +4511,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" s="15">
         <v>3</v>
@@ -4520,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="15">
         <v>3</v>
@@ -4535,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O23" s="17">
         <v>1089.07</v>
@@ -4547,7 +4547,7 @@
         <v>1089.07</v>
       </c>
       <c r="R23" s="17">
-        <v>1118.7</v>
+        <v>1089.07</v>
       </c>
       <c r="S23" s="17">
         <v>1089.07</v>
@@ -4556,7 +4556,7 @@
         <v>1089.07</v>
       </c>
       <c r="U23" s="17">
-        <v>1089.07</v>
+        <v>1122.19</v>
       </c>
       <c r="V23" s="17">
         <v>1089.07</v>
@@ -4571,7 +4571,7 @@
         <v>1089.07</v>
       </c>
       <c r="AA23" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB23" s="17">
         <v>162.375</v>
@@ -4604,9 +4604,9 @@
         <v>193.43700000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="15">
         <v>4</v>
@@ -4642,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O24" s="17">
         <v>1302.2</v>
@@ -4663,7 +4663,7 @@
         <v>1302.2</v>
       </c>
       <c r="U24" s="17">
-        <v>1379.85</v>
+        <v>1302.2</v>
       </c>
       <c r="V24" s="17">
         <v>1302.2</v>
@@ -4678,7 +4678,7 @@
         <v>1302.2</v>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB24" s="17">
         <v>111.07899999999999</v>
@@ -4732,23 +4732,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="5" customWidth="1"/>
-    <col min="4" max="11" width="10.54296875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="5" customWidth="1"/>
+    <col min="4" max="11" width="10.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="34"/>
@@ -4816,7 +4816,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="38"/>
@@ -4842,14 +4842,14 @@
       </c>
       <c r="L4" s="47"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>92</v>
       </c>
@@ -4897,9 +4897,9 @@
         <v>112.90479999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="4">
         <v>105</v>
@@ -4934,20 +4934,20 @@
       </c>
       <c r="J7" s="6">
         <f>AVERAGEIFS(data!P6:Y6, data!C6:L6, data!B6) / data!O6 -1</f>
-        <v>1.8229584198580229E-2</v>
+        <v>2.2023470324044947E-2</v>
       </c>
       <c r="K7" s="6">
         <f>_xlfn.MAXIFS(data!P6:Y6, data!C6:L6, data!B6)  / data!O6 -1</f>
-        <v>3.1805669580335261E-2</v>
+        <v>4.7211088037861781E-2</v>
       </c>
       <c r="L7" s="7">
         <f>AVERAGE(data!AB6:AK6)</f>
         <v>118.9269</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B8" s="5">
         <v>107</v>
@@ -4966,34 +4966,34 @@
       </c>
       <c r="F8" s="7">
         <f>AVERAGE(data!C7:L7) - data!B7</f>
-        <v>0.90000000000000036</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <f>MAX(data!C7:L7) - data!B7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="22">
         <f>data!O7</f>
-        <v>1000.6</v>
+        <v>860.01</v>
       </c>
       <c r="I8" s="6">
         <f>_xlfn.MINIFS(data!P7:Y7, data!C7:L7, data!B7) / data!O7 -1</f>
-        <v>1.9218468918648757E-2</v>
+        <v>1.903466238764695E-3</v>
       </c>
       <c r="J8" s="6">
         <f>AVERAGEIFS(data!P7:Y7, data!C7:L7, data!B7) / data!O7 -1</f>
-        <v>1.9218468918648757E-2</v>
+        <v>1.1727770607318666E-2</v>
       </c>
       <c r="K8" s="6">
         <f>_xlfn.MAXIFS(data!P7:Y7, data!C7:L7, data!B7)  / data!O7 -1</f>
-        <v>1.9218468918648757E-2</v>
+        <v>3.2810083603679097E-2</v>
       </c>
       <c r="L8" s="7">
         <f>AVERAGE(data!AB7:AK7)</f>
-        <v>117.09520000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>132.48439999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>94</v>
       </c>
@@ -5041,9 +5041,9 @@
         <v>60.321899999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="4">
         <v>105</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="F10" s="7">
         <f>AVERAGE(data!C9:L9) - data!B9</f>
-        <v>0.19999999999999929</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="G10" s="7">
         <f>MAX(data!C9:L9) - data!B9</f>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="J10" s="6">
         <f>AVERAGEIFS(data!P9:Y9, data!C9:L9, data!B9) / data!O9 -1</f>
-        <v>3.7004509616234138E-4</v>
+        <v>4.6050056411317541E-4</v>
       </c>
       <c r="K10" s="6">
         <f>_xlfn.MAXIFS(data!P9:Y9, data!C9:L9, data!B9)  / data!O9 -1</f>
@@ -5089,9 +5089,9 @@
         <v>109.17149999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="4">
         <v>107</v>
@@ -5137,7 +5137,7 @@
         <v>79.109400000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>96</v>
       </c>
@@ -5185,9 +5185,9 @@
         <v>77.322100000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="4">
         <v>107</v>
@@ -5206,11 +5206,11 @@
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(data!C12:L12) - data!B12</f>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="G13" s="7">
         <f>MAX(data!C12:L12) - data!B12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="22">
         <f>data!O12</f>
@@ -5233,9 +5233,9 @@
         <v>93.370299999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="4">
         <v>105</v>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="F14" s="7">
         <f>AVERAGE(data!C13:L13) - data!B13</f>
-        <v>0.59999999999999964</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="G14" s="7">
         <f>MAX(data!C13:L13) - data!B13</f>
@@ -5281,7 +5281,7 @@
         <v>94.940599999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -5295,7 +5295,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>90</v>
       </c>
@@ -5310,7 +5310,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>93</v>
       </c>
@@ -5358,9 +5358,9 @@
         <v>205.14360000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5">
         <v>103</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="J18" s="6">
         <f>AVERAGEIFS(data!P17:Y17, data!C17:L17, data!B17) / data!O17 -1</f>
-        <v>8.5408059600404762E-3</v>
+        <v>4.0669827294276928E-2</v>
       </c>
       <c r="K18" s="6">
         <f>_xlfn.MAXIFS(data!P17:Y17, data!C17:L17, data!B17)  / data!O17 -1</f>
@@ -5406,9 +5406,9 @@
         <v>199.27019999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="5">
         <v>103</v>
@@ -5454,7 +5454,7 @@
         <v>199.3638</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>95</v>
       </c>
@@ -5502,9 +5502,9 @@
         <v>115.47799999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="5">
         <v>101</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="F21" s="7">
         <f>AVERAGE(data!C20:L20) - data!B20</f>
-        <v>0.39999999999999991</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G21" s="7">
         <f>MAX(data!C20:L20) - data!B20</f>
@@ -5539,20 +5539,20 @@
       </c>
       <c r="J21" s="6">
         <f>AVERAGEIFS(data!P20:Y20, data!C20:L20, data!B20) / data!O20 -1</f>
-        <v>0</v>
+        <v>1.7429675954145907E-3</v>
       </c>
       <c r="K21" s="6">
         <f>_xlfn.MAXIFS(data!P20:Y20, data!C20:L20, data!B20)  / data!O20 -1</f>
-        <v>0</v>
+        <v>6.9718703816576966E-3</v>
       </c>
       <c r="L21" s="7">
         <f>AVERAGE(data!AB20:AK20)</f>
         <v>158.3861</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5">
         <v>101</v>
@@ -5587,18 +5587,18 @@
       </c>
       <c r="J22" s="6">
         <f>AVERAGEIFS(data!P21:Y21, data!C21:L21, data!B21) / data!O21 -1</f>
-        <v>1.0911070286452329E-3</v>
+        <v>-2.721643872938273E-6</v>
       </c>
       <c r="K22" s="6">
         <f>_xlfn.MAXIFS(data!P21:Y21, data!C21:L21, data!B21)  / data!O21 -1</f>
-        <v>5.4664217187179176E-3</v>
+        <v>-2.721643872938273E-6</v>
       </c>
       <c r="L22" s="7">
         <f>AVERAGE(data!AB21:AK21)</f>
         <v>495.35949999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>97</v>
       </c>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="J23" s="6">
         <f>AVERAGEIFS(data!P22:Y22, data!C22:L22, data!B22) / data!O22 -1</f>
-        <v>3.4543050876372217E-3</v>
+        <v>6.9086101752739992E-3</v>
       </c>
       <c r="K23" s="6">
         <f>_xlfn.MAXIFS(data!P22:Y22, data!C22:L22, data!B22)  / data!O22 -1</f>
@@ -5646,9 +5646,9 @@
         <v>109.367</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5">
         <v>103</v>
@@ -5694,9 +5694,9 @@
         <v>184.34200000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5">
         <v>103</v>
@@ -5731,16 +5731,19 @@
       </c>
       <c r="J25" s="6">
         <f>AVERAGEIFS(data!P24:Y24, data!C24:L24, data!B24) / data!O24 -1</f>
-        <v>5.9629857164800182E-3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="6">
         <f>_xlfn.MAXIFS(data!P24:Y24, data!C24:L24, data!B24)  / data!O24 -1</f>
-        <v>5.9629857164797961E-2</v>
+        <v>0</v>
       </c>
       <c r="L25" s="7">
         <f>AVERAGE(data!AB24:AK24)</f>
         <v>111.1066</v>
       </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4A9B83-11FA-4CED-BB4E-C2F2768C8F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453DBF0E-B561-452D-B32E-302A06344715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -1107,24 +1107,24 @@
   <dimension ref="A1:K243"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="9.140625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="18.54296875" style="8" customWidth="1"/>
+    <col min="2" max="9" width="9.1796875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1158,17 +1158,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -1184,17 +1184,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
@@ -1234,10 +1234,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>91</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="I26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="I27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="I28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="I29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="I30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="I31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="I32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="I33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="I34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="I36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="I37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="I38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="I39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="I40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="I48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="I49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>39</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>40</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>41</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>80</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>81</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>88</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>89</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>101</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>42</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>43</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
         <v>70</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>111</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
         <v>44</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1969,538 +1969,538 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="12"/>
     </row>
-    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="12"/>
     </row>
-    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="12"/>
     </row>
-    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="12"/>
     </row>
-    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="12"/>
     </row>
-    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="12"/>
     </row>
-    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="12"/>
     </row>
-    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="12"/>
     </row>
-    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="12"/>
     </row>
-    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="12"/>
     </row>
-    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12"/>
     </row>
-    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="12"/>
     </row>
-    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="12"/>
     </row>
-    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="12"/>
     </row>
-    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="12"/>
     </row>
-    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="12"/>
     </row>
-    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="12"/>
     </row>
-    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12"/>
     </row>
-    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="12"/>
     </row>
-    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="12"/>
     </row>
-    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="12"/>
     </row>
-    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="12"/>
     </row>
-    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="12"/>
     </row>
-    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="12"/>
     </row>
-    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="12"/>
     </row>
-    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="12"/>
     </row>
-    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="12"/>
     </row>
-    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="12"/>
     </row>
-    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="12"/>
     </row>
-    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="12"/>
     </row>
-    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="12"/>
     </row>
-    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="12"/>
     </row>
-    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="12"/>
     </row>
-    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="12"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="12"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="12"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="12"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="12"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="12"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="12"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="12"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="12"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="12"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="12"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="12"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="12"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="12"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="12"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="12"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="12"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="12"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="12"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="12"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="12"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="12"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="12"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="12"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="12"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="12"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="12"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="12"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="12"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="12"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="12"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="12"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="12"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="12"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="12"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="12"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="12"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="12"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="12"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="12"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="12"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="12"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="12"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="12"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="12"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="12"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="12"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="12"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="12"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="12"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="12"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="12"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="12"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="12"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="12"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="12"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="12"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="12"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="12"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="12"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="12"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="12"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="12"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="12"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="12"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="12"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="12"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="12"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="12"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="12"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="12"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="12"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="12"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="12"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="12"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="12"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="12"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="12"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="12"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="12"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="12"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="12"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="12"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="12"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="12"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="12"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="12"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="12"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="12"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="12"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="12"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="12"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="12"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="12"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="12"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="12"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="12"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="12"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="12"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="12"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="12"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="12"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="12"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="12"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="12"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="12"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="12"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="12"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="12"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="12"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="12"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="12"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="12"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="12"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="12"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="12"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="12"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="12"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="12"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="12"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="12"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="12"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="12"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="12"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="12"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="12"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="12"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="12"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="12"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="12"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="12"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="12"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="12"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="12"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="12"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="12"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="12"/>
     </row>
   </sheetData>
@@ -2514,23 +2514,23 @@
   <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.7109375" style="15"/>
-    <col min="14" max="14" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="8.7265625" style="15"/>
+    <col min="14" max="14" width="17.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="8.7109375" style="15"/>
-    <col min="27" max="27" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="37" width="8.5703125" style="15" customWidth="1"/>
-    <col min="38" max="16384" width="8.7109375" style="15"/>
+    <col min="16" max="26" width="8.7265625" style="15"/>
+    <col min="27" max="27" width="17.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="37" width="8.54296875" style="15" customWidth="1"/>
+    <col min="38" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>99</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="AJ1" s="25"/>
       <c r="AK1" s="26"/>
     </row>
-    <row r="2" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="AJ2" s="31"/>
       <c r="AK2" s="32"/>
     </row>
-    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26"/>
       <c r="B3" s="29"/>
       <c r="C3" s="16">
@@ -2729,7 +2729,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>91</v>
       </c>
@@ -2740,41 +2740,41 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="15">
         <v>10</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="17">
         <v>10</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="17">
         <v>10</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="17">
         <v>10</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="17">
         <v>10</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="17">
         <v>10</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="17">
         <v>10</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="17">
         <v>10</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="17">
         <v>10</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="17">
         <v>10</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="17">
         <v>10</v>
       </c>
       <c r="N5" s="15" t="s">
@@ -2817,71 +2817,71 @@
         <v>92</v>
       </c>
       <c r="AB5" s="17">
-        <v>113.782</v>
+        <v>192.98400000000001</v>
       </c>
       <c r="AC5" s="17">
-        <v>112.937</v>
+        <v>194.125</v>
       </c>
       <c r="AD5" s="17">
-        <v>112.64100000000001</v>
+        <v>194.03100000000001</v>
       </c>
       <c r="AE5" s="17">
-        <v>112.438</v>
+        <v>193.60900000000001</v>
       </c>
       <c r="AF5" s="17">
-        <v>112.625</v>
+        <v>194.31200000000001</v>
       </c>
       <c r="AG5" s="17">
-        <v>113.01600000000001</v>
+        <v>193.047</v>
       </c>
       <c r="AH5" s="17">
-        <v>114.297</v>
+        <v>193.453</v>
       </c>
       <c r="AI5" s="17">
-        <v>113.28100000000001</v>
+        <v>194.422</v>
       </c>
       <c r="AJ5" s="17">
-        <v>111.60899999999999</v>
+        <v>196.34399999999999</v>
       </c>
       <c r="AK5" s="17">
-        <v>112.422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196.298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="15">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="17">
         <v>9</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="17">
         <v>9</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="17">
         <v>9</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="17">
         <v>9</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="17">
         <v>9</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="17">
         <v>9</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="17">
         <v>9</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="17">
         <v>9</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="17">
         <v>9</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="17">
         <v>9</v>
       </c>
       <c r="N6" s="15" t="s">
@@ -2891,104 +2891,104 @@
         <v>1035.3499999999999</v>
       </c>
       <c r="P6" s="17">
-        <v>1054.23</v>
+        <v>1063.83</v>
       </c>
       <c r="Q6" s="17">
-        <v>1068.68</v>
+        <v>1053.21</v>
       </c>
       <c r="R6" s="17">
-        <v>1068.5999999999999</v>
+        <v>1063.83</v>
       </c>
       <c r="S6" s="17">
-        <v>1053.21</v>
+        <v>1049.26</v>
       </c>
       <c r="T6" s="17">
-        <v>1040.48</v>
+        <v>1055.92</v>
       </c>
       <c r="U6" s="17">
-        <v>1084.23</v>
+        <v>1055.92</v>
       </c>
       <c r="V6" s="17">
+        <v>1063.83</v>
+      </c>
+      <c r="W6" s="17">
+        <v>1055.92</v>
+      </c>
+      <c r="X6" s="17">
+        <v>1063.83</v>
+      </c>
+      <c r="Y6" s="17">
         <v>1035.3499999999999</v>
-      </c>
-      <c r="W6" s="17">
-        <v>1054.23</v>
-      </c>
-      <c r="X6" s="17">
-        <v>1054.23</v>
-      </c>
-      <c r="Y6" s="17">
-        <v>1068.28</v>
       </c>
       <c r="AA6" s="15" t="s">
         <v>108</v>
       </c>
       <c r="AB6" s="17">
-        <v>119.45399999999999</v>
+        <v>208.251</v>
       </c>
       <c r="AC6" s="17">
-        <v>118.40600000000001</v>
+        <v>204.96899999999999</v>
       </c>
       <c r="AD6" s="17">
-        <v>119.01600000000001</v>
+        <v>200.76599999999999</v>
       </c>
       <c r="AE6" s="17">
-        <v>119.34399999999999</v>
+        <v>193.172</v>
       </c>
       <c r="AF6" s="17">
-        <v>117.626</v>
+        <v>206.96899999999999</v>
       </c>
       <c r="AG6" s="17">
-        <v>120.218</v>
+        <v>196.73400000000001</v>
       </c>
       <c r="AH6" s="17">
-        <v>119.95399999999999</v>
+        <v>203.26599999999999</v>
       </c>
       <c r="AI6" s="17">
-        <v>118.095</v>
+        <v>207.39</v>
       </c>
       <c r="AJ6" s="17">
-        <v>120.03100000000001</v>
+        <v>203.36</v>
       </c>
       <c r="AK6" s="17">
-        <v>117.125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201.81200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B7" s="15">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="17">
         <v>9</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="17">
         <v>9</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="17">
         <v>9</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="17">
         <v>9</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="17">
         <v>9</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="17">
         <v>9</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="17">
         <v>9</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="17">
         <v>9</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="17">
         <v>9</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="17">
         <v>9</v>
       </c>
       <c r="N7" s="15" t="s">
@@ -2998,104 +2998,104 @@
         <v>860.01</v>
       </c>
       <c r="P7" s="17">
-        <v>875.38199999999995</v>
+        <v>875.73900000000003</v>
       </c>
       <c r="Q7" s="17">
         <v>863.59</v>
       </c>
       <c r="R7" s="17">
+        <v>875.73900000000003</v>
+      </c>
+      <c r="S7" s="17">
         <v>863.59</v>
       </c>
-      <c r="S7" s="17">
-        <v>861.64700000000005</v>
-      </c>
       <c r="T7" s="17">
-        <v>888.22699999999998</v>
+        <v>862.35799999999995</v>
       </c>
       <c r="U7" s="17">
-        <v>862.35799999999995</v>
+        <v>863.59</v>
       </c>
       <c r="V7" s="17">
         <v>861.95399999999995</v>
       </c>
       <c r="W7" s="17">
-        <v>878.61699999999996</v>
+        <v>861.64700000000005</v>
       </c>
       <c r="X7" s="17">
         <v>883.94799999999998</v>
       </c>
       <c r="Y7" s="17">
-        <v>861.64700000000005</v>
+        <v>861.95399999999995</v>
       </c>
       <c r="AA7" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AB7" s="17">
-        <v>132.453</v>
+        <v>224.84399999999999</v>
       </c>
       <c r="AC7" s="17">
-        <v>131.749</v>
+        <v>223.90600000000001</v>
       </c>
       <c r="AD7" s="17">
-        <v>133.35900000000001</v>
+        <v>228.40700000000001</v>
       </c>
       <c r="AE7" s="17">
-        <v>127.53</v>
+        <v>226.04599999999999</v>
       </c>
       <c r="AF7" s="17">
-        <v>131.251</v>
+        <v>225.06299999999999</v>
       </c>
       <c r="AG7" s="17">
-        <v>133.203</v>
+        <v>225.09299999999999</v>
       </c>
       <c r="AH7" s="17">
-        <v>133.61000000000001</v>
+        <v>223.59399999999999</v>
       </c>
       <c r="AI7" s="17">
-        <v>132.89099999999999</v>
+        <v>223.828</v>
       </c>
       <c r="AJ7" s="17">
-        <v>134.36000000000001</v>
+        <v>223.54599999999999</v>
       </c>
       <c r="AK7" s="17">
-        <v>134.43799999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>227.98500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="15">
         <v>19</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="17">
         <v>19</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="17">
         <v>19</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="17">
         <v>19</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="17">
         <v>19</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="17">
         <v>19</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="17">
         <v>19</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="17">
         <v>19</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="17">
         <v>19</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="17">
         <v>19</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="17">
         <v>19</v>
       </c>
       <c r="N8" s="15" t="s">
@@ -3138,71 +3138,71 @@
         <v>94</v>
       </c>
       <c r="AB8" s="17">
-        <v>60.734000000000002</v>
+        <v>95.781000000000006</v>
       </c>
       <c r="AC8" s="17">
-        <v>60.170999999999999</v>
+        <v>95.141000000000005</v>
       </c>
       <c r="AD8" s="17">
-        <v>60.546999999999997</v>
+        <v>94.858000000000004</v>
       </c>
       <c r="AE8" s="17">
-        <v>60.515999999999998</v>
+        <v>95.11</v>
       </c>
       <c r="AF8" s="17">
-        <v>60.171999999999997</v>
+        <v>95.546999999999997</v>
       </c>
       <c r="AG8" s="17">
-        <v>60.156999999999996</v>
+        <v>95.188000000000002</v>
       </c>
       <c r="AH8" s="17">
-        <v>60.046999999999997</v>
+        <v>96.218999999999994</v>
       </c>
       <c r="AI8" s="17">
-        <v>60.484000000000002</v>
+        <v>94.828000000000003</v>
       </c>
       <c r="AJ8" s="17">
-        <v>59.920999999999999</v>
+        <v>96.563000000000002</v>
       </c>
       <c r="AK8" s="17">
-        <v>60.47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95.608999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="15">
         <v>9</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="17">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17">
         <v>9</v>
       </c>
-      <c r="D9" s="15">
+      <c r="E9" s="17">
         <v>9</v>
       </c>
-      <c r="E9" s="15">
+      <c r="F9" s="17">
+        <v>10</v>
+      </c>
+      <c r="G9" s="17">
         <v>9</v>
       </c>
-      <c r="F9" s="15">
+      <c r="H9" s="17">
         <v>9</v>
       </c>
-      <c r="G9" s="15">
+      <c r="I9" s="17">
         <v>9</v>
       </c>
-      <c r="H9" s="15">
+      <c r="J9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="15">
-        <v>9</v>
-      </c>
-      <c r="J9" s="15">
-        <v>9</v>
-      </c>
-      <c r="K9" s="15">
-        <v>9</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="K9" s="17">
+        <v>10</v>
+      </c>
+      <c r="L9" s="17">
         <v>9</v>
       </c>
       <c r="N9" s="15" t="s">
@@ -3212,104 +3212,104 @@
         <v>1013.39</v>
       </c>
       <c r="P9" s="17">
-        <v>1013.39</v>
+        <v>1033.54</v>
       </c>
       <c r="Q9" s="17">
-        <v>1013.39</v>
+        <v>1013.99</v>
       </c>
       <c r="R9" s="17">
         <v>1013.99</v>
       </c>
       <c r="S9" s="17">
-        <v>1013.99</v>
+        <v>1033.54</v>
       </c>
       <c r="T9" s="17">
         <v>1013.99</v>
       </c>
       <c r="U9" s="17">
-        <v>1067.01</v>
+        <v>1013.99</v>
       </c>
       <c r="V9" s="17">
         <v>1013.99</v>
       </c>
       <c r="W9" s="17">
-        <v>1013.99</v>
+        <v>1067.8900000000001</v>
       </c>
       <c r="X9" s="17">
-        <v>1013.99</v>
+        <v>1045.99</v>
       </c>
       <c r="Y9" s="17">
-        <v>1013.99</v>
+        <v>1013.39</v>
       </c>
       <c r="AA9" s="15" t="s">
         <v>109</v>
       </c>
       <c r="AB9" s="17">
-        <v>110.75</v>
+        <v>182.06200000000001</v>
       </c>
       <c r="AC9" s="17">
-        <v>108.485</v>
+        <v>191.15700000000001</v>
       </c>
       <c r="AD9" s="17">
-        <v>106.64</v>
+        <v>181.43799999999999</v>
       </c>
       <c r="AE9" s="17">
-        <v>112.42100000000001</v>
+        <v>181.28100000000001</v>
       </c>
       <c r="AF9" s="17">
-        <v>110.53100000000001</v>
+        <v>186.96799999999999</v>
       </c>
       <c r="AG9" s="17">
-        <v>106.64</v>
+        <v>187.73400000000001</v>
       </c>
       <c r="AH9" s="17">
-        <v>104.84399999999999</v>
+        <v>186.67099999999999</v>
       </c>
       <c r="AI9" s="17">
-        <v>112.10899999999999</v>
+        <v>178.53200000000001</v>
       </c>
       <c r="AJ9" s="17">
-        <v>111.624</v>
+        <v>174.03200000000001</v>
       </c>
       <c r="AK9" s="17">
-        <v>107.67100000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186.672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B10" s="15">
         <v>14</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="17">
         <v>14</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="17">
         <v>14</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="17">
         <v>14</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="17">
         <v>14</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="17">
         <v>14</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="17">
         <v>14</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="17">
         <v>14</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="17">
         <v>14</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="17">
         <v>14</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="17">
         <v>14</v>
       </c>
       <c r="N10" s="15" t="s">
@@ -3352,71 +3352,71 @@
         <v>119</v>
       </c>
       <c r="AB10" s="17">
-        <v>79.281000000000006</v>
+        <v>128.96899999999999</v>
       </c>
       <c r="AC10" s="17">
-        <v>80.97</v>
+        <v>129.453</v>
       </c>
       <c r="AD10" s="17">
-        <v>78</v>
+        <v>128.79599999999999</v>
       </c>
       <c r="AE10" s="17">
-        <v>77.296000000000006</v>
+        <v>128.703</v>
       </c>
       <c r="AF10" s="17">
-        <v>80.016000000000005</v>
+        <v>128.5</v>
       </c>
       <c r="AG10" s="17">
-        <v>79.406000000000006</v>
+        <v>127.953</v>
       </c>
       <c r="AH10" s="17">
-        <v>79.36</v>
+        <v>127.95399999999999</v>
       </c>
       <c r="AI10" s="17">
-        <v>79.078000000000003</v>
+        <v>128.68600000000001</v>
       </c>
       <c r="AJ10" s="17">
-        <v>78.921999999999997</v>
+        <v>127.626</v>
       </c>
       <c r="AK10" s="17">
-        <v>78.765000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127.89100000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="15">
         <v>14</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="17">
         <v>14</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="17">
         <v>14</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="17">
         <v>14</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="17">
         <v>14</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="17">
         <v>14</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="17">
         <v>14</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="17">
         <v>14</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="17">
         <v>14</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="17">
         <v>14</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="17">
         <v>14</v>
       </c>
       <c r="N11" s="15" t="s">
@@ -3459,71 +3459,71 @@
         <v>96</v>
       </c>
       <c r="AB11" s="17">
-        <v>77.376000000000005</v>
+        <v>125.657</v>
       </c>
       <c r="AC11" s="17">
-        <v>77.375</v>
+        <v>126.42100000000001</v>
       </c>
       <c r="AD11" s="17">
-        <v>77.328000000000003</v>
+        <v>125.735</v>
       </c>
       <c r="AE11" s="17">
-        <v>77.608999999999995</v>
+        <v>126.953</v>
       </c>
       <c r="AF11" s="17">
-        <v>77.531000000000006</v>
+        <v>132.07900000000001</v>
       </c>
       <c r="AG11" s="17">
-        <v>77.593999999999994</v>
+        <v>129.46799999999999</v>
       </c>
       <c r="AH11" s="17">
-        <v>76.906999999999996</v>
+        <v>130.875</v>
       </c>
       <c r="AI11" s="17">
-        <v>76.875</v>
+        <v>132.71899999999999</v>
       </c>
       <c r="AJ11" s="17">
-        <v>77.858999999999995</v>
+        <v>129.96799999999999</v>
       </c>
       <c r="AK11" s="17">
-        <v>76.766999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126.532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="15">
         <v>11</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="17">
         <v>11</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="17">
         <v>11</v>
       </c>
-      <c r="E12" s="15">
-        <v>12</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="E12" s="17">
         <v>11</v>
       </c>
-      <c r="G12" s="15">
+      <c r="F12" s="17">
         <v>11</v>
       </c>
-      <c r="H12" s="15">
+      <c r="G12" s="17">
         <v>11</v>
       </c>
-      <c r="I12" s="15">
+      <c r="H12" s="17">
         <v>11</v>
       </c>
-      <c r="J12" s="15">
+      <c r="I12" s="17">
         <v>11</v>
       </c>
-      <c r="K12" s="15">
+      <c r="J12" s="17">
         <v>11</v>
       </c>
-      <c r="L12" s="15">
+      <c r="K12" s="17">
+        <v>11</v>
+      </c>
+      <c r="L12" s="17">
         <v>11</v>
       </c>
       <c r="N12" s="15" t="s">
@@ -3539,7 +3539,7 @@
         <v>1424.73</v>
       </c>
       <c r="R12" s="17">
-        <v>1440.44</v>
+        <v>1424.73</v>
       </c>
       <c r="S12" s="17">
         <v>1424.73</v>
@@ -3566,72 +3566,72 @@
         <v>112</v>
       </c>
       <c r="AB12" s="17">
-        <v>91.203000000000003</v>
+        <v>156.48400000000001</v>
       </c>
       <c r="AC12" s="17">
-        <v>94</v>
+        <v>156.60900000000001</v>
       </c>
       <c r="AD12" s="17">
-        <v>95.641000000000005</v>
+        <v>154.59299999999999</v>
       </c>
       <c r="AE12" s="17">
-        <v>94.36</v>
+        <v>154.85900000000001</v>
       </c>
       <c r="AF12" s="17">
-        <v>92.781000000000006</v>
+        <v>158</v>
       </c>
       <c r="AG12" s="17">
-        <v>93.593999999999994</v>
+        <v>156.18700000000001</v>
       </c>
       <c r="AH12" s="17">
-        <v>92.078000000000003</v>
+        <v>155.46799999999999</v>
       </c>
       <c r="AI12" s="17">
-        <v>94.233999999999995</v>
+        <v>156.345</v>
       </c>
       <c r="AJ12" s="17">
-        <v>91.343999999999994</v>
+        <v>157.43700000000001</v>
       </c>
       <c r="AK12" s="17">
-        <v>94.468000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154.453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="15">
         <v>10</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="17">
         <v>10</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="17">
+        <v>11</v>
+      </c>
+      <c r="E13" s="17">
         <v>10</v>
       </c>
-      <c r="E13" s="15">
+      <c r="F13" s="17">
+        <v>11</v>
+      </c>
+      <c r="G13" s="17">
         <v>10</v>
       </c>
-      <c r="F13" s="15">
+      <c r="H13" s="17">
         <v>10</v>
       </c>
-      <c r="G13" s="15">
+      <c r="I13" s="17">
+        <v>10</v>
+      </c>
+      <c r="J13" s="17">
+        <v>10</v>
+      </c>
+      <c r="K13" s="17">
+        <v>10</v>
+      </c>
+      <c r="L13" s="17">
         <v>11</v>
-      </c>
-      <c r="H13" s="15">
-        <v>11</v>
-      </c>
-      <c r="I13" s="15">
-        <v>10</v>
-      </c>
-      <c r="J13" s="15">
-        <v>10</v>
-      </c>
-      <c r="K13" s="15">
-        <v>10</v>
-      </c>
-      <c r="L13" s="15">
-        <v>10</v>
       </c>
       <c r="N13" s="15" t="s">
         <v>110</v>
@@ -3643,19 +3643,19 @@
         <v>1147.43</v>
       </c>
       <c r="Q13" s="17">
-        <v>1147.43</v>
+        <v>1177.8</v>
       </c>
       <c r="R13" s="17">
         <v>1147.43</v>
       </c>
       <c r="S13" s="17">
+        <v>1175.6500000000001</v>
+      </c>
+      <c r="T13" s="17">
         <v>1147.43</v>
       </c>
-      <c r="T13" s="17">
-        <v>1175.6500000000001</v>
-      </c>
       <c r="U13" s="17">
-        <v>1177.8</v>
+        <v>1147.43</v>
       </c>
       <c r="V13" s="17">
         <v>1147.43</v>
@@ -3667,43 +3667,43 @@
         <v>1147.43</v>
       </c>
       <c r="Y13" s="17">
-        <v>1147.43</v>
+        <v>1177.8</v>
       </c>
       <c r="AA13" s="15" t="s">
         <v>110</v>
       </c>
       <c r="AB13" s="17">
-        <v>98.703000000000003</v>
+        <v>162.40700000000001</v>
       </c>
       <c r="AC13" s="17">
-        <v>96.733999999999995</v>
+        <v>158.172</v>
       </c>
       <c r="AD13" s="17">
-        <v>93.968999999999994</v>
+        <v>159.39099999999999</v>
       </c>
       <c r="AE13" s="17">
-        <v>97.546000000000006</v>
+        <v>158.39099999999999</v>
       </c>
       <c r="AF13" s="17">
-        <v>94.031000000000006</v>
+        <v>163.874</v>
       </c>
       <c r="AG13" s="17">
-        <v>94.061999999999998</v>
+        <v>165.298</v>
       </c>
       <c r="AH13" s="17">
-        <v>93.766000000000005</v>
+        <v>162.09399999999999</v>
       </c>
       <c r="AI13" s="17">
-        <v>94.688000000000002</v>
+        <v>163.672</v>
       </c>
       <c r="AJ13" s="17">
-        <v>93.343999999999994</v>
+        <v>162.17099999999999</v>
       </c>
       <c r="AK13" s="17">
-        <v>92.563000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157.43700000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -3726,7 +3726,7 @@
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>90</v>
       </c>
@@ -3748,41 +3748,41 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="15">
         <v>3</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="17">
         <v>3</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="17">
         <v>3</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="17">
         <v>3</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="17">
         <v>3</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="17">
         <v>3</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="17">
         <v>3</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="17">
         <v>3</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="17">
         <v>3</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="17">
         <v>3</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="17">
         <v>3</v>
       </c>
       <c r="N16" s="15" t="s">
@@ -3825,71 +3825,71 @@
         <v>93</v>
       </c>
       <c r="AB16" s="17">
-        <v>201.03100000000001</v>
+        <v>407.57799999999997</v>
       </c>
       <c r="AC16" s="17">
-        <v>205.28100000000001</v>
+        <v>420.45299999999997</v>
       </c>
       <c r="AD16" s="17">
-        <v>199.172</v>
+        <v>404.03199999999998</v>
       </c>
       <c r="AE16" s="17">
-        <v>204.5</v>
+        <v>422.875</v>
       </c>
       <c r="AF16" s="17">
-        <v>207.31200000000001</v>
+        <v>414.76600000000002</v>
       </c>
       <c r="AG16" s="17">
-        <v>207.93700000000001</v>
+        <v>423.26600000000002</v>
       </c>
       <c r="AH16" s="17">
-        <v>207.51499999999999</v>
+        <v>419.14</v>
       </c>
       <c r="AI16" s="17">
-        <v>204.82900000000001</v>
+        <v>410.81200000000001</v>
       </c>
       <c r="AJ16" s="17">
-        <v>211.328</v>
+        <v>415.28199999999998</v>
       </c>
       <c r="AK16" s="17">
-        <v>202.53100000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>414.76600000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B17" s="15">
         <v>3</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="17">
         <v>3</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="17">
         <v>3</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="17">
         <v>3</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="17">
         <v>3</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="17">
         <v>3</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="17">
         <v>3</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="17">
         <v>3</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="17">
         <v>3</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="17">
         <v>3</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="17">
         <v>3</v>
       </c>
       <c r="N17" s="15" t="s">
@@ -3899,10 +3899,10 @@
         <v>590.6</v>
       </c>
       <c r="P17" s="17">
+        <v>591.173</v>
+      </c>
+      <c r="Q17" s="17">
         <v>590.59900000000005</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>638.18100000000004</v>
       </c>
       <c r="R17" s="17">
         <v>638.18100000000004</v>
@@ -3911,10 +3911,10 @@
         <v>591.173</v>
       </c>
       <c r="T17" s="17">
-        <v>591.173</v>
+        <v>638.75599999999997</v>
       </c>
       <c r="U17" s="17">
-        <v>591.173</v>
+        <v>590.59900000000005</v>
       </c>
       <c r="V17" s="17">
         <v>638.18100000000004</v>
@@ -3923,80 +3923,80 @@
         <v>591.173</v>
       </c>
       <c r="X17" s="17">
-        <v>638.18100000000004</v>
+        <v>638.75599999999997</v>
       </c>
       <c r="Y17" s="17">
-        <v>638.18100000000004</v>
+        <v>591.173</v>
       </c>
       <c r="AA17" s="15" t="s">
         <v>117</v>
       </c>
       <c r="AB17" s="17">
-        <v>204.09399999999999</v>
+        <v>419.84300000000002</v>
       </c>
       <c r="AC17" s="17">
-        <v>193.76499999999999</v>
+        <v>414.53100000000001</v>
       </c>
       <c r="AD17" s="17">
-        <v>198.98400000000001</v>
+        <v>407.87599999999998</v>
       </c>
       <c r="AE17" s="17">
-        <v>198.60900000000001</v>
+        <v>404.56299999999999</v>
       </c>
       <c r="AF17" s="17">
-        <v>204.374</v>
+        <v>402.18799999999999</v>
       </c>
       <c r="AG17" s="17">
-        <v>197.85900000000001</v>
+        <v>398.03100000000001</v>
       </c>
       <c r="AH17" s="17">
-        <v>198.90700000000001</v>
+        <v>411.18799999999999</v>
       </c>
       <c r="AI17" s="17">
-        <v>194.68799999999999</v>
+        <v>426.73399999999998</v>
       </c>
       <c r="AJ17" s="17">
-        <v>202.078</v>
+        <v>421.40699999999998</v>
       </c>
       <c r="AK17" s="17">
-        <v>199.34399999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+        <v>428.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="15">
         <v>3</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="17">
         <v>3</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="17">
         <v>3</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="17">
         <v>3</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="17">
         <v>3</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="17">
         <v>3</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="17">
         <v>3</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="17">
         <v>3</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="17">
         <v>3</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="17">
         <v>3</v>
       </c>
       <c r="N18" s="15" t="s">
@@ -4039,71 +4039,71 @@
         <v>116</v>
       </c>
       <c r="AB18" s="17">
-        <v>203.23500000000001</v>
+        <v>416.51499999999999</v>
       </c>
       <c r="AC18" s="17">
-        <v>195.249</v>
+        <v>410.25</v>
       </c>
       <c r="AD18" s="17">
-        <v>199.11</v>
+        <v>406.39100000000002</v>
       </c>
       <c r="AE18" s="17">
-        <v>199.26499999999999</v>
+        <v>408.87400000000002</v>
       </c>
       <c r="AF18" s="17">
-        <v>200.43700000000001</v>
+        <v>421.125</v>
       </c>
       <c r="AG18" s="17">
-        <v>203.29599999999999</v>
+        <v>432.03100000000001</v>
       </c>
       <c r="AH18" s="17">
-        <v>197.78100000000001</v>
+        <v>423.017</v>
       </c>
       <c r="AI18" s="17">
-        <v>195.40600000000001</v>
+        <v>423.875</v>
       </c>
       <c r="AJ18" s="17">
-        <v>195.547</v>
+        <v>414.04700000000003</v>
       </c>
       <c r="AK18" s="17">
-        <v>204.31200000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>406.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B19" s="15">
         <v>4</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="17">
         <v>4</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="17">
         <v>4</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="17">
         <v>4</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="17">
         <v>4</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="17">
         <v>4</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="17">
         <v>4</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="17">
         <v>4</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="17">
         <v>4</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="17">
         <v>4</v>
       </c>
       <c r="N19" s="15" t="s">
@@ -4146,72 +4146,72 @@
         <v>95</v>
       </c>
       <c r="AB19" s="17">
-        <v>116.187</v>
+        <v>233.90700000000001</v>
       </c>
       <c r="AC19" s="17">
-        <v>116.46899999999999</v>
+        <v>234.65600000000001</v>
       </c>
       <c r="AD19" s="17">
-        <v>117.23399999999999</v>
+        <v>231.06299999999999</v>
       </c>
       <c r="AE19" s="17">
-        <v>111.125</v>
+        <v>224.84399999999999</v>
       </c>
       <c r="AF19" s="17">
-        <v>116.34399999999999</v>
+        <v>232.18799999999999</v>
       </c>
       <c r="AG19" s="17">
-        <v>107.937</v>
+        <v>226.42099999999999</v>
       </c>
       <c r="AH19" s="17">
-        <v>119.062</v>
+        <v>240.09299999999999</v>
       </c>
       <c r="AI19" s="17">
-        <v>117.453</v>
+        <v>220.90700000000001</v>
       </c>
       <c r="AJ19" s="17">
-        <v>118.60899999999999</v>
+        <v>235</v>
       </c>
       <c r="AK19" s="17">
-        <v>114.36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+        <v>233.578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B20" s="15">
         <v>3</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="17">
+        <v>4</v>
+      </c>
+      <c r="D20" s="17">
         <v>3</v>
       </c>
-      <c r="D20" s="15">
+      <c r="E20" s="17">
+        <v>3</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3</v>
+      </c>
+      <c r="G20" s="17">
+        <v>3</v>
+      </c>
+      <c r="H20" s="17">
+        <v>3</v>
+      </c>
+      <c r="I20" s="17">
         <v>4</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="17">
         <v>3</v>
       </c>
-      <c r="F20" s="15">
-        <v>3</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="K20" s="17">
         <v>4</v>
       </c>
-      <c r="H20" s="15">
+      <c r="L20" s="17">
         <v>4</v>
-      </c>
-      <c r="I20" s="15">
-        <v>4</v>
-      </c>
-      <c r="J20" s="15">
-        <v>4</v>
-      </c>
-      <c r="K20" s="15">
-        <v>4</v>
-      </c>
-      <c r="L20" s="15">
-        <v>3</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>114</v>
@@ -4220,104 +4220,104 @@
         <v>1197.67</v>
       </c>
       <c r="P20" s="17">
+        <v>1250.0899999999999</v>
+      </c>
+      <c r="Q20" s="17">
         <v>1197.67</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>1250.0999999999999</v>
       </c>
       <c r="R20" s="17">
         <v>1197.67</v>
       </c>
       <c r="S20" s="17">
+        <v>1197.67</v>
+      </c>
+      <c r="T20" s="17">
         <v>1206.02</v>
       </c>
-      <c r="T20" s="17">
+      <c r="U20" s="17">
+        <v>1197.67</v>
+      </c>
+      <c r="V20" s="17">
         <v>1250.0999999999999</v>
       </c>
-      <c r="U20" s="17">
+      <c r="W20" s="17">
+        <v>1197.67</v>
+      </c>
+      <c r="X20" s="17">
         <v>1250.0999999999999</v>
       </c>
-      <c r="V20" s="17">
+      <c r="Y20" s="17">
         <v>1250.0899999999999</v>
-      </c>
-      <c r="W20" s="17">
-        <v>1250.0999999999999</v>
-      </c>
-      <c r="X20" s="17">
-        <v>1250.0899999999999</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>1197.67</v>
       </c>
       <c r="AA20" s="15" t="s">
         <v>114</v>
       </c>
       <c r="AB20" s="17">
-        <v>143.40600000000001</v>
+        <v>268.75099999999998</v>
       </c>
       <c r="AC20" s="17">
-        <v>138.03200000000001</v>
+        <v>396.15600000000001</v>
       </c>
       <c r="AD20" s="17">
-        <v>141.46899999999999</v>
+        <v>314.548</v>
       </c>
       <c r="AE20" s="17">
-        <v>187.672</v>
+        <v>308.17200000000003</v>
       </c>
       <c r="AF20" s="17">
-        <v>163.90700000000001</v>
+        <v>294.54700000000003</v>
       </c>
       <c r="AG20" s="17">
-        <v>155.59399999999999</v>
+        <v>300.10899999999998</v>
       </c>
       <c r="AH20" s="17">
-        <v>188.21899999999999</v>
+        <v>268.5</v>
       </c>
       <c r="AI20" s="17">
-        <v>153.17099999999999</v>
+        <v>368.26600000000002</v>
       </c>
       <c r="AJ20" s="17">
-        <v>173.797</v>
+        <v>274.06299999999999</v>
       </c>
       <c r="AK20" s="17">
-        <v>138.59399999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+        <v>266.28100000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B21" s="15">
         <v>2</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="17">
         <v>2</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="17">
         <v>2</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="17">
         <v>2</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="17">
         <v>2</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="17">
         <v>2</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="17">
         <v>2</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="17">
         <v>2</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="17">
         <v>2</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="17">
         <v>2</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="17">
         <v>2</v>
       </c>
       <c r="N21" s="15" t="s">
@@ -4330,7 +4330,7 @@
         <v>734.84799999999996</v>
       </c>
       <c r="Q21" s="17">
-        <v>734.84799999999996</v>
+        <v>738.86699999999996</v>
       </c>
       <c r="R21" s="17">
         <v>734.84799999999996</v>
@@ -4360,71 +4360,71 @@
         <v>115</v>
       </c>
       <c r="AB21" s="17">
-        <v>518.09400000000005</v>
+        <v>1030.6600000000001</v>
       </c>
       <c r="AC21" s="17">
-        <v>465.95400000000001</v>
+        <v>1089.3</v>
       </c>
       <c r="AD21" s="17">
-        <v>487.875</v>
+        <v>996.15700000000004</v>
       </c>
       <c r="AE21" s="17">
-        <v>471.06200000000001</v>
+        <v>1065.5899999999999</v>
       </c>
       <c r="AF21" s="17">
-        <v>507.42099999999999</v>
+        <v>1054.17</v>
       </c>
       <c r="AG21" s="17">
-        <v>507.57799999999997</v>
+        <v>1022.83</v>
       </c>
       <c r="AH21" s="17">
-        <v>497.03199999999998</v>
+        <v>1109.81</v>
       </c>
       <c r="AI21" s="17">
-        <v>475.56299999999999</v>
+        <v>1060.3800000000001</v>
       </c>
       <c r="AJ21" s="17">
-        <v>500.59399999999999</v>
+        <v>980</v>
       </c>
       <c r="AK21" s="17">
-        <v>522.42200000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1013.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B22" s="15">
         <v>4</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="17">
         <v>4</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="17">
         <v>4</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="17">
         <v>4</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="17">
         <v>4</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="17">
         <v>4</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="17">
         <v>4</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="17">
         <v>4</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="17">
         <v>4</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="17">
         <v>4</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="17">
         <v>4</v>
       </c>
       <c r="N22" s="15" t="s">
@@ -4437,7 +4437,7 @@
         <v>1406.94</v>
       </c>
       <c r="Q22" s="17">
-        <v>1406.94</v>
+        <v>1455.54</v>
       </c>
       <c r="R22" s="17">
         <v>1406.94</v>
@@ -4449,16 +4449,16 @@
         <v>1406.94</v>
       </c>
       <c r="U22" s="17">
+        <v>1455.54</v>
+      </c>
+      <c r="V22" s="17">
         <v>1406.94</v>
-      </c>
-      <c r="V22" s="17">
-        <v>1455.54</v>
       </c>
       <c r="W22" s="17">
         <v>1406.94</v>
       </c>
       <c r="X22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="Y22" s="17">
         <v>1406.94</v>
@@ -4467,71 +4467,71 @@
         <v>97</v>
       </c>
       <c r="AB22" s="17">
-        <v>108.797</v>
+        <v>223.54599999999999</v>
       </c>
       <c r="AC22" s="17">
-        <v>110.297</v>
+        <v>217.39</v>
       </c>
       <c r="AD22" s="17">
-        <v>112.29600000000001</v>
+        <v>221.39</v>
       </c>
       <c r="AE22" s="17">
-        <v>109.062</v>
+        <v>218.625</v>
       </c>
       <c r="AF22" s="17">
-        <v>112.92100000000001</v>
+        <v>212.078</v>
       </c>
       <c r="AG22" s="17">
-        <v>106.578</v>
+        <v>206.125</v>
       </c>
       <c r="AH22" s="17">
-        <v>104.40600000000001</v>
+        <v>218.703</v>
       </c>
       <c r="AI22" s="17">
-        <v>110.922</v>
+        <v>201.953</v>
       </c>
       <c r="AJ22" s="17">
-        <v>103.39</v>
+        <v>222.95400000000001</v>
       </c>
       <c r="AK22" s="17">
-        <v>115.001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+        <v>219.90600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B23" s="15">
         <v>3</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="17">
         <v>3</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="17">
         <v>3</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="17">
         <v>3</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="17">
         <v>3</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="17">
         <v>3</v>
       </c>
-      <c r="H23" s="15">
-        <v>4</v>
-      </c>
-      <c r="I23" s="15">
+      <c r="H23" s="17">
         <v>3</v>
       </c>
-      <c r="J23" s="15">
+      <c r="I23" s="17">
         <v>3</v>
       </c>
-      <c r="K23" s="15">
+      <c r="J23" s="17">
         <v>3</v>
       </c>
-      <c r="L23" s="15">
+      <c r="K23" s="17">
+        <v>3</v>
+      </c>
+      <c r="L23" s="17">
         <v>3</v>
       </c>
       <c r="N23" s="15" t="s">
@@ -4556,7 +4556,7 @@
         <v>1089.07</v>
       </c>
       <c r="U23" s="17">
-        <v>1122.19</v>
+        <v>1089.07</v>
       </c>
       <c r="V23" s="17">
         <v>1089.07</v>
@@ -4574,71 +4574,71 @@
         <v>113</v>
       </c>
       <c r="AB23" s="17">
-        <v>162.375</v>
+        <v>415.25099999999998</v>
       </c>
       <c r="AC23" s="17">
-        <v>193.43700000000001</v>
+        <v>384.25099999999998</v>
       </c>
       <c r="AD23" s="17">
-        <v>148.001</v>
+        <v>401.73399999999998</v>
       </c>
       <c r="AE23" s="17">
-        <v>189.25</v>
+        <v>377.702</v>
       </c>
       <c r="AF23" s="17">
-        <v>189.26599999999999</v>
+        <v>389.40699999999998</v>
       </c>
       <c r="AG23" s="17">
-        <v>202.655</v>
+        <v>408.358</v>
       </c>
       <c r="AH23" s="17">
-        <v>193.53100000000001</v>
+        <v>405.15699999999998</v>
       </c>
       <c r="AI23" s="17">
-        <v>175.375</v>
+        <v>394.5</v>
       </c>
       <c r="AJ23" s="17">
-        <v>196.09299999999999</v>
+        <v>434.04700000000003</v>
       </c>
       <c r="AK23" s="17">
-        <v>193.43700000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+        <v>405.62400000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B24" s="15">
         <v>4</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="17">
         <v>4</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="17">
         <v>4</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="17">
         <v>4</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="17">
         <v>4</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="17">
         <v>4</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="17">
         <v>4</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="17">
         <v>4</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="17">
         <v>4</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="17">
         <v>4</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="17">
         <v>4</v>
       </c>
       <c r="N24" s="15" t="s">
@@ -4681,34 +4681,34 @@
         <v>118</v>
       </c>
       <c r="AB24" s="17">
-        <v>111.07899999999999</v>
+        <v>234.578</v>
       </c>
       <c r="AC24" s="17">
-        <v>108.76600000000001</v>
+        <v>227.86</v>
       </c>
       <c r="AD24" s="17">
-        <v>112.875</v>
+        <v>228.577</v>
       </c>
       <c r="AE24" s="17">
-        <v>110.187</v>
+        <v>229.17099999999999</v>
       </c>
       <c r="AF24" s="17">
-        <v>113.062</v>
+        <v>228.23400000000001</v>
       </c>
       <c r="AG24" s="17">
-        <v>108.063</v>
+        <v>224.79599999999999</v>
       </c>
       <c r="AH24" s="17">
-        <v>108.39100000000001</v>
+        <v>211.84399999999999</v>
       </c>
       <c r="AI24" s="17">
-        <v>115.313</v>
+        <v>232.93700000000001</v>
       </c>
       <c r="AJ24" s="17">
-        <v>111.798</v>
+        <v>221.51599999999999</v>
       </c>
       <c r="AK24" s="17">
-        <v>111.532</v>
+        <v>226.203</v>
       </c>
     </row>
   </sheetData>
@@ -4735,20 +4735,20 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="5" customWidth="1"/>
-    <col min="4" max="11" width="10.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="17.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="5" customWidth="1"/>
+    <col min="4" max="11" width="10.54296875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="38"/>
@@ -4842,14 +4842,14 @@
       </c>
       <c r="L4" s="47"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>92</v>
       </c>
@@ -4894,10 +4894,10 @@
       </c>
       <c r="L6" s="7">
         <f>AVERAGE(data!AB5:AK5)</f>
-        <v>112.90479999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>194.26250000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>108</v>
       </c>
@@ -4934,18 +4934,18 @@
       </c>
       <c r="J7" s="6">
         <f>AVERAGEIFS(data!P6:Y6, data!C6:L6, data!B6) / data!O6 -1</f>
-        <v>2.2023470324044947E-2</v>
+        <v>2.0031873279567458E-2</v>
       </c>
       <c r="K7" s="6">
         <f>_xlfn.MAXIFS(data!P6:Y6, data!C6:L6, data!B6)  / data!O6 -1</f>
-        <v>4.7211088037861781E-2</v>
+        <v>2.750760612353309E-2</v>
       </c>
       <c r="L7" s="7">
         <f>AVERAGE(data!AB6:AK6)</f>
-        <v>118.9269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>202.66889999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>122</v>
       </c>
@@ -4982,18 +4982,18 @@
       </c>
       <c r="J8" s="6">
         <f>AVERAGEIFS(data!P7:Y7, data!C7:L7, data!B7) / data!O7 -1</f>
-        <v>1.1727770607318666E-2</v>
+        <v>8.6055976093302178E-3</v>
       </c>
       <c r="K8" s="6">
         <f>_xlfn.MAXIFS(data!P7:Y7, data!C7:L7, data!B7)  / data!O7 -1</f>
-        <v>3.2810083603679097E-2</v>
+        <v>2.7834560063255021E-2</v>
       </c>
       <c r="L8" s="7">
         <f>AVERAGE(data!AB7:AK7)</f>
-        <v>132.48439999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>225.23120000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>94</v>
       </c>
@@ -5038,10 +5038,10 @@
       </c>
       <c r="L9" s="7">
         <f>AVERAGE(data!AB8:AK8)</f>
-        <v>60.321899999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>95.484400000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>109</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="F10" s="7">
         <f>AVERAGE(data!C9:L9) - data!B9</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0.40000000000000036</v>
       </c>
       <c r="G10" s="7">
         <f>MAX(data!C9:L9) - data!B9</f>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="J10" s="6">
         <f>AVERAGEIFS(data!P9:Y9, data!C9:L9, data!B9) / data!O9 -1</f>
-        <v>4.6050056411317541E-4</v>
+        <v>4.9339346154986252E-4</v>
       </c>
       <c r="K10" s="6">
         <f>_xlfn.MAXIFS(data!P9:Y9, data!C9:L9, data!B9)  / data!O9 -1</f>
@@ -5086,10 +5086,10 @@
       </c>
       <c r="L10" s="7">
         <f>AVERAGE(data!AB9:AK9)</f>
-        <v>109.17149999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183.65469999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>119</v>
       </c>
@@ -5134,10 +5134,10 @@
       </c>
       <c r="L11" s="7">
         <f>AVERAGE(data!AB10:AK10)</f>
-        <v>79.109400000000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>128.45310000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>96</v>
       </c>
@@ -5182,10 +5182,10 @@
       </c>
       <c r="L12" s="7">
         <f>AVERAGE(data!AB11:AK11)</f>
-        <v>77.322100000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>128.64069999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>112</v>
       </c>
@@ -5206,11 +5206,11 @@
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(data!C12:L12) - data!B12</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7">
         <f>MAX(data!C12:L12) - data!B12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="22">
         <f>data!O12</f>
@@ -5230,10 +5230,10 @@
       </c>
       <c r="L13" s="7">
         <f>AVERAGE(data!AB12:AK12)</f>
-        <v>93.370299999999986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>156.04349999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>110</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="F14" s="7">
         <f>AVERAGE(data!C13:L13) - data!B13</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="G14" s="7">
         <f>MAX(data!C13:L13) - data!B13</f>
@@ -5278,10 +5278,10 @@
       </c>
       <c r="L14" s="7">
         <f>AVERAGE(data!AB13:AK13)</f>
-        <v>94.940599999999989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>161.29070000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -5295,7 +5295,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>90</v>
       </c>
@@ -5310,7 +5310,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>93</v>
       </c>
@@ -5355,10 +5355,10 @@
       </c>
       <c r="L17" s="7">
         <f>AVERAGE(data!AB16:AK16)</f>
-        <v>205.14360000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>415.29699999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>117</v>
       </c>
@@ -5395,18 +5395,18 @@
       </c>
       <c r="J18" s="6">
         <f>AVERAGEIFS(data!P17:Y17, data!C17:L17, data!B17) / data!O17 -1</f>
-        <v>4.0669827294276928E-2</v>
+        <v>3.2807991872671805E-2</v>
       </c>
       <c r="K18" s="6">
         <f>_xlfn.MAXIFS(data!P17:Y17, data!C17:L17, data!B17)  / data!O17 -1</f>
-        <v>8.0563833389773132E-2</v>
+        <v>8.1537419573315173E-2</v>
       </c>
       <c r="L18" s="7">
         <f>AVERAGE(data!AB17:AK17)</f>
-        <v>199.27019999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>413.5236000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>116</v>
       </c>
@@ -5451,10 +5451,10 @@
       </c>
       <c r="L19" s="7">
         <f>AVERAGE(data!AB18:AK18)</f>
-        <v>199.3638</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>416.22649999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>95</v>
       </c>
@@ -5499,10 +5499,10 @@
       </c>
       <c r="L20" s="7">
         <f>AVERAGE(data!AB19:AK19)</f>
-        <v>115.47799999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>231.26569999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>114</v>
       </c>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="F21" s="7">
         <f>AVERAGE(data!C20:L20) - data!B20</f>
-        <v>0.60000000000000009</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="G21" s="7">
         <f>MAX(data!C20:L20) - data!B20</f>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="J21" s="6">
         <f>AVERAGEIFS(data!P20:Y20, data!C20:L20, data!B20) / data!O20 -1</f>
-        <v>1.7429675954145907E-3</v>
+        <v>1.1619783969429864E-3</v>
       </c>
       <c r="K21" s="6">
         <f>_xlfn.MAXIFS(data!P20:Y20, data!C20:L20, data!B20)  / data!O20 -1</f>
@@ -5547,10 +5547,10 @@
       </c>
       <c r="L21" s="7">
         <f>AVERAGE(data!AB20:AK20)</f>
-        <v>158.3861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>305.9393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>115</v>
       </c>
@@ -5587,18 +5587,18 @@
       </c>
       <c r="J22" s="6">
         <f>AVERAGEIFS(data!P21:Y21, data!C21:L21, data!B21) / data!O21 -1</f>
-        <v>-2.721643872938273E-6</v>
+        <v>5.4419269238614731E-4</v>
       </c>
       <c r="K22" s="6">
         <f>_xlfn.MAXIFS(data!P21:Y21, data!C21:L21, data!B21)  / data!O21 -1</f>
-        <v>-2.721643872938273E-6</v>
+        <v>5.4664217187179176E-3</v>
       </c>
       <c r="L22" s="7">
         <f>AVERAGE(data!AB21:AK21)</f>
-        <v>495.35949999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1042.1947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>97</v>
       </c>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="J23" s="6">
         <f>AVERAGEIFS(data!P22:Y22, data!C22:L22, data!B22) / data!O22 -1</f>
-        <v>6.9086101752739992E-3</v>
+        <v>6.9086101752742213E-3</v>
       </c>
       <c r="K23" s="6">
         <f>_xlfn.MAXIFS(data!P22:Y22, data!C22:L22, data!B22)  / data!O22 -1</f>
@@ -5643,10 +5643,10 @@
       </c>
       <c r="L23" s="7">
         <f>AVERAGE(data!AB22:AK22)</f>
-        <v>109.367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>216.267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
         <v>113</v>
       </c>
@@ -5667,11 +5667,11 @@
       </c>
       <c r="F24" s="7">
         <f>AVERAGE(data!C23:L23) - data!B23</f>
-        <v>0.10000000000000009</v>
+        <v>0</v>
       </c>
       <c r="G24" s="7">
         <f>MAX(data!C23:L23) - data!B23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="22">
         <f>data!O23</f>
@@ -5691,10 +5691,10 @@
       </c>
       <c r="L24" s="7">
         <f>AVERAGE(data!AB23:AK23)</f>
-        <v>184.34200000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>401.60309999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>118</v>
       </c>
@@ -5739,10 +5739,10 @@
       </c>
       <c r="L25" s="7">
         <f>AVERAGE(data!AB24:AK24)</f>
-        <v>111.1066</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>226.57159999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\VRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453DBF0E-B561-452D-B32E-302A06344715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376CF983-F751-4E73-A348-923381EF87A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -2513,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:AK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26:AM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2817,34 +2817,34 @@
         <v>92</v>
       </c>
       <c r="AB5" s="17">
-        <v>192.98400000000001</v>
+        <v>198.453</v>
       </c>
       <c r="AC5" s="17">
-        <v>194.125</v>
+        <v>195.46799999999999</v>
       </c>
       <c r="AD5" s="17">
-        <v>194.03100000000001</v>
+        <v>191.376</v>
       </c>
       <c r="AE5" s="17">
-        <v>193.60900000000001</v>
+        <v>193.251</v>
       </c>
       <c r="AF5" s="17">
-        <v>194.31200000000001</v>
+        <v>193.875</v>
       </c>
       <c r="AG5" s="17">
-        <v>193.047</v>
+        <v>193.43700000000001</v>
       </c>
       <c r="AH5" s="17">
-        <v>193.453</v>
+        <v>192.23400000000001</v>
       </c>
       <c r="AI5" s="17">
-        <v>194.422</v>
+        <v>193.952</v>
       </c>
       <c r="AJ5" s="17">
-        <v>196.34399999999999</v>
+        <v>192.34399999999999</v>
       </c>
       <c r="AK5" s="17">
-        <v>196.298</v>
+        <v>192.73400000000001</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -2882,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="L6" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>108</v>
@@ -2894,64 +2894,64 @@
         <v>1063.83</v>
       </c>
       <c r="Q6" s="17">
-        <v>1053.21</v>
+        <v>1054.23</v>
       </c>
       <c r="R6" s="17">
         <v>1063.83</v>
       </c>
       <c r="S6" s="17">
-        <v>1049.26</v>
+        <v>1054.23</v>
       </c>
       <c r="T6" s="17">
-        <v>1055.92</v>
+        <v>1054.23</v>
       </c>
       <c r="U6" s="17">
-        <v>1055.92</v>
+        <v>1035.3499999999999</v>
       </c>
       <c r="V6" s="17">
-        <v>1063.83</v>
+        <v>1035.3499999999999</v>
       </c>
       <c r="W6" s="17">
-        <v>1055.92</v>
+        <v>1054.23</v>
       </c>
       <c r="X6" s="17">
-        <v>1063.83</v>
+        <v>1068.68</v>
       </c>
       <c r="Y6" s="17">
-        <v>1035.3499999999999</v>
+        <v>827.86500000000001</v>
       </c>
       <c r="AA6" s="15" t="s">
         <v>108</v>
       </c>
       <c r="AB6" s="17">
-        <v>208.251</v>
+        <v>205.65600000000001</v>
       </c>
       <c r="AC6" s="17">
-        <v>204.96899999999999</v>
+        <v>203.35900000000001</v>
       </c>
       <c r="AD6" s="17">
-        <v>200.76599999999999</v>
+        <v>205.73400000000001</v>
       </c>
       <c r="AE6" s="17">
-        <v>193.172</v>
+        <v>205.53100000000001</v>
       </c>
       <c r="AF6" s="17">
-        <v>206.96899999999999</v>
+        <v>206.375</v>
       </c>
       <c r="AG6" s="17">
-        <v>196.73400000000001</v>
+        <v>202.46899999999999</v>
       </c>
       <c r="AH6" s="17">
-        <v>203.26599999999999</v>
+        <v>207.18700000000001</v>
       </c>
       <c r="AI6" s="17">
-        <v>207.39</v>
+        <v>206.20400000000001</v>
       </c>
       <c r="AJ6" s="17">
-        <v>203.36</v>
+        <v>209.10900000000001</v>
       </c>
       <c r="AK6" s="17">
-        <v>201.81200000000001</v>
+        <v>193.59299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -2998,67 +2998,67 @@
         <v>860.01</v>
       </c>
       <c r="P7" s="17">
-        <v>875.73900000000003</v>
+        <v>880.11400000000003</v>
       </c>
       <c r="Q7" s="17">
-        <v>863.59</v>
+        <v>865.25699999999995</v>
       </c>
       <c r="R7" s="17">
-        <v>875.73900000000003</v>
+        <v>861.64700000000005</v>
       </c>
       <c r="S7" s="17">
-        <v>863.59</v>
+        <v>882.31200000000001</v>
       </c>
       <c r="T7" s="17">
-        <v>862.35799999999995</v>
+        <v>861.95399999999995</v>
       </c>
       <c r="U7" s="17">
-        <v>863.59</v>
+        <v>882.31200000000001</v>
       </c>
       <c r="V7" s="17">
+        <v>863.62099999999998</v>
+      </c>
+      <c r="W7" s="17">
         <v>861.95399999999995</v>
       </c>
-      <c r="W7" s="17">
-        <v>861.64700000000005</v>
-      </c>
       <c r="X7" s="17">
-        <v>883.94799999999998</v>
+        <v>860.01099999999997</v>
       </c>
       <c r="Y7" s="17">
-        <v>861.95399999999995</v>
+        <v>895.00800000000004</v>
       </c>
       <c r="AA7" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AB7" s="17">
-        <v>224.84399999999999</v>
+        <v>228.56200000000001</v>
       </c>
       <c r="AC7" s="17">
-        <v>223.90600000000001</v>
+        <v>228.422</v>
       </c>
       <c r="AD7" s="17">
-        <v>228.40700000000001</v>
+        <v>230.59399999999999</v>
       </c>
       <c r="AE7" s="17">
-        <v>226.04599999999999</v>
+        <v>232.21799999999999</v>
       </c>
       <c r="AF7" s="17">
-        <v>225.06299999999999</v>
+        <v>228.577</v>
       </c>
       <c r="AG7" s="17">
-        <v>225.09299999999999</v>
+        <v>227.124</v>
       </c>
       <c r="AH7" s="17">
-        <v>223.59399999999999</v>
+        <v>229.23500000000001</v>
       </c>
       <c r="AI7" s="17">
-        <v>223.828</v>
+        <v>229.29599999999999</v>
       </c>
       <c r="AJ7" s="17">
-        <v>223.54599999999999</v>
+        <v>230.42099999999999</v>
       </c>
       <c r="AK7" s="17">
-        <v>227.98500000000001</v>
+        <v>229.578</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3138,34 +3138,34 @@
         <v>94</v>
       </c>
       <c r="AB8" s="17">
-        <v>95.781000000000006</v>
+        <v>95.531999999999996</v>
       </c>
       <c r="AC8" s="17">
-        <v>95.141000000000005</v>
+        <v>95.656000000000006</v>
       </c>
       <c r="AD8" s="17">
-        <v>94.858000000000004</v>
+        <v>95.734999999999999</v>
       </c>
       <c r="AE8" s="17">
-        <v>95.11</v>
+        <v>95.828000000000003</v>
       </c>
       <c r="AF8" s="17">
-        <v>95.546999999999997</v>
+        <v>96.375</v>
       </c>
       <c r="AG8" s="17">
-        <v>95.188000000000002</v>
+        <v>95.953000000000003</v>
       </c>
       <c r="AH8" s="17">
-        <v>96.218999999999994</v>
+        <v>94.953000000000003</v>
       </c>
       <c r="AI8" s="17">
-        <v>94.828000000000003</v>
+        <v>95.906000000000006</v>
       </c>
       <c r="AJ8" s="17">
-        <v>96.563000000000002</v>
+        <v>95.968999999999994</v>
       </c>
       <c r="AK8" s="17">
-        <v>95.608999999999995</v>
+        <v>95.703000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3176,7 +3176,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="17">
         <v>9</v>
@@ -3185,7 +3185,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="17">
         <v>9</v>
@@ -3197,13 +3197,13 @@
         <v>9</v>
       </c>
       <c r="J9" s="17">
+        <v>9</v>
+      </c>
+      <c r="K9" s="17">
+        <v>9</v>
+      </c>
+      <c r="L9" s="17">
         <v>10</v>
-      </c>
-      <c r="K9" s="17">
-        <v>10</v>
-      </c>
-      <c r="L9" s="17">
-        <v>9</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>109</v>
@@ -3212,7 +3212,7 @@
         <v>1013.39</v>
       </c>
       <c r="P9" s="17">
-        <v>1033.54</v>
+        <v>1013.99</v>
       </c>
       <c r="Q9" s="17">
         <v>1013.99</v>
@@ -3221,7 +3221,7 @@
         <v>1013.99</v>
       </c>
       <c r="S9" s="17">
-        <v>1033.54</v>
+        <v>1013.99</v>
       </c>
       <c r="T9" s="17">
         <v>1013.99</v>
@@ -3230,49 +3230,49 @@
         <v>1013.99</v>
       </c>
       <c r="V9" s="17">
+        <v>1016.93</v>
+      </c>
+      <c r="W9" s="17">
         <v>1013.99</v>
       </c>
-      <c r="W9" s="17">
-        <v>1067.8900000000001</v>
-      </c>
       <c r="X9" s="17">
-        <v>1045.99</v>
+        <v>1013.99</v>
       </c>
       <c r="Y9" s="17">
-        <v>1013.39</v>
+        <v>1030.5999999999999</v>
       </c>
       <c r="AA9" s="15" t="s">
         <v>109</v>
       </c>
       <c r="AB9" s="17">
-        <v>182.06200000000001</v>
+        <v>190.73500000000001</v>
       </c>
       <c r="AC9" s="17">
-        <v>191.15700000000001</v>
+        <v>190.155</v>
       </c>
       <c r="AD9" s="17">
-        <v>181.43799999999999</v>
+        <v>188.078</v>
       </c>
       <c r="AE9" s="17">
-        <v>181.28100000000001</v>
+        <v>186.96899999999999</v>
       </c>
       <c r="AF9" s="17">
-        <v>186.96799999999999</v>
+        <v>193.15600000000001</v>
       </c>
       <c r="AG9" s="17">
-        <v>187.73400000000001</v>
+        <v>187.001</v>
       </c>
       <c r="AH9" s="17">
-        <v>186.67099999999999</v>
+        <v>183.078</v>
       </c>
       <c r="AI9" s="17">
-        <v>178.53200000000001</v>
+        <v>193.18799999999999</v>
       </c>
       <c r="AJ9" s="17">
-        <v>174.03200000000001</v>
+        <v>188.46799999999999</v>
       </c>
       <c r="AK9" s="17">
-        <v>186.672</v>
+        <v>185.548</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3352,34 +3352,34 @@
         <v>119</v>
       </c>
       <c r="AB10" s="17">
-        <v>128.96899999999999</v>
+        <v>129.06200000000001</v>
       </c>
       <c r="AC10" s="17">
+        <v>130.595</v>
+      </c>
+      <c r="AD10" s="17">
+        <v>130.172</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>129.60900000000001</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>130.20400000000001</v>
+      </c>
+      <c r="AG10" s="17">
         <v>129.453</v>
       </c>
-      <c r="AD10" s="17">
-        <v>128.79599999999999</v>
-      </c>
-      <c r="AE10" s="17">
-        <v>128.703</v>
-      </c>
-      <c r="AF10" s="17">
-        <v>128.5</v>
-      </c>
-      <c r="AG10" s="17">
-        <v>127.953</v>
-      </c>
       <c r="AH10" s="17">
-        <v>127.95399999999999</v>
+        <v>129.422</v>
       </c>
       <c r="AI10" s="17">
-        <v>128.68600000000001</v>
+        <v>130.71899999999999</v>
       </c>
       <c r="AJ10" s="17">
-        <v>127.626</v>
+        <v>130.68700000000001</v>
       </c>
       <c r="AK10" s="17">
-        <v>127.89100000000001</v>
+        <v>130.34399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3459,34 +3459,34 @@
         <v>96</v>
       </c>
       <c r="AB11" s="17">
-        <v>125.657</v>
+        <v>126.29600000000001</v>
       </c>
       <c r="AC11" s="17">
-        <v>126.42100000000001</v>
+        <v>125.85899999999999</v>
       </c>
       <c r="AD11" s="17">
-        <v>125.735</v>
+        <v>126.063</v>
       </c>
       <c r="AE11" s="17">
-        <v>126.953</v>
+        <v>125.626</v>
       </c>
       <c r="AF11" s="17">
-        <v>132.07900000000001</v>
+        <v>126.82899999999999</v>
       </c>
       <c r="AG11" s="17">
-        <v>129.46799999999999</v>
+        <v>125.75</v>
       </c>
       <c r="AH11" s="17">
-        <v>130.875</v>
+        <v>126.657</v>
       </c>
       <c r="AI11" s="17">
-        <v>132.71899999999999</v>
+        <v>126.562</v>
       </c>
       <c r="AJ11" s="17">
-        <v>129.96799999999999</v>
+        <v>124.999</v>
       </c>
       <c r="AK11" s="17">
-        <v>126.532</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3503,13 +3503,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="17">
         <v>11</v>
       </c>
       <c r="G12" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="17">
         <v>11</v>
@@ -3539,13 +3539,13 @@
         <v>1424.73</v>
       </c>
       <c r="R12" s="17">
-        <v>1424.73</v>
+        <v>1440.44</v>
       </c>
       <c r="S12" s="17">
         <v>1424.73</v>
       </c>
       <c r="T12" s="17">
-        <v>1424.73</v>
+        <v>1440.44</v>
       </c>
       <c r="U12" s="17">
         <v>1424.73</v>
@@ -3566,34 +3566,34 @@
         <v>112</v>
       </c>
       <c r="AB12" s="17">
-        <v>156.48400000000001</v>
+        <v>160.251</v>
       </c>
       <c r="AC12" s="17">
-        <v>156.60900000000001</v>
+        <v>156.48500000000001</v>
       </c>
       <c r="AD12" s="17">
-        <v>154.59299999999999</v>
+        <v>151.203</v>
       </c>
       <c r="AE12" s="17">
-        <v>154.85900000000001</v>
+        <v>155.54599999999999</v>
       </c>
       <c r="AF12" s="17">
-        <v>158</v>
+        <v>152.34399999999999</v>
       </c>
       <c r="AG12" s="17">
-        <v>156.18700000000001</v>
+        <v>155.65700000000001</v>
       </c>
       <c r="AH12" s="17">
-        <v>155.46799999999999</v>
+        <v>152.125</v>
       </c>
       <c r="AI12" s="17">
-        <v>156.345</v>
+        <v>155.73400000000001</v>
       </c>
       <c r="AJ12" s="17">
-        <v>157.43700000000001</v>
+        <v>161.15700000000001</v>
       </c>
       <c r="AK12" s="17">
-        <v>154.453</v>
+        <v>153.51499999999999</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3607,19 +3607,19 @@
         <v>10</v>
       </c>
       <c r="D13" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="17">
         <v>10</v>
       </c>
       <c r="F13" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="17">
         <v>10</v>
       </c>
       <c r="H13" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="17">
         <v>10</v>
@@ -3628,10 +3628,10 @@
         <v>10</v>
       </c>
       <c r="K13" s="17">
+        <v>11</v>
+      </c>
+      <c r="L13" s="17">
         <v>10</v>
-      </c>
-      <c r="L13" s="17">
-        <v>11</v>
       </c>
       <c r="N13" s="15" t="s">
         <v>110</v>
@@ -3643,19 +3643,19 @@
         <v>1147.43</v>
       </c>
       <c r="Q13" s="17">
-        <v>1177.8</v>
+        <v>1147.43</v>
       </c>
       <c r="R13" s="17">
         <v>1147.43</v>
       </c>
       <c r="S13" s="17">
-        <v>1175.6500000000001</v>
+        <v>1147.43</v>
       </c>
       <c r="T13" s="17">
         <v>1147.43</v>
       </c>
       <c r="U13" s="17">
-        <v>1147.43</v>
+        <v>1175.6500000000001</v>
       </c>
       <c r="V13" s="17">
         <v>1147.43</v>
@@ -3664,43 +3664,43 @@
         <v>1147.43</v>
       </c>
       <c r="X13" s="17">
+        <v>1175.6500000000001</v>
+      </c>
+      <c r="Y13" s="17">
         <v>1147.43</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>1177.8</v>
       </c>
       <c r="AA13" s="15" t="s">
         <v>110</v>
       </c>
       <c r="AB13" s="17">
-        <v>162.40700000000001</v>
+        <v>163.85900000000001</v>
       </c>
       <c r="AC13" s="17">
-        <v>158.172</v>
+        <v>163.078</v>
       </c>
       <c r="AD13" s="17">
-        <v>159.39099999999999</v>
+        <v>166.15600000000001</v>
       </c>
       <c r="AE13" s="17">
-        <v>158.39099999999999</v>
+        <v>161.68700000000001</v>
       </c>
       <c r="AF13" s="17">
-        <v>163.874</v>
+        <v>165.73500000000001</v>
       </c>
       <c r="AG13" s="17">
-        <v>165.298</v>
+        <v>160.59399999999999</v>
       </c>
       <c r="AH13" s="17">
-        <v>162.09399999999999</v>
+        <v>161.31200000000001</v>
       </c>
       <c r="AI13" s="17">
-        <v>163.672</v>
+        <v>167.297</v>
       </c>
       <c r="AJ13" s="17">
-        <v>162.17099999999999</v>
+        <v>158.47</v>
       </c>
       <c r="AK13" s="17">
-        <v>157.43700000000001</v>
+        <v>162.89099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3825,34 +3825,34 @@
         <v>93</v>
       </c>
       <c r="AB16" s="17">
-        <v>407.57799999999997</v>
+        <v>416.95299999999997</v>
       </c>
       <c r="AC16" s="17">
-        <v>420.45299999999997</v>
+        <v>422.98399999999998</v>
       </c>
       <c r="AD16" s="17">
-        <v>404.03199999999998</v>
+        <v>434.43799999999999</v>
       </c>
       <c r="AE16" s="17">
-        <v>422.875</v>
+        <v>421.70299999999997</v>
       </c>
       <c r="AF16" s="17">
-        <v>414.76600000000002</v>
+        <v>436.93700000000001</v>
       </c>
       <c r="AG16" s="17">
-        <v>423.26600000000002</v>
+        <v>417.18700000000001</v>
       </c>
       <c r="AH16" s="17">
-        <v>419.14</v>
+        <v>425.09300000000002</v>
       </c>
       <c r="AI16" s="17">
-        <v>410.81200000000001</v>
+        <v>433.79599999999999</v>
       </c>
       <c r="AJ16" s="17">
-        <v>415.28199999999998</v>
+        <v>429.82799999999997</v>
       </c>
       <c r="AK16" s="17">
-        <v>414.76600000000002</v>
+        <v>445.125</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -3899,67 +3899,67 @@
         <v>590.6</v>
       </c>
       <c r="P17" s="17">
+        <v>638.18100000000004</v>
+      </c>
+      <c r="Q17" s="17">
         <v>591.173</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="R17" s="17">
+        <v>591.173</v>
+      </c>
+      <c r="S17" s="17">
         <v>590.59900000000005</v>
       </c>
-      <c r="R17" s="17">
-        <v>638.18100000000004</v>
-      </c>
-      <c r="S17" s="17">
+      <c r="T17" s="17">
         <v>591.173</v>
       </c>
-      <c r="T17" s="17">
-        <v>638.75599999999997</v>
-      </c>
       <c r="U17" s="17">
+        <v>591.173</v>
+      </c>
+      <c r="V17" s="17">
+        <v>591.173</v>
+      </c>
+      <c r="W17" s="17">
         <v>590.59900000000005</v>
       </c>
-      <c r="V17" s="17">
-        <v>638.18100000000004</v>
-      </c>
-      <c r="W17" s="17">
+      <c r="X17" s="17">
         <v>591.173</v>
       </c>
-      <c r="X17" s="17">
-        <v>638.75599999999997</v>
-      </c>
       <c r="Y17" s="17">
-        <v>591.173</v>
+        <v>590.59900000000005</v>
       </c>
       <c r="AA17" s="15" t="s">
         <v>117</v>
       </c>
       <c r="AB17" s="17">
-        <v>419.84300000000002</v>
+        <v>423.827</v>
       </c>
       <c r="AC17" s="17">
-        <v>414.53100000000001</v>
+        <v>412.35899999999998</v>
       </c>
       <c r="AD17" s="17">
-        <v>407.87599999999998</v>
+        <v>419.46800000000002</v>
       </c>
       <c r="AE17" s="17">
-        <v>404.56299999999999</v>
+        <v>408.42200000000003</v>
       </c>
       <c r="AF17" s="17">
-        <v>402.18799999999999</v>
+        <v>438.09399999999999</v>
       </c>
       <c r="AG17" s="17">
-        <v>398.03100000000001</v>
+        <v>420.06200000000001</v>
       </c>
       <c r="AH17" s="17">
-        <v>411.18799999999999</v>
+        <v>420.15600000000001</v>
       </c>
       <c r="AI17" s="17">
-        <v>426.73399999999998</v>
+        <v>419.76600000000002</v>
       </c>
       <c r="AJ17" s="17">
-        <v>421.40699999999998</v>
+        <v>421.57799999999997</v>
       </c>
       <c r="AK17" s="17">
-        <v>428.875</v>
+        <v>406.875</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.35">
@@ -3969,34 +3969,34 @@
       <c r="B18" s="15">
         <v>3</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>3</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>3</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>3</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <v>3</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <v>3</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="15">
         <v>3</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <v>3</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <v>3</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="15">
         <v>3</v>
       </c>
       <c r="N18" s="15" t="s">
@@ -4039,34 +4039,34 @@
         <v>116</v>
       </c>
       <c r="AB18" s="17">
-        <v>416.51499999999999</v>
+        <v>425.95299999999997</v>
       </c>
       <c r="AC18" s="17">
-        <v>410.25</v>
+        <v>406.92200000000003</v>
       </c>
       <c r="AD18" s="17">
-        <v>406.39100000000002</v>
+        <v>430.40600000000001</v>
       </c>
       <c r="AE18" s="17">
-        <v>408.87400000000002</v>
+        <v>419.875</v>
       </c>
       <c r="AF18" s="17">
-        <v>421.125</v>
+        <v>425.34399999999999</v>
       </c>
       <c r="AG18" s="17">
-        <v>432.03100000000001</v>
+        <v>435.26600000000002</v>
       </c>
       <c r="AH18" s="17">
-        <v>423.017</v>
+        <v>425.68799999999999</v>
       </c>
       <c r="AI18" s="17">
-        <v>423.875</v>
+        <v>420.34300000000002</v>
       </c>
       <c r="AJ18" s="17">
-        <v>414.04700000000003</v>
+        <v>421.73399999999998</v>
       </c>
       <c r="AK18" s="17">
-        <v>406.14</v>
+        <v>425.78100000000001</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4076,34 +4076,34 @@
       <c r="B19" s="15">
         <v>4</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>4</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>4</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>4</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>4</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <v>4</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="15">
         <v>4</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="15">
         <v>4</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="15">
         <v>4</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <v>4</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="15">
         <v>4</v>
       </c>
       <c r="N19" s="15" t="s">
@@ -4146,34 +4146,34 @@
         <v>95</v>
       </c>
       <c r="AB19" s="17">
-        <v>233.90700000000001</v>
+        <v>229.03100000000001</v>
       </c>
       <c r="AC19" s="17">
-        <v>234.65600000000001</v>
+        <v>238.57900000000001</v>
       </c>
       <c r="AD19" s="17">
-        <v>231.06299999999999</v>
+        <v>234.26599999999999</v>
       </c>
       <c r="AE19" s="17">
-        <v>224.84399999999999</v>
+        <v>230.79599999999999</v>
       </c>
       <c r="AF19" s="17">
-        <v>232.18799999999999</v>
+        <v>236.89099999999999</v>
       </c>
       <c r="AG19" s="17">
-        <v>226.42099999999999</v>
+        <v>230.06299999999999</v>
       </c>
       <c r="AH19" s="17">
-        <v>240.09299999999999</v>
+        <v>229.375</v>
       </c>
       <c r="AI19" s="17">
-        <v>220.90700000000001</v>
+        <v>239.03200000000001</v>
       </c>
       <c r="AJ19" s="17">
-        <v>235</v>
+        <v>233.89</v>
       </c>
       <c r="AK19" s="17">
-        <v>233.578</v>
+        <v>226.89</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.35">
@@ -4183,34 +4183,34 @@
       <c r="B20" s="15">
         <v>3</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
+      <c r="D20" s="15">
+        <v>3</v>
+      </c>
+      <c r="E20" s="15">
+        <v>3</v>
+      </c>
+      <c r="F20" s="15">
         <v>4</v>
       </c>
-      <c r="D20" s="17">
+      <c r="G20" s="15">
+        <v>4</v>
+      </c>
+      <c r="H20" s="15">
         <v>3</v>
       </c>
-      <c r="E20" s="17">
+      <c r="I20" s="15">
+        <v>4</v>
+      </c>
+      <c r="J20" s="15">
         <v>3</v>
       </c>
-      <c r="F20" s="17">
-        <v>3</v>
-      </c>
-      <c r="G20" s="17">
-        <v>3</v>
-      </c>
-      <c r="H20" s="17">
-        <v>3</v>
-      </c>
-      <c r="I20" s="17">
+      <c r="K20" s="15">
         <v>4</v>
       </c>
-      <c r="J20" s="17">
-        <v>3</v>
-      </c>
-      <c r="K20" s="17">
-        <v>4</v>
-      </c>
-      <c r="L20" s="17">
+      <c r="L20" s="15">
         <v>4</v>
       </c>
       <c r="N20" s="15" t="s">
@@ -4220,7 +4220,7 @@
         <v>1197.67</v>
       </c>
       <c r="P20" s="17">
-        <v>1250.0899999999999</v>
+        <v>1197.67</v>
       </c>
       <c r="Q20" s="17">
         <v>1197.67</v>
@@ -4229,10 +4229,10 @@
         <v>1197.67</v>
       </c>
       <c r="S20" s="17">
-        <v>1197.67</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="T20" s="17">
-        <v>1206.02</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="U20" s="17">
         <v>1197.67</v>
@@ -4244,43 +4244,43 @@
         <v>1197.67</v>
       </c>
       <c r="X20" s="17">
+        <v>1250.0899999999999</v>
+      </c>
+      <c r="Y20" s="17">
         <v>1250.0999999999999</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>1250.0899999999999</v>
       </c>
       <c r="AA20" s="15" t="s">
         <v>114</v>
       </c>
       <c r="AB20" s="17">
-        <v>268.75099999999998</v>
+        <v>326.60899999999998</v>
       </c>
       <c r="AC20" s="17">
-        <v>396.15600000000001</v>
+        <v>278.5</v>
       </c>
       <c r="AD20" s="17">
-        <v>314.548</v>
+        <v>346.98399999999998</v>
       </c>
       <c r="AE20" s="17">
-        <v>308.17200000000003</v>
+        <v>270.26600000000002</v>
       </c>
       <c r="AF20" s="17">
-        <v>294.54700000000003</v>
+        <v>267.01499999999999</v>
       </c>
       <c r="AG20" s="17">
-        <v>300.10899999999998</v>
+        <v>332.67200000000003</v>
       </c>
       <c r="AH20" s="17">
-        <v>268.5</v>
+        <v>276.09500000000003</v>
       </c>
       <c r="AI20" s="17">
-        <v>368.26600000000002</v>
+        <v>371.53100000000001</v>
       </c>
       <c r="AJ20" s="17">
-        <v>274.06299999999999</v>
+        <v>281.06200000000001</v>
       </c>
       <c r="AK20" s="17">
-        <v>266.28100000000001</v>
+        <v>267.06299999999999</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.35">
@@ -4330,7 +4330,7 @@
         <v>734.84799999999996</v>
       </c>
       <c r="Q21" s="17">
-        <v>738.86699999999996</v>
+        <v>734.84799999999996</v>
       </c>
       <c r="R21" s="17">
         <v>734.84799999999996</v>
@@ -4360,34 +4360,34 @@
         <v>115</v>
       </c>
       <c r="AB21" s="17">
-        <v>1030.6600000000001</v>
+        <v>1063.08</v>
       </c>
       <c r="AC21" s="17">
-        <v>1089.3</v>
+        <v>1091.8599999999999</v>
       </c>
       <c r="AD21" s="17">
-        <v>996.15700000000004</v>
+        <v>1058.02</v>
       </c>
       <c r="AE21" s="17">
-        <v>1065.5899999999999</v>
+        <v>1064.17</v>
       </c>
       <c r="AF21" s="17">
-        <v>1054.17</v>
+        <v>1040.53</v>
       </c>
       <c r="AG21" s="17">
-        <v>1022.83</v>
+        <v>984.23500000000001</v>
       </c>
       <c r="AH21" s="17">
-        <v>1109.81</v>
+        <v>1095.3900000000001</v>
       </c>
       <c r="AI21" s="17">
-        <v>1060.3800000000001</v>
+        <v>1015.92</v>
       </c>
       <c r="AJ21" s="17">
-        <v>980</v>
+        <v>1031.3599999999999</v>
       </c>
       <c r="AK21" s="17">
-        <v>1013.05</v>
+        <v>1013.09</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -4397,34 +4397,34 @@
       <c r="B22" s="15">
         <v>4</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <v>4</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>4</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>4</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="15">
         <v>4</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>4</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="15">
         <v>4</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="15">
         <v>4</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="15">
         <v>4</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="15">
         <v>4</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="15">
         <v>4</v>
       </c>
       <c r="N22" s="15" t="s">
@@ -4437,10 +4437,10 @@
         <v>1406.94</v>
       </c>
       <c r="Q22" s="17">
+        <v>1406.94</v>
+      </c>
+      <c r="R22" s="17">
         <v>1455.54</v>
-      </c>
-      <c r="R22" s="17">
-        <v>1406.94</v>
       </c>
       <c r="S22" s="17">
         <v>1406.94</v>
@@ -4449,7 +4449,7 @@
         <v>1406.94</v>
       </c>
       <c r="U22" s="17">
-        <v>1455.54</v>
+        <v>1406.94</v>
       </c>
       <c r="V22" s="17">
         <v>1406.94</v>
@@ -4458,7 +4458,7 @@
         <v>1406.94</v>
       </c>
       <c r="X22" s="17">
-        <v>1406.94</v>
+        <v>1455.54</v>
       </c>
       <c r="Y22" s="17">
         <v>1406.94</v>
@@ -4467,34 +4467,34 @@
         <v>97</v>
       </c>
       <c r="AB22" s="17">
-        <v>223.54599999999999</v>
+        <v>226.32900000000001</v>
       </c>
       <c r="AC22" s="17">
-        <v>217.39</v>
+        <v>205.90700000000001</v>
       </c>
       <c r="AD22" s="17">
-        <v>221.39</v>
+        <v>213.68700000000001</v>
       </c>
       <c r="AE22" s="17">
-        <v>218.625</v>
+        <v>210.89099999999999</v>
       </c>
       <c r="AF22" s="17">
-        <v>212.078</v>
+        <v>224.79599999999999</v>
       </c>
       <c r="AG22" s="17">
-        <v>206.125</v>
+        <v>212.18700000000001</v>
       </c>
       <c r="AH22" s="17">
-        <v>218.703</v>
+        <v>219.922</v>
       </c>
       <c r="AI22" s="17">
-        <v>201.953</v>
+        <v>229.374</v>
       </c>
       <c r="AJ22" s="17">
-        <v>222.95400000000001</v>
+        <v>223.86</v>
       </c>
       <c r="AK22" s="17">
-        <v>219.90600000000001</v>
+        <v>213.18799999999999</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.35">
@@ -4504,34 +4504,34 @@
       <c r="B23" s="15">
         <v>3</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="15">
         <v>3</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <v>3</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>3</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
+        <v>4</v>
+      </c>
+      <c r="G23" s="15">
         <v>3</v>
       </c>
-      <c r="G23" s="17">
+      <c r="H23" s="15">
         <v>3</v>
       </c>
-      <c r="H23" s="17">
+      <c r="I23" s="15">
         <v>3</v>
       </c>
-      <c r="I23" s="17">
+      <c r="J23" s="15">
         <v>3</v>
       </c>
-      <c r="J23" s="17">
+      <c r="K23" s="15">
         <v>3</v>
       </c>
-      <c r="K23" s="17">
-        <v>3</v>
-      </c>
-      <c r="L23" s="17">
+      <c r="L23" s="15">
         <v>3</v>
       </c>
       <c r="N23" s="15" t="s">
@@ -4550,13 +4550,13 @@
         <v>1089.07</v>
       </c>
       <c r="S23" s="17">
-        <v>1089.07</v>
+        <v>1115.9100000000001</v>
       </c>
       <c r="T23" s="17">
         <v>1089.07</v>
       </c>
       <c r="U23" s="17">
-        <v>1089.07</v>
+        <v>1090</v>
       </c>
       <c r="V23" s="17">
         <v>1089.07</v>
@@ -4574,34 +4574,34 @@
         <v>113</v>
       </c>
       <c r="AB23" s="17">
-        <v>415.25099999999998</v>
+        <v>409.39100000000002</v>
       </c>
       <c r="AC23" s="17">
-        <v>384.25099999999998</v>
+        <v>391.95299999999997</v>
       </c>
       <c r="AD23" s="17">
-        <v>401.73399999999998</v>
+        <v>377.60899999999998</v>
       </c>
       <c r="AE23" s="17">
-        <v>377.702</v>
+        <v>320.73399999999998</v>
       </c>
       <c r="AF23" s="17">
-        <v>389.40699999999998</v>
+        <v>394.06400000000002</v>
       </c>
       <c r="AG23" s="17">
-        <v>408.358</v>
+        <v>340.82799999999997</v>
       </c>
       <c r="AH23" s="17">
-        <v>405.15699999999998</v>
+        <v>381.60899999999998</v>
       </c>
       <c r="AI23" s="17">
-        <v>394.5</v>
+        <v>399.375</v>
       </c>
       <c r="AJ23" s="17">
-        <v>434.04700000000003</v>
+        <v>392.46899999999999</v>
       </c>
       <c r="AK23" s="17">
-        <v>405.62400000000002</v>
+        <v>430.81200000000001</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.35">
@@ -4611,34 +4611,34 @@
       <c r="B24" s="15">
         <v>4</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="15">
         <v>4</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="15">
         <v>4</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>4</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="15">
         <v>4</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <v>4</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="15">
         <v>4</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="15">
         <v>4</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="15">
         <v>4</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="15">
         <v>4</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="15">
         <v>4</v>
       </c>
       <c r="N24" s="15" t="s">
@@ -4681,34 +4681,34 @@
         <v>118</v>
       </c>
       <c r="AB24" s="17">
-        <v>234.578</v>
+        <v>222.56200000000001</v>
       </c>
       <c r="AC24" s="17">
-        <v>227.86</v>
+        <v>226.65600000000001</v>
       </c>
       <c r="AD24" s="17">
-        <v>228.577</v>
+        <v>221.453</v>
       </c>
       <c r="AE24" s="17">
-        <v>229.17099999999999</v>
+        <v>231.047</v>
       </c>
       <c r="AF24" s="17">
-        <v>228.23400000000001</v>
+        <v>221.57900000000001</v>
       </c>
       <c r="AG24" s="17">
-        <v>224.79599999999999</v>
+        <v>216.5</v>
       </c>
       <c r="AH24" s="17">
-        <v>211.84399999999999</v>
+        <v>228.39099999999999</v>
       </c>
       <c r="AI24" s="17">
-        <v>232.93700000000001</v>
+        <v>242.078</v>
       </c>
       <c r="AJ24" s="17">
-        <v>221.51599999999999</v>
+        <v>233.03100000000001</v>
       </c>
       <c r="AK24" s="17">
-        <v>226.203</v>
+        <v>225.39099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4734,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="L6" s="7">
         <f>AVERAGE(data!AB5:AK5)</f>
-        <v>194.26250000000002</v>
+        <v>193.7124</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -4918,11 +4918,11 @@
       </c>
       <c r="F7" s="7">
         <f>AVERAGE(data!C6:L6) - data!B6</f>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="G7" s="7">
         <f>MAX(data!C6:L6) - data!B6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="22">
         <f>data!O6</f>
@@ -4934,15 +4934,15 @@
       </c>
       <c r="J7" s="6">
         <f>AVERAGEIFS(data!P6:Y6, data!C6:L6, data!B6) / data!O6 -1</f>
-        <v>2.0031873279567458E-2</v>
+        <v>1.7794304663479643E-2</v>
       </c>
       <c r="K7" s="6">
         <f>_xlfn.MAXIFS(data!P6:Y6, data!C6:L6, data!B6)  / data!O6 -1</f>
-        <v>2.750760612353309E-2</v>
+        <v>3.2192012362969091E-2</v>
       </c>
       <c r="L7" s="7">
         <f>AVERAGE(data!AB6:AK6)</f>
-        <v>202.66889999999998</v>
+        <v>204.52170000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -4978,19 +4978,19 @@
       </c>
       <c r="I8" s="6">
         <f>_xlfn.MINIFS(data!P7:Y7, data!C7:L7, data!B7) / data!O7 -1</f>
-        <v>1.903466238764695E-3</v>
+        <v>1.1627771769884276E-6</v>
       </c>
       <c r="J8" s="6">
         <f>AVERAGEIFS(data!P7:Y7, data!C7:L7, data!B7) / data!O7 -1</f>
-        <v>8.6055976093302178E-3</v>
+        <v>1.3266124812502111E-2</v>
       </c>
       <c r="K8" s="6">
         <f>_xlfn.MAXIFS(data!P7:Y7, data!C7:L7, data!B7)  / data!O7 -1</f>
-        <v>2.7834560063255021E-2</v>
+        <v>4.0694875640981065E-2</v>
       </c>
       <c r="L8" s="7">
         <f>AVERAGE(data!AB7:AK7)</f>
-        <v>225.23120000000003</v>
+        <v>229.40270000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="L9" s="7">
         <f>AVERAGE(data!AB8:AK8)</f>
-        <v>95.484400000000008</v>
+        <v>95.760999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="F10" s="7">
         <f>AVERAGE(data!C9:L9) - data!B9</f>
-        <v>0.40000000000000036</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="G10" s="7">
         <f>MAX(data!C9:L9) - data!B9</f>
@@ -5074,19 +5074,19 @@
       </c>
       <c r="I10" s="6">
         <f>_xlfn.MINIFS(data!P9:Y9, data!C9:L9, data!B9) / data!O9 -1</f>
-        <v>0</v>
+        <v>5.9207215385992384E-4</v>
       </c>
       <c r="J10" s="6">
         <f>AVERAGEIFS(data!P9:Y9, data!C9:L9, data!B9) / data!O9 -1</f>
-        <v>4.9339346154986252E-4</v>
+        <v>9.1442254873919104E-4</v>
       </c>
       <c r="K10" s="6">
         <f>_xlfn.MAXIFS(data!P9:Y9, data!C9:L9, data!B9)  / data!O9 -1</f>
-        <v>5.9207215385992384E-4</v>
+        <v>3.4932257077728845E-3</v>
       </c>
       <c r="L10" s="7">
         <f>AVERAGE(data!AB9:AK9)</f>
-        <v>183.65469999999999</v>
+        <v>188.63759999999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="L11" s="7">
         <f>AVERAGE(data!AB10:AK10)</f>
-        <v>128.45310000000001</v>
+        <v>130.02670000000003</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="L12" s="7">
         <f>AVERAGE(data!AB11:AK11)</f>
-        <v>128.64069999999998</v>
+        <v>126.1641</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -5206,11 +5206,11 @@
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(data!C12:L12) - data!B12</f>
-        <v>0</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="G13" s="7">
         <f>MAX(data!C12:L12) - data!B12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="22">
         <f>data!O12</f>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="L13" s="7">
         <f>AVERAGE(data!AB12:AK12)</f>
-        <v>156.04349999999999</v>
+        <v>155.40169999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="F14" s="7">
         <f>AVERAGE(data!C13:L13) - data!B13</f>
-        <v>0.30000000000000071</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="G14" s="7">
         <f>MAX(data!C13:L13) - data!B13</f>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="L14" s="7">
         <f>AVERAGE(data!AB13:AK13)</f>
-        <v>161.29070000000002</v>
+        <v>163.1079</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="L17" s="7">
         <f>AVERAGE(data!AB16:AK16)</f>
-        <v>415.29699999999991</v>
+        <v>428.40440000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -5395,15 +5395,15 @@
       </c>
       <c r="J18" s="6">
         <f>AVERAGEIFS(data!P17:Y17, data!C17:L17, data!B17) / data!O17 -1</f>
-        <v>3.2807991872671805E-2</v>
+        <v>8.6379952590585063E-3</v>
       </c>
       <c r="K18" s="6">
         <f>_xlfn.MAXIFS(data!P17:Y17, data!C17:L17, data!B17)  / data!O17 -1</f>
-        <v>8.1537419573315173E-2</v>
+        <v>8.0563833389773132E-2</v>
       </c>
       <c r="L18" s="7">
         <f>AVERAGE(data!AB17:AK17)</f>
-        <v>413.5236000000001</v>
+        <v>419.0607</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="L19" s="7">
         <f>AVERAGE(data!AB18:AK18)</f>
-        <v>416.22649999999993</v>
+        <v>423.7312</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="L20" s="7">
         <f>AVERAGE(data!AB19:AK19)</f>
-        <v>231.26569999999998</v>
+        <v>232.88130000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="F21" s="7">
         <f>AVERAGE(data!C20:L20) - data!B20</f>
-        <v>0.39999999999999991</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="7">
         <f>MAX(data!C20:L20) - data!B20</f>
@@ -5539,15 +5539,15 @@
       </c>
       <c r="J21" s="6">
         <f>AVERAGEIFS(data!P20:Y20, data!C20:L20, data!B20) / data!O20 -1</f>
-        <v>1.1619783969429864E-3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="6">
         <f>_xlfn.MAXIFS(data!P20:Y20, data!C20:L20, data!B20)  / data!O20 -1</f>
-        <v>6.9718703816576966E-3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="7">
         <f>AVERAGE(data!AB20:AK20)</f>
-        <v>305.9393</v>
+        <v>301.77969999999993</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
@@ -5587,15 +5587,15 @@
       </c>
       <c r="J22" s="6">
         <f>AVERAGEIFS(data!P21:Y21, data!C21:L21, data!B21) / data!O21 -1</f>
-        <v>5.4419269238614731E-4</v>
+        <v>-2.721643872938273E-6</v>
       </c>
       <c r="K22" s="6">
         <f>_xlfn.MAXIFS(data!P21:Y21, data!C21:L21, data!B21)  / data!O21 -1</f>
-        <v>5.4664217187179176E-3</v>
+        <v>-2.721643872938273E-6</v>
       </c>
       <c r="L22" s="7">
         <f>AVERAGE(data!AB21:AK21)</f>
-        <v>1042.1947</v>
+        <v>1045.7655</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="L23" s="7">
         <f>AVERAGE(data!AB22:AK22)</f>
-        <v>216.267</v>
+        <v>218.01410000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
@@ -5667,11 +5667,11 @@
       </c>
       <c r="F24" s="7">
         <f>AVERAGE(data!C23:L23) - data!B23</f>
-        <v>0</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="G24" s="7">
         <f>MAX(data!C23:L23) - data!B23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="22">
         <f>data!O23</f>
@@ -5683,15 +5683,15 @@
       </c>
       <c r="J24" s="6">
         <f>AVERAGEIFS(data!P23:Y23, data!C23:L23, data!B23) / data!O23 -1</f>
-        <v>0</v>
+        <v>9.4882177760213793E-5</v>
       </c>
       <c r="K24" s="6">
         <f>_xlfn.MAXIFS(data!P23:Y23, data!C23:L23, data!B23)  / data!O23 -1</f>
-        <v>0</v>
+        <v>8.5393959984214618E-4</v>
       </c>
       <c r="L24" s="7">
         <f>AVERAGE(data!AB23:AK23)</f>
-        <v>401.60309999999998</v>
+        <v>383.88439999999997</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="L25" s="7">
         <f>AVERAGE(data!AB24:AK24)</f>
-        <v>226.57159999999999</v>
+        <v>226.86880000000002</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
